--- a/Access_Data_Export/clients.xlsx
+++ b/Access_Data_Export/clients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claude\Litigation_Database_Ver2\Litigation_Database_Ver2\Access_Data_Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B08571A-D90E-4E23-9BFF-9A0E2D8F15F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41409439-1291-4007-B4A8-C5A2BF68323F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="681">
   <si>
     <t>Cash/probono</t>
   </si>
@@ -52,9 +52,6 @@
     <t>مكان المستندات</t>
   </si>
   <si>
-    <t>contactLawyer</t>
-  </si>
-  <si>
     <t>clientStart</t>
   </si>
   <si>
@@ -2075,6 +2072,12 @@
   </si>
   <si>
     <t>client_ID</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Lawyer_id</t>
   </si>
 </sst>
 </file>
@@ -2150,7 +2153,7 @@
     <tableColumn id="7" xr3:uid="{AD7FDB29-825C-4F7A-993A-BDC11D0CE0D5}" name="logo"/>
     <tableColumn id="8" xr3:uid="{E0FBF4B6-3E9B-423D-B3B5-1A8E4C7D09F8}" name="مكان التوكيل"/>
     <tableColumn id="9" xr3:uid="{20F3D9A5-4509-4787-84F8-5428D6553654}" name="مكان المستندات"/>
-    <tableColumn id="10" xr3:uid="{FFBB3084-AC24-4F58-8EFD-2417F7F83D34}" name="contactLawyer"/>
+    <tableColumn id="10" xr3:uid="{FFBB3084-AC24-4F58-8EFD-2417F7F83D34}" name="Lawyer_id"/>
     <tableColumn id="11" xr3:uid="{027BD1CA-7803-4AC0-A969-2F1DD8D63C41}" name="clientStart" dataDxfId="0"/>
     <tableColumn id="12" xr3:uid="{354614F1-A44B-4C2E-90BC-613BC4864904}" name="clientEnd"/>
   </tableColumns>
@@ -2447,7 +2450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L309"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2467,16 +2472,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D1" t="s">
         <v>675</v>
-      </c>
-      <c r="C1" t="s">
-        <v>677</v>
-      </c>
-      <c r="D1" t="s">
-        <v>676</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -2494,13 +2499,13 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
+        <v>680</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2508,28 +2513,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
       </c>
       <c r="K2" s="1">
         <v>39814</v>
@@ -2540,31 +2545,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
         <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
       </c>
       <c r="K3" s="1">
         <v>40070</v>
@@ -2575,28 +2580,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="1">
         <v>40209</v>
@@ -2607,28 +2612,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
         <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
       </c>
       <c r="K5" s="1">
         <v>41898</v>
@@ -2639,25 +2644,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
       </c>
       <c r="K6" s="1">
         <v>39987</v>
@@ -2668,22 +2673,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7" s="1">
         <v>40168</v>
@@ -2694,25 +2699,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="1">
         <v>40168</v>
@@ -2723,25 +2728,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="1">
         <v>40275</v>
@@ -2752,22 +2757,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10" s="1">
         <v>40107</v>
@@ -2778,22 +2783,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2801,22 +2806,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="1">
         <v>40175</v>
@@ -2827,22 +2832,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K13" s="1">
         <v>40189</v>
@@ -2853,28 +2858,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
         <v>52</v>
       </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>53</v>
-      </c>
       <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
         <v>20</v>
-      </c>
-      <c r="J14" t="s">
-        <v>21</v>
       </c>
       <c r="K14" s="1">
         <v>40264</v>
@@ -2885,22 +2890,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
         <v>54</v>
       </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" s="1">
         <v>40222</v>
@@ -2911,22 +2916,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K16" s="1">
         <v>40199</v>
@@ -2937,25 +2942,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s">
         <v>20</v>
-      </c>
-      <c r="J17" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2963,19 +2968,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>679</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2983,19 +2991,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>679</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -3003,28 +3014,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
         <v>64</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>65</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
         <v>66</v>
       </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s">
         <v>67</v>
-      </c>
-      <c r="H20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -3032,22 +3043,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
         <v>69</v>
       </c>
-      <c r="C21" t="s">
-        <v>70</v>
-      </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -3055,22 +3066,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
         <v>71</v>
       </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -3078,22 +3089,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
         <v>73</v>
       </c>
-      <c r="C23" t="s">
-        <v>74</v>
-      </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -3101,22 +3112,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
         <v>75</v>
       </c>
-      <c r="C24" t="s">
-        <v>76</v>
-      </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -3124,22 +3135,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
         <v>77</v>
       </c>
-      <c r="C25" t="s">
-        <v>78</v>
-      </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -3147,22 +3158,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
         <v>79</v>
       </c>
-      <c r="C26" t="s">
-        <v>80</v>
-      </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -3170,22 +3181,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
         <v>81</v>
       </c>
-      <c r="C27" t="s">
-        <v>82</v>
-      </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -3193,22 +3204,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
         <v>83</v>
       </c>
-      <c r="C28" t="s">
-        <v>84</v>
-      </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -3216,25 +3227,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
         <v>85</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>86</v>
       </c>
-      <c r="D29" t="s">
-        <v>87</v>
-      </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -3242,22 +3253,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
         <v>88</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" t="s">
         <v>89</v>
       </c>
-      <c r="D30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" t="s">
-        <v>90</v>
-      </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -3265,25 +3276,25 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
         <v>91</v>
       </c>
-      <c r="C31" t="s">
-        <v>92</v>
-      </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -3291,25 +3302,25 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
         <v>93</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>94</v>
       </c>
-      <c r="D32" t="s">
-        <v>95</v>
-      </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -3317,22 +3328,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
         <v>96</v>
       </c>
-      <c r="C33" t="s">
-        <v>97</v>
-      </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -3340,22 +3351,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
         <v>98</v>
       </c>
-      <c r="C34" t="s">
-        <v>99</v>
-      </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -3363,25 +3374,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
         <v>100</v>
       </c>
-      <c r="C35" t="s">
-        <v>101</v>
-      </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -3389,22 +3400,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" t="s">
         <v>102</v>
       </c>
-      <c r="C36" t="s">
-        <v>103</v>
-      </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -3412,22 +3423,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
         <v>104</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>105</v>
       </c>
-      <c r="D37" t="s">
-        <v>106</v>
-      </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -3435,22 +3446,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
         <v>107</v>
       </c>
-      <c r="C38" t="s">
-        <v>108</v>
-      </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -3458,22 +3469,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
         <v>109</v>
       </c>
-      <c r="C39" t="s">
-        <v>110</v>
-      </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -3481,19 +3492,19 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -3501,22 +3512,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" t="s">
         <v>112</v>
       </c>
-      <c r="C41" t="s">
-        <v>113</v>
-      </c>
       <c r="D41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -3524,19 +3535,19 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -3544,22 +3555,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" t="s">
         <v>115</v>
       </c>
-      <c r="C43" t="s">
-        <v>116</v>
-      </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -3567,19 +3578,19 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -3587,28 +3598,28 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" t="s">
         <v>118</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>119</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
         <v>120</v>
       </c>
-      <c r="E45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>121</v>
-      </c>
       <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" t="s">
         <v>20</v>
-      </c>
-      <c r="J45" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -3616,25 +3627,25 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" t="s">
         <v>122</v>
       </c>
-      <c r="C46" t="s">
-        <v>123</v>
-      </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -3642,19 +3653,19 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" t="s">
         <v>124</v>
       </c>
-      <c r="D47" t="s">
-        <v>125</v>
-      </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -3662,28 +3673,28 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" t="s">
         <v>126</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>127</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
         <v>128</v>
       </c>
-      <c r="E48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>129</v>
-      </c>
       <c r="H48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -3691,25 +3702,25 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" t="s">
         <v>130</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
         <v>131</v>
       </c>
-      <c r="D49" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s">
-        <v>132</v>
-      </c>
       <c r="H49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -3717,19 +3728,19 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -3737,25 +3748,25 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" t="s">
         <v>134</v>
       </c>
-      <c r="C51" t="s">
-        <v>135</v>
-      </c>
       <c r="D51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" t="s">
         <v>20</v>
-      </c>
-      <c r="J51" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -3763,19 +3774,19 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -3783,25 +3794,25 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" t="s">
         <v>137</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
         <v>138</v>
       </c>
-      <c r="D53" t="s">
-        <v>138</v>
-      </c>
-      <c r="E53" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>139</v>
-      </c>
       <c r="H53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -3809,19 +3820,19 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -3829,19 +3840,19 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -3849,19 +3860,19 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -3869,22 +3880,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" t="s">
         <v>143</v>
       </c>
-      <c r="C57" t="s">
-        <v>144</v>
-      </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3892,19 +3903,19 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -3912,19 +3923,19 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
         <v>146</v>
-      </c>
-      <c r="D59" t="s">
-        <v>146</v>
-      </c>
-      <c r="E59" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -3932,25 +3943,25 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" t="s">
         <v>148</v>
       </c>
-      <c r="C60" t="s">
-        <v>149</v>
-      </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -3958,19 +3969,19 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3978,22 +3989,22 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" t="s">
         <v>151</v>
       </c>
-      <c r="C62" t="s">
-        <v>152</v>
-      </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -4001,19 +4012,19 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -4021,22 +4032,22 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" t="s">
         <v>154</v>
       </c>
-      <c r="C64" t="s">
-        <v>155</v>
-      </c>
       <c r="D64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -4044,19 +4055,19 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -4064,19 +4075,19 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -4084,25 +4095,25 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" t="s">
         <v>158</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>159</v>
       </c>
-      <c r="D67" t="s">
-        <v>160</v>
-      </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -4110,19 +4121,19 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -4130,19 +4141,19 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -4150,28 +4161,28 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" t="s">
         <v>163</v>
       </c>
-      <c r="C70" t="s">
-        <v>164</v>
-      </c>
       <c r="D70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" t="s">
         <v>20</v>
-      </c>
-      <c r="I70" t="s">
-        <v>20</v>
-      </c>
-      <c r="J70" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -4179,19 +4190,19 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -4199,25 +4210,25 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" t="s">
         <v>166</v>
       </c>
-      <c r="C72" t="s">
-        <v>167</v>
-      </c>
       <c r="D72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -4225,19 +4236,19 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -4245,19 +4256,19 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -4265,19 +4276,19 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -4285,19 +4296,19 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -4305,19 +4316,19 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -4325,19 +4336,19 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -4345,22 +4356,22 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" t="s">
         <v>174</v>
       </c>
-      <c r="C79" t="s">
-        <v>175</v>
-      </c>
       <c r="D79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -4368,19 +4379,19 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -4388,19 +4399,19 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -4408,25 +4419,25 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" t="s">
         <v>178</v>
       </c>
-      <c r="C82" t="s">
-        <v>179</v>
-      </c>
       <c r="D82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -4434,22 +4445,22 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" t="s">
         <v>180</v>
       </c>
-      <c r="C83" t="s">
-        <v>181</v>
-      </c>
       <c r="D83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -4457,28 +4468,28 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" t="s">
         <v>182</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>182</v>
+      </c>
+      <c r="E84" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
         <v>183</v>
       </c>
-      <c r="D84" t="s">
-        <v>183</v>
-      </c>
-      <c r="E84" t="s">
-        <v>17</v>
-      </c>
-      <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>184</v>
-      </c>
       <c r="H84" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84" t="s">
         <v>20</v>
-      </c>
-      <c r="J84" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -4486,22 +4497,22 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" t="s">
         <v>185</v>
       </c>
-      <c r="C85" t="s">
-        <v>186</v>
-      </c>
       <c r="D85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -4509,19 +4520,19 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D86" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -4529,22 +4540,22 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" t="s">
         <v>188</v>
       </c>
-      <c r="C87" t="s">
-        <v>189</v>
-      </c>
       <c r="D87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -4552,19 +4563,19 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D88" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -4572,25 +4583,25 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" t="s">
         <v>191</v>
       </c>
-      <c r="C89" t="s">
-        <v>192</v>
-      </c>
       <c r="D89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J89" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -4598,19 +4609,19 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -4618,19 +4629,19 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D91" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -4638,19 +4649,19 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -4658,19 +4669,19 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -4678,19 +4689,19 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -4698,19 +4709,19 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D95" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -4718,19 +4729,19 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -4738,19 +4749,19 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D97" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -4758,25 +4769,25 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>200</v>
+      </c>
+      <c r="C98" t="s">
         <v>201</v>
       </c>
-      <c r="C98" t="s">
-        <v>202</v>
-      </c>
       <c r="D98" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H98" t="s">
+        <v>19</v>
+      </c>
+      <c r="J98" t="s">
         <v>20</v>
-      </c>
-      <c r="J98" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -4784,22 +4795,22 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99" t="s">
         <v>203</v>
       </c>
-      <c r="C99" t="s">
-        <v>204</v>
-      </c>
       <c r="D99" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -4807,19 +4818,19 @@
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -4827,25 +4838,25 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101" t="s">
         <v>206</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>207</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
         <v>208</v>
       </c>
-      <c r="E101" t="s">
-        <v>17</v>
-      </c>
-      <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s">
-        <v>209</v>
-      </c>
       <c r="H101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -4853,19 +4864,19 @@
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D102" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -4873,31 +4884,31 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>210</v>
+      </c>
+      <c r="C103" t="s">
         <v>211</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>211</v>
+      </c>
+      <c r="E103" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
         <v>212</v>
       </c>
-      <c r="D103" t="s">
-        <v>212</v>
-      </c>
-      <c r="E103" t="s">
-        <v>17</v>
-      </c>
-      <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>213</v>
-      </c>
       <c r="H103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -4905,25 +4916,25 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>213</v>
+      </c>
+      <c r="C104" t="s">
         <v>214</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
+        <v>214</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" t="s">
+        <v>12</v>
+      </c>
+      <c r="J104" t="s">
         <v>215</v>
-      </c>
-      <c r="D104" t="s">
-        <v>215</v>
-      </c>
-      <c r="E104" t="s">
-        <v>17</v>
-      </c>
-      <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H104" t="s">
-        <v>13</v>
-      </c>
-      <c r="J104" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -4931,19 +4942,19 @@
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D105" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -4951,25 +4962,25 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>217</v>
+      </c>
+      <c r="C106" t="s">
         <v>218</v>
       </c>
-      <c r="C106" t="s">
-        <v>219</v>
-      </c>
       <c r="D106" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -4977,19 +4988,19 @@
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D107" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -4997,28 +5008,28 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>220</v>
+      </c>
+      <c r="C108" t="s">
         <v>221</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>221</v>
+      </c>
+      <c r="E108" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108" t="s">
         <v>222</v>
       </c>
-      <c r="D108" t="s">
-        <v>222</v>
-      </c>
-      <c r="E108" t="s">
-        <v>17</v>
-      </c>
-      <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>223</v>
-      </c>
       <c r="H108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J108" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -5026,19 +5037,19 @@
         <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D109" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -5046,19 +5057,19 @@
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D110" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -5066,25 +5077,25 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111" t="s">
         <v>226</v>
       </c>
-      <c r="C111" t="s">
-        <v>227</v>
-      </c>
       <c r="D111" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -5092,19 +5103,19 @@
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D112" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -5112,25 +5123,25 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" t="s">
         <v>229</v>
       </c>
-      <c r="C113" t="s">
-        <v>230</v>
-      </c>
       <c r="D113" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J113" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -5138,22 +5149,22 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" t="s">
         <v>231</v>
       </c>
-      <c r="C114" t="s">
-        <v>232</v>
-      </c>
       <c r="D114" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E114" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -5161,19 +5172,19 @@
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D115" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -5181,28 +5192,28 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>233</v>
+      </c>
+      <c r="C116" t="s">
         <v>234</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
+        <v>234</v>
+      </c>
+      <c r="E116" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" t="s">
         <v>235</v>
       </c>
-      <c r="D116" t="s">
-        <v>235</v>
-      </c>
-      <c r="E116" t="s">
-        <v>17</v>
-      </c>
-      <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>236</v>
-      </c>
       <c r="H116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -5210,19 +5221,19 @@
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D117" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -5230,19 +5241,19 @@
         <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D118" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -5250,25 +5261,25 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119" t="s">
         <v>239</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>240</v>
       </c>
-      <c r="D119" t="s">
-        <v>241</v>
-      </c>
       <c r="E119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J119" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -5276,25 +5287,25 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>241</v>
+      </c>
+      <c r="C120" t="s">
         <v>242</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>243</v>
       </c>
-      <c r="D120" t="s">
-        <v>244</v>
-      </c>
       <c r="E120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -5302,25 +5313,25 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121" t="s">
         <v>245</v>
       </c>
-      <c r="C121" t="s">
-        <v>246</v>
-      </c>
       <c r="D121" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -5328,22 +5339,22 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" t="s">
         <v>247</v>
       </c>
-      <c r="C122" t="s">
-        <v>248</v>
-      </c>
       <c r="D122" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -5351,25 +5362,25 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" t="s">
         <v>249</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>250</v>
       </c>
-      <c r="D123" t="s">
-        <v>251</v>
-      </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J123" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -5377,19 +5388,19 @@
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D124" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -5397,19 +5408,19 @@
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D125" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H125" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -5417,22 +5428,22 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126" t="s">
         <v>254</v>
       </c>
-      <c r="C126" t="s">
-        <v>255</v>
-      </c>
       <c r="D126" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -5440,19 +5451,19 @@
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D127" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -5460,19 +5471,19 @@
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D128" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H128" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -5480,19 +5491,19 @@
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D129" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
@@ -5500,28 +5511,28 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>258</v>
+      </c>
+      <c r="C130" t="s">
         <v>259</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>260</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
+        <v>16</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" t="s">
         <v>261</v>
       </c>
-      <c r="E130" t="s">
-        <v>17</v>
-      </c>
-      <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s">
-        <v>262</v>
-      </c>
       <c r="H130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J130" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
@@ -5529,19 +5540,19 @@
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D131" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
@@ -5549,28 +5560,28 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>263</v>
+      </c>
+      <c r="C132" t="s">
         <v>264</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>265</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
         <v>266</v>
       </c>
-      <c r="E132" t="s">
-        <v>17</v>
-      </c>
-      <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s">
-        <v>267</v>
-      </c>
       <c r="H132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J132" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
@@ -5578,19 +5589,19 @@
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D133" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
@@ -5598,28 +5609,28 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>268</v>
+      </c>
+      <c r="C134" t="s">
         <v>269</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>269</v>
+      </c>
+      <c r="E134" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" t="s">
         <v>270</v>
       </c>
-      <c r="D134" t="s">
-        <v>270</v>
-      </c>
-      <c r="E134" t="s">
-        <v>17</v>
-      </c>
-      <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s">
-        <v>271</v>
-      </c>
       <c r="H134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J134" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
@@ -5627,25 +5638,25 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>271</v>
+      </c>
+      <c r="C135" t="s">
         <v>272</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>273</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" t="s">
         <v>274</v>
       </c>
-      <c r="E135" t="s">
-        <v>10</v>
-      </c>
-      <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s">
-        <v>275</v>
-      </c>
       <c r="H135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
@@ -5653,19 +5664,19 @@
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D136" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
@@ -5673,22 +5684,22 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137" t="s">
         <v>277</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>278</v>
       </c>
-      <c r="D137" t="s">
-        <v>279</v>
-      </c>
       <c r="E137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H137" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
@@ -5696,19 +5707,19 @@
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D138" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
@@ -5716,19 +5727,19 @@
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D139" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
@@ -5736,22 +5747,22 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
+        <v>281</v>
+      </c>
+      <c r="C140" t="s">
         <v>282</v>
       </c>
-      <c r="C140" t="s">
-        <v>283</v>
-      </c>
       <c r="D140" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
@@ -5759,19 +5770,19 @@
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D141" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
@@ -5779,19 +5790,19 @@
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D142" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
@@ -5799,19 +5810,19 @@
         <v>142</v>
       </c>
       <c r="C143" t="s">
+        <v>285</v>
+      </c>
+      <c r="D143" t="s">
         <v>286</v>
       </c>
-      <c r="D143" t="s">
-        <v>287</v>
-      </c>
       <c r="E143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
@@ -5819,19 +5830,19 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D144" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H144" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -5839,19 +5850,19 @@
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D145" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -5859,22 +5870,22 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
+        <v>289</v>
+      </c>
+      <c r="C146" t="s">
         <v>290</v>
       </c>
-      <c r="C146" t="s">
-        <v>291</v>
-      </c>
       <c r="D146" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H146" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -5882,19 +5893,19 @@
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D147" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H147" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -5902,25 +5913,25 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
+        <v>292</v>
+      </c>
+      <c r="C148" t="s">
         <v>293</v>
       </c>
-      <c r="C148" t="s">
-        <v>294</v>
-      </c>
       <c r="D148" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J148" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -5928,25 +5939,25 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
+        <v>294</v>
+      </c>
+      <c r="C149" t="s">
         <v>295</v>
       </c>
-      <c r="C149" t="s">
-        <v>296</v>
-      </c>
       <c r="D149" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H149" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I149" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -5954,22 +5965,22 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
+        <v>296</v>
+      </c>
+      <c r="C150" t="s">
         <v>297</v>
       </c>
-      <c r="C150" t="s">
-        <v>298</v>
-      </c>
       <c r="D150" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H150" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -5977,22 +5988,22 @@
         <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D151" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H151" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I151" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -6000,25 +6011,25 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
+        <v>299</v>
+      </c>
+      <c r="C152" t="s">
         <v>300</v>
       </c>
-      <c r="C152" t="s">
-        <v>301</v>
-      </c>
       <c r="D152" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H152" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I152" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -6026,22 +6037,22 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
+        <v>301</v>
+      </c>
+      <c r="C153" t="s">
         <v>302</v>
       </c>
-      <c r="C153" t="s">
-        <v>303</v>
-      </c>
       <c r="D153" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H153" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -6049,19 +6060,19 @@
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D154" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -6069,22 +6080,22 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
+        <v>304</v>
+      </c>
+      <c r="C155" t="s">
         <v>305</v>
       </c>
-      <c r="C155" t="s">
-        <v>306</v>
-      </c>
       <c r="D155" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H155" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -6092,19 +6103,19 @@
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D156" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H156" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -6112,22 +6123,22 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
+        <v>307</v>
+      </c>
+      <c r="C157" t="s">
         <v>308</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>309</v>
       </c>
-      <c r="D157" t="s">
-        <v>310</v>
-      </c>
       <c r="E157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H157" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -6135,22 +6146,22 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
+        <v>310</v>
+      </c>
+      <c r="C158" t="s">
         <v>311</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>312</v>
       </c>
-      <c r="D158" t="s">
-        <v>313</v>
-      </c>
       <c r="E158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H158" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
@@ -6158,19 +6169,19 @@
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D159" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F159" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H159" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -6178,19 +6189,19 @@
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D160" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -6198,22 +6209,22 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
+        <v>315</v>
+      </c>
+      <c r="C161" t="s">
         <v>316</v>
       </c>
-      <c r="C161" t="s">
-        <v>317</v>
-      </c>
       <c r="D161" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H161" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -6221,19 +6232,19 @@
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D162" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H162" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -6241,22 +6252,22 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
+        <v>318</v>
+      </c>
+      <c r="C163" t="s">
         <v>319</v>
       </c>
-      <c r="C163" t="s">
-        <v>320</v>
-      </c>
       <c r="D163" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F163" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H163" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -6264,22 +6275,22 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
+        <v>320</v>
+      </c>
+      <c r="C164" t="s">
         <v>321</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>322</v>
       </c>
-      <c r="D164" t="s">
-        <v>323</v>
-      </c>
       <c r="E164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H164" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
@@ -6287,19 +6298,19 @@
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D165" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H165" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -6307,25 +6318,25 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
+        <v>324</v>
+      </c>
+      <c r="C166" t="s">
         <v>325</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>326</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
+        <v>16</v>
+      </c>
+      <c r="F166" t="s">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
         <v>327</v>
       </c>
-      <c r="E166" t="s">
-        <v>17</v>
-      </c>
-      <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>328</v>
-      </c>
       <c r="H166" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -6333,25 +6344,25 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
+        <v>328</v>
+      </c>
+      <c r="C167" t="s">
         <v>329</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>330</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
+        <v>16</v>
+      </c>
+      <c r="F167" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" t="s">
         <v>331</v>
       </c>
-      <c r="E167" t="s">
-        <v>17</v>
-      </c>
-      <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s">
-        <v>332</v>
-      </c>
       <c r="H167" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -6359,19 +6370,19 @@
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D168" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H168" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
@@ -6379,19 +6390,19 @@
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D169" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F169" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H169" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
@@ -6399,22 +6410,22 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
+        <v>334</v>
+      </c>
+      <c r="C170" t="s">
         <v>335</v>
       </c>
-      <c r="C170" t="s">
-        <v>336</v>
-      </c>
       <c r="D170" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H170" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -6422,22 +6433,22 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
+        <v>336</v>
+      </c>
+      <c r="C171" t="s">
         <v>337</v>
       </c>
-      <c r="C171" t="s">
-        <v>338</v>
-      </c>
       <c r="D171" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H171" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -6445,22 +6456,22 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
+        <v>338</v>
+      </c>
+      <c r="C172" t="s">
         <v>339</v>
       </c>
-      <c r="C172" t="s">
-        <v>340</v>
-      </c>
       <c r="D172" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H172" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -6468,22 +6479,22 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
+        <v>340</v>
+      </c>
+      <c r="C173" t="s">
         <v>341</v>
       </c>
-      <c r="C173" t="s">
-        <v>342</v>
-      </c>
       <c r="D173" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H173" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
@@ -6491,28 +6502,28 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
+        <v>342</v>
+      </c>
+      <c r="C174" t="s">
         <v>343</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>344</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" t="s">
         <v>345</v>
       </c>
-      <c r="E174" t="s">
-        <v>10</v>
-      </c>
-      <c r="F174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" t="s">
-        <v>346</v>
-      </c>
       <c r="H174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J174" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
@@ -6520,22 +6531,22 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
+        <v>346</v>
+      </c>
+      <c r="C175" t="s">
         <v>347</v>
       </c>
-      <c r="C175" t="s">
-        <v>348</v>
-      </c>
       <c r="D175" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F175" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H175" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
@@ -6543,28 +6554,28 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
+        <v>348</v>
+      </c>
+      <c r="C176" t="s">
         <v>349</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>350</v>
       </c>
-      <c r="D176" t="s">
+      <c r="E176" t="s">
+        <v>16</v>
+      </c>
+      <c r="F176" t="s">
+        <v>17</v>
+      </c>
+      <c r="G176" t="s">
         <v>351</v>
       </c>
-      <c r="E176" t="s">
-        <v>17</v>
-      </c>
-      <c r="F176" t="s">
-        <v>18</v>
-      </c>
-      <c r="G176" t="s">
-        <v>352</v>
-      </c>
       <c r="H176" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J176" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -6572,22 +6583,22 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
+        <v>352</v>
+      </c>
+      <c r="C177" t="s">
         <v>353</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>354</v>
       </c>
-      <c r="D177" t="s">
-        <v>355</v>
-      </c>
       <c r="E177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F177" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H177" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -6595,19 +6606,19 @@
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D178" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H178" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -6615,22 +6626,22 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
+        <v>356</v>
+      </c>
+      <c r="C179" t="s">
         <v>357</v>
       </c>
-      <c r="C179" t="s">
-        <v>358</v>
-      </c>
       <c r="D179" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -6638,19 +6649,19 @@
         <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D180" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F180" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H180" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -6658,22 +6669,22 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
+        <v>359</v>
+      </c>
+      <c r="C181" t="s">
         <v>360</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>361</v>
       </c>
-      <c r="D181" t="s">
-        <v>362</v>
-      </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H181" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -6681,25 +6692,25 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
+        <v>362</v>
+      </c>
+      <c r="C182" t="s">
         <v>363</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>364</v>
       </c>
-      <c r="D182" t="s">
+      <c r="E182" t="s">
+        <v>16</v>
+      </c>
+      <c r="F182" t="s">
+        <v>17</v>
+      </c>
+      <c r="G182" t="s">
         <v>365</v>
       </c>
-      <c r="E182" t="s">
-        <v>17</v>
-      </c>
-      <c r="F182" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" t="s">
-        <v>366</v>
-      </c>
       <c r="H182" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -6707,28 +6718,28 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
+        <v>366</v>
+      </c>
+      <c r="C183" t="s">
         <v>367</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
+        <v>367</v>
+      </c>
+      <c r="E183" t="s">
+        <v>16</v>
+      </c>
+      <c r="F183" t="s">
+        <v>17</v>
+      </c>
+      <c r="G183" t="s">
         <v>368</v>
       </c>
-      <c r="D183" t="s">
-        <v>368</v>
-      </c>
-      <c r="E183" t="s">
-        <v>17</v>
-      </c>
-      <c r="F183" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" t="s">
-        <v>369</v>
-      </c>
       <c r="H183" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I183" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -6736,22 +6747,22 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>369</v>
+      </c>
+      <c r="C184" t="s">
         <v>370</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>371</v>
       </c>
-      <c r="D184" t="s">
-        <v>372</v>
-      </c>
       <c r="E184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H184" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -6759,22 +6770,22 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>372</v>
+      </c>
+      <c r="C185" t="s">
         <v>373</v>
       </c>
-      <c r="C185" t="s">
-        <v>374</v>
-      </c>
       <c r="D185" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F185" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H185" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -6782,22 +6793,22 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>374</v>
+      </c>
+      <c r="C186" t="s">
         <v>375</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>376</v>
       </c>
-      <c r="D186" t="s">
-        <v>377</v>
-      </c>
       <c r="E186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F186" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H186" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -6805,25 +6816,25 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>377</v>
+      </c>
+      <c r="C187" t="s">
         <v>378</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>379</v>
       </c>
-      <c r="D187" t="s">
-        <v>380</v>
-      </c>
       <c r="E187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H187" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J187" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -6831,25 +6842,25 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>380</v>
+      </c>
+      <c r="C188" t="s">
         <v>381</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>382</v>
       </c>
-      <c r="D188" t="s">
+      <c r="E188" t="s">
+        <v>16</v>
+      </c>
+      <c r="F188" t="s">
+        <v>17</v>
+      </c>
+      <c r="G188" t="s">
         <v>383</v>
       </c>
-      <c r="E188" t="s">
-        <v>17</v>
-      </c>
-      <c r="F188" t="s">
-        <v>18</v>
-      </c>
-      <c r="G188" t="s">
-        <v>384</v>
-      </c>
       <c r="H188" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -6857,28 +6868,28 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>384</v>
+      </c>
+      <c r="C189" t="s">
         <v>385</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>386</v>
       </c>
-      <c r="D189" t="s">
-        <v>387</v>
-      </c>
       <c r="E189" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G189" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H189" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J189" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -6886,22 +6897,22 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>387</v>
+      </c>
+      <c r="C190" t="s">
         <v>388</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>389</v>
       </c>
-      <c r="D190" t="s">
-        <v>390</v>
-      </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F190" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H190" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -6909,25 +6920,25 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>390</v>
+      </c>
+      <c r="C191" t="s">
         <v>391</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
+        <v>391</v>
+      </c>
+      <c r="E191" t="s">
+        <v>9</v>
+      </c>
+      <c r="F191" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" t="s">
         <v>392</v>
       </c>
-      <c r="D191" t="s">
-        <v>392</v>
-      </c>
-      <c r="E191" t="s">
-        <v>10</v>
-      </c>
-      <c r="F191" t="s">
-        <v>11</v>
-      </c>
-      <c r="G191" t="s">
-        <v>393</v>
-      </c>
       <c r="H191" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -6935,19 +6946,19 @@
         <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D192" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H192" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -6955,28 +6966,28 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>394</v>
+      </c>
+      <c r="C193" t="s">
         <v>395</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
+        <v>395</v>
+      </c>
+      <c r="E193" t="s">
+        <v>16</v>
+      </c>
+      <c r="F193" t="s">
+        <v>17</v>
+      </c>
+      <c r="G193" t="s">
         <v>396</v>
       </c>
-      <c r="D193" t="s">
-        <v>396</v>
-      </c>
-      <c r="E193" t="s">
-        <v>17</v>
-      </c>
-      <c r="F193" t="s">
-        <v>18</v>
-      </c>
-      <c r="G193" t="s">
-        <v>397</v>
-      </c>
       <c r="H193" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -6984,19 +6995,19 @@
         <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D194" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H194" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -7004,19 +7015,19 @@
         <v>194</v>
       </c>
       <c r="C195" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D195" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E195" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H195" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -7024,22 +7035,22 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>399</v>
+      </c>
+      <c r="C196" t="s">
         <v>400</v>
       </c>
-      <c r="C196" t="s">
-        <v>401</v>
-      </c>
       <c r="D196" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F196" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H196" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -7047,19 +7058,19 @@
         <v>196</v>
       </c>
       <c r="C197" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D197" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F197" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -7067,19 +7078,19 @@
         <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D198" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F198" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -7087,22 +7098,22 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>403</v>
+      </c>
+      <c r="C199" t="s">
         <v>404</v>
       </c>
-      <c r="C199" t="s">
-        <v>405</v>
-      </c>
       <c r="D199" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E199" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F199" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H199" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -7110,19 +7121,19 @@
         <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D200" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F200" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -7130,25 +7141,25 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>406</v>
+      </c>
+      <c r="C201" t="s">
         <v>407</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>408</v>
       </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
+        <v>16</v>
+      </c>
+      <c r="F201" t="s">
+        <v>17</v>
+      </c>
+      <c r="G201" t="s">
         <v>409</v>
       </c>
-      <c r="E201" t="s">
-        <v>17</v>
-      </c>
-      <c r="F201" t="s">
-        <v>18</v>
-      </c>
-      <c r="G201" t="s">
-        <v>410</v>
-      </c>
       <c r="H201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -7156,22 +7167,22 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>410</v>
+      </c>
+      <c r="C202" t="s">
         <v>411</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>412</v>
       </c>
-      <c r="D202" t="s">
-        <v>413</v>
-      </c>
       <c r="E202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F202" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -7179,19 +7190,19 @@
         <v>202</v>
       </c>
       <c r="C203" t="s">
+        <v>413</v>
+      </c>
+      <c r="D203" t="s">
         <v>414</v>
       </c>
-      <c r="D203" t="s">
-        <v>415</v>
-      </c>
       <c r="E203" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F203" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H203" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -7199,22 +7210,22 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
+        <v>415</v>
+      </c>
+      <c r="C204" t="s">
         <v>416</v>
       </c>
-      <c r="C204" t="s">
-        <v>417</v>
-      </c>
       <c r="D204" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E204" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F204" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H204" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -7222,22 +7233,22 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
+        <v>417</v>
+      </c>
+      <c r="C205" t="s">
         <v>418</v>
       </c>
-      <c r="C205" t="s">
-        <v>419</v>
-      </c>
       <c r="D205" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E205" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F205" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H205" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -7245,19 +7256,19 @@
         <v>205</v>
       </c>
       <c r="C206" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D206" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E206" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F206" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H206" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -7265,22 +7276,22 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
+        <v>420</v>
+      </c>
+      <c r="C207" t="s">
         <v>421</v>
       </c>
-      <c r="C207" t="s">
-        <v>422</v>
-      </c>
       <c r="D207" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E207" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F207" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H207" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -7288,22 +7299,22 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>422</v>
+      </c>
+      <c r="C208" t="s">
         <v>423</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>424</v>
       </c>
-      <c r="D208" t="s">
-        <v>425</v>
-      </c>
       <c r="E208" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F208" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H208" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
@@ -7311,22 +7322,22 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>425</v>
+      </c>
+      <c r="C209" t="s">
         <v>426</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>427</v>
       </c>
-      <c r="D209" t="s">
-        <v>428</v>
-      </c>
       <c r="E209" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H209" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
@@ -7334,28 +7345,28 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
+        <v>428</v>
+      </c>
+      <c r="C210" t="s">
         <v>429</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>430</v>
       </c>
-      <c r="D210" t="s">
-        <v>431</v>
-      </c>
       <c r="E210" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F210" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H210" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I210" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J210" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
@@ -7363,28 +7374,28 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>431</v>
+      </c>
+      <c r="C211" t="s">
         <v>432</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>433</v>
       </c>
-      <c r="D211" t="s">
+      <c r="E211" t="s">
+        <v>16</v>
+      </c>
+      <c r="F211" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" t="s">
         <v>434</v>
       </c>
-      <c r="E211" t="s">
-        <v>17</v>
-      </c>
-      <c r="F211" t="s">
-        <v>11</v>
-      </c>
-      <c r="G211" t="s">
-        <v>435</v>
-      </c>
       <c r="H211" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J211" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
@@ -7392,25 +7403,25 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>435</v>
+      </c>
+      <c r="C212" t="s">
         <v>436</v>
       </c>
-      <c r="C212" t="s">
-        <v>437</v>
-      </c>
       <c r="D212" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E212" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F212" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H212" t="s">
+        <v>19</v>
+      </c>
+      <c r="J212" t="s">
         <v>20</v>
-      </c>
-      <c r="J212" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
@@ -7418,28 +7429,28 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>437</v>
+      </c>
+      <c r="C213" t="s">
         <v>438</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
+        <v>438</v>
+      </c>
+      <c r="E213" t="s">
+        <v>16</v>
+      </c>
+      <c r="F213" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" t="s">
         <v>439</v>
       </c>
-      <c r="D213" t="s">
-        <v>439</v>
-      </c>
-      <c r="E213" t="s">
-        <v>17</v>
-      </c>
-      <c r="F213" t="s">
-        <v>11</v>
-      </c>
-      <c r="G213" t="s">
-        <v>440</v>
-      </c>
       <c r="H213" t="s">
+        <v>19</v>
+      </c>
+      <c r="J213" t="s">
         <v>20</v>
-      </c>
-      <c r="J213" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
@@ -7447,25 +7458,25 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
+        <v>440</v>
+      </c>
+      <c r="C214" t="s">
         <v>441</v>
       </c>
-      <c r="C214" t="s">
-        <v>442</v>
-      </c>
       <c r="D214" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E214" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F214" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H214" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J214" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
@@ -7473,28 +7484,28 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>442</v>
+      </c>
+      <c r="C215" t="s">
         <v>443</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>444</v>
       </c>
-      <c r="D215" t="s">
+      <c r="E215" t="s">
+        <v>16</v>
+      </c>
+      <c r="F215" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" t="s">
         <v>445</v>
       </c>
-      <c r="E215" t="s">
-        <v>17</v>
-      </c>
-      <c r="F215" t="s">
-        <v>11</v>
-      </c>
-      <c r="G215" t="s">
-        <v>446</v>
-      </c>
       <c r="H215" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J215" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
@@ -7502,25 +7513,25 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>446</v>
+      </c>
+      <c r="C216" t="s">
         <v>447</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
+        <v>447</v>
+      </c>
+      <c r="E216" t="s">
+        <v>16</v>
+      </c>
+      <c r="F216" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" t="s">
         <v>448</v>
       </c>
-      <c r="D216" t="s">
-        <v>448</v>
-      </c>
-      <c r="E216" t="s">
-        <v>17</v>
-      </c>
-      <c r="F216" t="s">
-        <v>11</v>
-      </c>
-      <c r="G216" t="s">
-        <v>449</v>
-      </c>
       <c r="H216" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
@@ -7528,25 +7539,25 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>449</v>
+      </c>
+      <c r="C217" t="s">
         <v>450</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>451</v>
       </c>
-      <c r="D217" t="s">
+      <c r="E217" t="s">
+        <v>16</v>
+      </c>
+      <c r="F217" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" t="s">
         <v>452</v>
       </c>
-      <c r="E217" t="s">
-        <v>17</v>
-      </c>
-      <c r="F217" t="s">
-        <v>11</v>
-      </c>
-      <c r="G217" t="s">
-        <v>453</v>
-      </c>
       <c r="H217" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
@@ -7554,22 +7565,22 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>453</v>
+      </c>
+      <c r="C218" t="s">
         <v>454</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>455</v>
       </c>
-      <c r="D218" t="s">
-        <v>456</v>
-      </c>
       <c r="E218" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F218" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H218" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
@@ -7577,22 +7588,22 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
+        <v>456</v>
+      </c>
+      <c r="C219" t="s">
         <v>457</v>
       </c>
-      <c r="C219" t="s">
-        <v>458</v>
-      </c>
       <c r="D219" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E219" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F219" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H219" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
@@ -7600,28 +7611,28 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>458</v>
+      </c>
+      <c r="C220" t="s">
         <v>459</v>
       </c>
-      <c r="C220" t="s">
-        <v>460</v>
-      </c>
       <c r="D220" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E220" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F220" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G220" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H220" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J220" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K220" s="1">
         <v>43321</v>
@@ -7635,22 +7646,22 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>460</v>
+      </c>
+      <c r="C221" t="s">
         <v>461</v>
       </c>
-      <c r="C221" t="s">
-        <v>462</v>
-      </c>
       <c r="D221" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E221" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F221" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H221" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
@@ -7658,19 +7669,19 @@
         <v>221</v>
       </c>
       <c r="C222" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D222" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E222" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F222" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H222" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
@@ -7678,22 +7689,22 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>463</v>
+      </c>
+      <c r="C223" t="s">
         <v>464</v>
       </c>
-      <c r="C223" t="s">
-        <v>465</v>
-      </c>
       <c r="D223" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E223" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F223" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H223" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
@@ -7701,25 +7712,25 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
+        <v>465</v>
+      </c>
+      <c r="C224" t="s">
         <v>466</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>467</v>
       </c>
-      <c r="D224" t="s">
-        <v>468</v>
-      </c>
       <c r="E224" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F224" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H224" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J224" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K224" s="1">
         <v>43499</v>
@@ -7733,31 +7744,31 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
+        <v>468</v>
+      </c>
+      <c r="C225" t="s">
         <v>469</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
+        <v>469</v>
+      </c>
+      <c r="E225" t="s">
+        <v>16</v>
+      </c>
+      <c r="F225" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" t="s">
         <v>470</v>
       </c>
-      <c r="D225" t="s">
-        <v>470</v>
-      </c>
-      <c r="E225" t="s">
-        <v>17</v>
-      </c>
-      <c r="F225" t="s">
-        <v>11</v>
-      </c>
-      <c r="G225" t="s">
-        <v>471</v>
-      </c>
       <c r="H225" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I225" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J225" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K225" s="1">
         <v>43353</v>
@@ -7768,25 +7779,25 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
+        <v>471</v>
+      </c>
+      <c r="C226" t="s">
         <v>472</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
+        <v>472</v>
+      </c>
+      <c r="E226" t="s">
+        <v>16</v>
+      </c>
+      <c r="F226" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" t="s">
         <v>473</v>
       </c>
-      <c r="D226" t="s">
-        <v>473</v>
-      </c>
-      <c r="E226" t="s">
-        <v>17</v>
-      </c>
-      <c r="F226" t="s">
-        <v>11</v>
-      </c>
-      <c r="G226" t="s">
-        <v>474</v>
-      </c>
       <c r="H226" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K226" s="1">
         <v>43506</v>
@@ -7797,25 +7808,25 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
+        <v>474</v>
+      </c>
+      <c r="C227" t="s">
         <v>475</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
+        <v>475</v>
+      </c>
+      <c r="E227" t="s">
+        <v>16</v>
+      </c>
+      <c r="F227" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" t="s">
         <v>476</v>
       </c>
-      <c r="D227" t="s">
-        <v>476</v>
-      </c>
-      <c r="E227" t="s">
-        <v>17</v>
-      </c>
-      <c r="F227" t="s">
-        <v>11</v>
-      </c>
-      <c r="G227" t="s">
-        <v>477</v>
-      </c>
       <c r="H227" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
@@ -7823,22 +7834,22 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
+        <v>477</v>
+      </c>
+      <c r="C228" t="s">
         <v>478</v>
       </c>
-      <c r="C228" t="s">
-        <v>479</v>
-      </c>
       <c r="D228" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F228" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H228" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K228" s="1">
         <v>43482</v>
@@ -7849,28 +7860,28 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
+        <v>479</v>
+      </c>
+      <c r="C229" t="s">
         <v>480</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
+        <v>480</v>
+      </c>
+      <c r="E229" t="s">
+        <v>16</v>
+      </c>
+      <c r="F229" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" t="s">
         <v>481</v>
       </c>
-      <c r="D229" t="s">
-        <v>481</v>
-      </c>
-      <c r="E229" t="s">
-        <v>17</v>
-      </c>
-      <c r="F229" t="s">
-        <v>11</v>
-      </c>
-      <c r="G229" t="s">
-        <v>482</v>
-      </c>
       <c r="H229" t="s">
+        <v>19</v>
+      </c>
+      <c r="J229" t="s">
         <v>20</v>
-      </c>
-      <c r="J229" t="s">
-        <v>21</v>
       </c>
       <c r="K229" s="1">
         <v>43397</v>
@@ -7881,28 +7892,28 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
+        <v>482</v>
+      </c>
+      <c r="C230" t="s">
         <v>483</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
+        <v>483</v>
+      </c>
+      <c r="E230" t="s">
+        <v>16</v>
+      </c>
+      <c r="F230" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" t="s">
         <v>484</v>
       </c>
-      <c r="D230" t="s">
-        <v>484</v>
-      </c>
-      <c r="E230" t="s">
-        <v>17</v>
-      </c>
-      <c r="F230" t="s">
-        <v>11</v>
-      </c>
-      <c r="G230" t="s">
-        <v>485</v>
-      </c>
       <c r="H230" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J230" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K230" s="1">
         <v>43415</v>
@@ -7913,25 +7924,25 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
+        <v>485</v>
+      </c>
+      <c r="C231" t="s">
         <v>486</v>
       </c>
-      <c r="C231" t="s">
-        <v>487</v>
-      </c>
       <c r="D231" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E231" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F231" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H231" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J231" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K231" s="1">
         <v>43550</v>
@@ -7942,28 +7953,28 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
+        <v>487</v>
+      </c>
+      <c r="C232" t="s">
         <v>488</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>489</v>
       </c>
-      <c r="D232" t="s">
-        <v>490</v>
-      </c>
       <c r="E232" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F232" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G232" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H232" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J232" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
@@ -7971,28 +7982,28 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
+        <v>490</v>
+      </c>
+      <c r="C233" t="s">
         <v>491</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>492</v>
       </c>
-      <c r="D233" t="s">
+      <c r="E233" t="s">
+        <v>16</v>
+      </c>
+      <c r="F233" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" t="s">
         <v>493</v>
       </c>
-      <c r="E233" t="s">
-        <v>17</v>
-      </c>
-      <c r="F233" t="s">
-        <v>11</v>
-      </c>
-      <c r="G233" t="s">
-        <v>494</v>
-      </c>
       <c r="H233" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J233" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K233" s="1">
         <v>43617</v>
@@ -8003,28 +8014,28 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
+        <v>494</v>
+      </c>
+      <c r="C234" t="s">
         <v>495</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>496</v>
       </c>
-      <c r="D234" t="s">
-        <v>497</v>
-      </c>
       <c r="E234" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F234" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G234" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H234" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J234" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K234" s="1">
         <v>43628</v>
@@ -8035,25 +8046,25 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
+        <v>497</v>
+      </c>
+      <c r="C235" t="s">
         <v>498</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
+        <v>498</v>
+      </c>
+      <c r="E235" t="s">
+        <v>16</v>
+      </c>
+      <c r="F235" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" t="s">
         <v>499</v>
       </c>
-      <c r="D235" t="s">
-        <v>499</v>
-      </c>
-      <c r="E235" t="s">
-        <v>17</v>
-      </c>
-      <c r="F235" t="s">
-        <v>11</v>
-      </c>
-      <c r="G235" t="s">
-        <v>500</v>
-      </c>
       <c r="H235" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
@@ -8061,25 +8072,25 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
+        <v>500</v>
+      </c>
+      <c r="C236" t="s">
         <v>501</v>
       </c>
-      <c r="C236" t="s">
-        <v>502</v>
-      </c>
       <c r="D236" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E236" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F236" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H236" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J236" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K236" s="1">
         <v>43397</v>
@@ -8090,22 +8101,22 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
+        <v>502</v>
+      </c>
+      <c r="C237" t="s">
         <v>503</v>
       </c>
-      <c r="C237" t="s">
-        <v>504</v>
-      </c>
       <c r="D237" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E237" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F237" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H237" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
@@ -8113,22 +8124,22 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
+        <v>504</v>
+      </c>
+      <c r="C238" t="s">
         <v>505</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>506</v>
       </c>
-      <c r="D238" t="s">
-        <v>507</v>
-      </c>
       <c r="E238" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F238" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H238" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K238" s="1">
         <v>43730</v>
@@ -8139,28 +8150,28 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
+        <v>507</v>
+      </c>
+      <c r="C239" t="s">
         <v>508</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
+        <v>508</v>
+      </c>
+      <c r="E239" t="s">
+        <v>16</v>
+      </c>
+      <c r="F239" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" t="s">
         <v>509</v>
       </c>
-      <c r="D239" t="s">
-        <v>509</v>
-      </c>
-      <c r="E239" t="s">
-        <v>17</v>
-      </c>
-      <c r="F239" t="s">
-        <v>11</v>
-      </c>
-      <c r="G239" t="s">
-        <v>510</v>
-      </c>
       <c r="H239" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J239" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K239" s="1">
         <v>43719</v>
@@ -8171,25 +8182,25 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
+        <v>510</v>
+      </c>
+      <c r="C240" t="s">
         <v>511</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
+        <v>511</v>
+      </c>
+      <c r="E240" t="s">
+        <v>16</v>
+      </c>
+      <c r="F240" t="s">
         <v>512</v>
       </c>
-      <c r="D240" t="s">
-        <v>512</v>
-      </c>
-      <c r="E240" t="s">
-        <v>17</v>
-      </c>
-      <c r="F240" t="s">
-        <v>513</v>
-      </c>
       <c r="H240" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J240" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
@@ -8197,25 +8208,25 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
+        <v>513</v>
+      </c>
+      <c r="C241" t="s">
         <v>514</v>
       </c>
-      <c r="C241" t="s">
-        <v>515</v>
-      </c>
       <c r="D241" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E241" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F241" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H241" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J241" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
@@ -8223,28 +8234,28 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
+        <v>515</v>
+      </c>
+      <c r="C242" t="s">
         <v>516</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
+        <v>516</v>
+      </c>
+      <c r="E242" t="s">
+        <v>16</v>
+      </c>
+      <c r="F242" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" t="s">
         <v>517</v>
       </c>
-      <c r="D242" t="s">
-        <v>517</v>
-      </c>
-      <c r="E242" t="s">
-        <v>17</v>
-      </c>
-      <c r="F242" t="s">
-        <v>11</v>
-      </c>
-      <c r="G242" t="s">
-        <v>518</v>
-      </c>
       <c r="H242" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J242" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K242" s="1">
         <v>43836</v>
@@ -8255,28 +8266,28 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
+        <v>518</v>
+      </c>
+      <c r="C243" t="s">
         <v>519</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
+        <v>519</v>
+      </c>
+      <c r="E243" t="s">
+        <v>16</v>
+      </c>
+      <c r="F243" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" t="s">
         <v>520</v>
       </c>
-      <c r="D243" t="s">
-        <v>520</v>
-      </c>
-      <c r="E243" t="s">
-        <v>17</v>
-      </c>
-      <c r="F243" t="s">
-        <v>11</v>
-      </c>
-      <c r="G243" t="s">
-        <v>521</v>
-      </c>
       <c r="H243" t="s">
+        <v>19</v>
+      </c>
+      <c r="J243" t="s">
         <v>20</v>
-      </c>
-      <c r="J243" t="s">
-        <v>21</v>
       </c>
       <c r="K243" s="1">
         <v>43836</v>
@@ -8287,25 +8298,25 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
+        <v>521</v>
+      </c>
+      <c r="C244" t="s">
         <v>522</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
+        <v>522</v>
+      </c>
+      <c r="E244" t="s">
+        <v>16</v>
+      </c>
+      <c r="F244" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" t="s">
         <v>523</v>
       </c>
-      <c r="D244" t="s">
-        <v>523</v>
-      </c>
-      <c r="E244" t="s">
-        <v>17</v>
-      </c>
-      <c r="F244" t="s">
-        <v>11</v>
-      </c>
-      <c r="G244" t="s">
-        <v>524</v>
-      </c>
       <c r="H244" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K244" s="1">
         <v>43870</v>
@@ -8316,22 +8327,22 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
+        <v>524</v>
+      </c>
+      <c r="C245" t="s">
         <v>525</v>
       </c>
-      <c r="C245" t="s">
-        <v>526</v>
-      </c>
       <c r="D245" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E245" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F245" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H245" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K245" s="1">
         <v>43872</v>
@@ -8342,22 +8353,22 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
+        <v>526</v>
+      </c>
+      <c r="C246" t="s">
         <v>527</v>
       </c>
-      <c r="C246" t="s">
-        <v>528</v>
-      </c>
       <c r="D246" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E246" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F246" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H246" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K246" s="1">
         <v>43873</v>
@@ -8368,28 +8379,28 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
+        <v>528</v>
+      </c>
+      <c r="C247" t="s">
         <v>529</v>
       </c>
-      <c r="C247" t="s">
-        <v>530</v>
-      </c>
       <c r="D247" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E247" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F247" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G247" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H247" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J247" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K247" s="1">
         <v>43885</v>
@@ -8400,25 +8411,25 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
+        <v>530</v>
+      </c>
+      <c r="C248" t="s">
         <v>531</v>
       </c>
-      <c r="C248" t="s">
-        <v>532</v>
-      </c>
       <c r="D248" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E248" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F248" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H248" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J248" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K248" s="1">
         <v>43906</v>
@@ -8432,22 +8443,22 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
+        <v>532</v>
+      </c>
+      <c r="C249" t="s">
         <v>533</v>
       </c>
-      <c r="C249" t="s">
-        <v>534</v>
-      </c>
       <c r="D249" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E249" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F249" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H249" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
@@ -8455,25 +8466,25 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
+        <v>534</v>
+      </c>
+      <c r="C250" t="s">
         <v>535</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>536</v>
       </c>
-      <c r="D250" t="s">
-        <v>537</v>
-      </c>
       <c r="E250" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F250" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H250" t="s">
+        <v>19</v>
+      </c>
+      <c r="J250" t="s">
         <v>20</v>
-      </c>
-      <c r="J250" t="s">
-        <v>21</v>
       </c>
       <c r="K250" s="1">
         <v>44025</v>
@@ -8484,28 +8495,28 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
+        <v>537</v>
+      </c>
+      <c r="C251" t="s">
         <v>538</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
         <v>539</v>
       </c>
-      <c r="D251" t="s">
+      <c r="E251" t="s">
+        <v>16</v>
+      </c>
+      <c r="F251" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" t="s">
         <v>540</v>
       </c>
-      <c r="E251" t="s">
-        <v>17</v>
-      </c>
-      <c r="F251" t="s">
-        <v>11</v>
-      </c>
-      <c r="G251" t="s">
-        <v>541</v>
-      </c>
       <c r="H251" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J251" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K251" s="1">
         <v>44024</v>
@@ -8516,22 +8527,22 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
+        <v>541</v>
+      </c>
+      <c r="C252" t="s">
         <v>542</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>543</v>
       </c>
-      <c r="D252" t="s">
-        <v>544</v>
-      </c>
       <c r="E252" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F252" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H252" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
@@ -8539,28 +8550,28 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
+        <v>544</v>
+      </c>
+      <c r="C253" t="s">
         <v>545</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
+        <v>545</v>
+      </c>
+      <c r="E253" t="s">
+        <v>16</v>
+      </c>
+      <c r="F253" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" t="s">
         <v>546</v>
       </c>
-      <c r="D253" t="s">
-        <v>546</v>
-      </c>
-      <c r="E253" t="s">
-        <v>17</v>
-      </c>
-      <c r="F253" t="s">
-        <v>11</v>
-      </c>
-      <c r="G253" t="s">
-        <v>547</v>
-      </c>
       <c r="H253" t="s">
+        <v>19</v>
+      </c>
+      <c r="J253" t="s">
         <v>20</v>
-      </c>
-      <c r="J253" t="s">
-        <v>21</v>
       </c>
       <c r="K253" s="1">
         <v>44088</v>
@@ -8571,22 +8582,22 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
+        <v>547</v>
+      </c>
+      <c r="C254" t="s">
         <v>548</v>
       </c>
-      <c r="C254" t="s">
-        <v>549</v>
-      </c>
       <c r="D254" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E254" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F254" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H254" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K254" s="1">
         <v>44125</v>
@@ -8600,22 +8611,22 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
+        <v>549</v>
+      </c>
+      <c r="C255" t="s">
         <v>550</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
         <v>551</v>
       </c>
-      <c r="D255" t="s">
-        <v>552</v>
-      </c>
       <c r="E255" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F255" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H255" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K255" s="1">
         <v>44136</v>
@@ -8626,25 +8637,25 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
+        <v>552</v>
+      </c>
+      <c r="C256" t="s">
         <v>553</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
         <v>554</v>
       </c>
-      <c r="D256" t="s">
-        <v>555</v>
-      </c>
       <c r="E256" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F256" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H256" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J256" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K256" s="1">
         <v>44140</v>
@@ -8655,25 +8666,25 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
+        <v>555</v>
+      </c>
+      <c r="C257" t="s">
         <v>556</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>557</v>
       </c>
-      <c r="D257" t="s">
-        <v>558</v>
-      </c>
       <c r="E257" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F257" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H257" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J257" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K257" s="1">
         <v>44164</v>
@@ -8684,25 +8695,25 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
+        <v>558</v>
+      </c>
+      <c r="C258" t="s">
         <v>559</v>
       </c>
-      <c r="C258" t="s">
+      <c r="D258" t="s">
         <v>560</v>
       </c>
-      <c r="D258" t="s">
+      <c r="E258" t="s">
+        <v>16</v>
+      </c>
+      <c r="F258" t="s">
+        <v>10</v>
+      </c>
+      <c r="H258" t="s">
+        <v>19</v>
+      </c>
+      <c r="J258" t="s">
         <v>561</v>
-      </c>
-      <c r="E258" t="s">
-        <v>17</v>
-      </c>
-      <c r="F258" t="s">
-        <v>11</v>
-      </c>
-      <c r="H258" t="s">
-        <v>20</v>
-      </c>
-      <c r="J258" t="s">
-        <v>562</v>
       </c>
       <c r="K258" s="1">
         <v>44165</v>
@@ -8713,28 +8724,28 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
+        <v>562</v>
+      </c>
+      <c r="C259" t="s">
         <v>563</v>
       </c>
-      <c r="C259" t="s">
+      <c r="D259" t="s">
+        <v>563</v>
+      </c>
+      <c r="E259" t="s">
+        <v>16</v>
+      </c>
+      <c r="F259" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" t="s">
         <v>564</v>
       </c>
-      <c r="D259" t="s">
-        <v>564</v>
-      </c>
-      <c r="E259" t="s">
-        <v>17</v>
-      </c>
-      <c r="F259" t="s">
-        <v>11</v>
-      </c>
-      <c r="G259" t="s">
-        <v>565</v>
-      </c>
       <c r="H259" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J259" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K259" s="1">
         <v>44215</v>
@@ -8745,25 +8756,25 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
+        <v>565</v>
+      </c>
+      <c r="C260" t="s">
         <v>566</v>
       </c>
-      <c r="C260" t="s">
-        <v>567</v>
-      </c>
       <c r="D260" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E260" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F260" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H260" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J260" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K260" s="1">
         <v>44251</v>
@@ -8774,22 +8785,22 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
+        <v>567</v>
+      </c>
+      <c r="C261" t="s">
         <v>568</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
         <v>569</v>
       </c>
-      <c r="D261" t="s">
-        <v>570</v>
-      </c>
       <c r="E261" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F261" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H261" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K261" s="1">
         <v>44269</v>
@@ -8800,25 +8811,25 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>570</v>
+      </c>
+      <c r="C262" t="s">
         <v>571</v>
       </c>
-      <c r="C262" t="s">
-        <v>572</v>
-      </c>
       <c r="D262" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E262" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F262" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H262" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J262" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K262" s="1">
         <v>44279</v>
@@ -8829,22 +8840,22 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
+        <v>572</v>
+      </c>
+      <c r="C263" t="s">
         <v>573</v>
       </c>
-      <c r="C263" t="s">
-        <v>574</v>
-      </c>
       <c r="D263" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E263" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F263" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H263" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K263" s="1">
         <v>44291</v>
@@ -8855,22 +8866,22 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
+        <v>574</v>
+      </c>
+      <c r="C264" t="s">
         <v>575</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
         <v>576</v>
       </c>
-      <c r="D264" t="s">
-        <v>577</v>
-      </c>
       <c r="E264" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F264" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H264" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K264" s="1">
         <v>44300</v>
@@ -8881,22 +8892,22 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
+        <v>577</v>
+      </c>
+      <c r="C265" t="s">
         <v>578</v>
       </c>
-      <c r="C265" t="s">
+      <c r="D265" t="s">
         <v>579</v>
       </c>
-      <c r="D265" t="s">
-        <v>580</v>
-      </c>
       <c r="E265" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F265" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H265" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K265" s="1">
         <v>44368</v>
@@ -8907,25 +8918,25 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
+        <v>580</v>
+      </c>
+      <c r="C266" t="s">
         <v>581</v>
       </c>
-      <c r="C266" t="s">
+      <c r="D266" t="s">
         <v>582</v>
       </c>
-      <c r="D266" t="s">
-        <v>583</v>
-      </c>
       <c r="E266" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F266" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H266" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J266" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K266" s="1">
         <v>44370</v>
@@ -8936,22 +8947,22 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
+        <v>583</v>
+      </c>
+      <c r="C267" t="s">
         <v>584</v>
       </c>
-      <c r="C267" t="s">
-        <v>585</v>
-      </c>
       <c r="D267" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E267" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F267" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H267" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K267" s="1">
         <v>44370</v>
@@ -8962,28 +8973,28 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
+        <v>585</v>
+      </c>
+      <c r="C268" t="s">
         <v>586</v>
       </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
         <v>587</v>
       </c>
-      <c r="D268" t="s">
+      <c r="E268" t="s">
+        <v>16</v>
+      </c>
+      <c r="F268" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268" t="s">
         <v>588</v>
       </c>
-      <c r="E268" t="s">
-        <v>17</v>
-      </c>
-      <c r="F268" t="s">
-        <v>11</v>
-      </c>
-      <c r="G268" t="s">
-        <v>589</v>
-      </c>
       <c r="H268" t="s">
+        <v>19</v>
+      </c>
+      <c r="J268" t="s">
         <v>20</v>
-      </c>
-      <c r="J268" t="s">
-        <v>21</v>
       </c>
       <c r="K268" s="1">
         <v>44377</v>
@@ -8994,25 +9005,25 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
+        <v>589</v>
+      </c>
+      <c r="C269" t="s">
         <v>590</v>
       </c>
-      <c r="C269" t="s">
+      <c r="D269" t="s">
         <v>591</v>
       </c>
-      <c r="D269" t="s">
-        <v>592</v>
-      </c>
       <c r="E269" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F269" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H269" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J269" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K269" s="1">
         <v>44403</v>
@@ -9023,25 +9034,25 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
+        <v>592</v>
+      </c>
+      <c r="C270" t="s">
         <v>593</v>
       </c>
-      <c r="C270" t="s">
-        <v>594</v>
-      </c>
       <c r="D270" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E270" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F270" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H270" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J270" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K270" s="1">
         <v>44423</v>
@@ -9052,25 +9063,25 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
+        <v>594</v>
+      </c>
+      <c r="C271" t="s">
         <v>595</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
         <v>596</v>
       </c>
-      <c r="D271" t="s">
-        <v>597</v>
-      </c>
       <c r="E271" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F271" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H271" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J271" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K271" s="1">
         <v>44431</v>
@@ -9081,25 +9092,25 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
+        <v>597</v>
+      </c>
+      <c r="C272" t="s">
         <v>598</v>
       </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
         <v>599</v>
       </c>
-      <c r="D272" t="s">
-        <v>600</v>
-      </c>
       <c r="E272" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F272" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H272" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J272" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K272" s="1">
         <v>44437</v>
@@ -9110,25 +9121,25 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
+        <v>600</v>
+      </c>
+      <c r="C273" t="s">
         <v>601</v>
       </c>
-      <c r="C273" t="s">
-        <v>602</v>
-      </c>
       <c r="D273" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E273" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F273" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H273" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J273" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K273" s="1">
         <v>44437</v>
@@ -9139,25 +9150,25 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
+        <v>602</v>
+      </c>
+      <c r="C274" t="s">
         <v>603</v>
       </c>
-      <c r="C274" t="s">
-        <v>604</v>
-      </c>
       <c r="D274" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E274" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F274" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H274" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J274" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K274" s="1">
         <v>44511</v>
@@ -9168,25 +9179,25 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
+        <v>604</v>
+      </c>
+      <c r="C275" t="s">
         <v>605</v>
       </c>
-      <c r="C275" t="s">
-        <v>606</v>
-      </c>
       <c r="D275" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E275" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F275" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H275" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J275" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K275" s="1">
         <v>44565</v>
@@ -9197,25 +9208,25 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
+        <v>606</v>
+      </c>
+      <c r="C276" t="s">
         <v>607</v>
       </c>
-      <c r="C276" t="s">
+      <c r="D276" t="s">
         <v>608</v>
       </c>
-      <c r="D276" t="s">
-        <v>609</v>
-      </c>
       <c r="E276" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F276" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H276" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J276" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K276" s="1">
         <v>44584</v>
@@ -9226,25 +9237,25 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
+        <v>609</v>
+      </c>
+      <c r="C277" t="s">
         <v>610</v>
       </c>
-      <c r="C277" t="s">
-        <v>611</v>
-      </c>
       <c r="D277" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E277" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F277" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H277" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J277" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K277" s="1">
         <v>44584</v>
@@ -9255,28 +9266,28 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
+        <v>611</v>
+      </c>
+      <c r="C278" t="s">
         <v>612</v>
       </c>
-      <c r="C278" t="s">
+      <c r="D278" t="s">
+        <v>612</v>
+      </c>
+      <c r="E278" t="s">
+        <v>16</v>
+      </c>
+      <c r="F278" t="s">
+        <v>10</v>
+      </c>
+      <c r="H278" t="s">
+        <v>12</v>
+      </c>
+      <c r="I278" t="s">
+        <v>12</v>
+      </c>
+      <c r="J278" t="s">
         <v>613</v>
-      </c>
-      <c r="D278" t="s">
-        <v>613</v>
-      </c>
-      <c r="E278" t="s">
-        <v>17</v>
-      </c>
-      <c r="F278" t="s">
-        <v>11</v>
-      </c>
-      <c r="H278" t="s">
-        <v>13</v>
-      </c>
-      <c r="I278" t="s">
-        <v>13</v>
-      </c>
-      <c r="J278" t="s">
-        <v>614</v>
       </c>
       <c r="K278" s="1">
         <v>44614</v>
@@ -9287,28 +9298,28 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
+        <v>614</v>
+      </c>
+      <c r="C279" t="s">
         <v>615</v>
       </c>
-      <c r="C279" t="s">
-        <v>616</v>
-      </c>
       <c r="D279" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E279" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F279" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H279" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I279" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J279" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K279" s="1">
         <v>44627</v>
@@ -9319,25 +9330,25 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
+        <v>616</v>
+      </c>
+      <c r="C280" t="s">
         <v>617</v>
       </c>
-      <c r="C280" t="s">
-        <v>618</v>
-      </c>
       <c r="D280" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E280" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F280" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H280" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J280" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K280" s="1">
         <v>44627</v>
@@ -9348,25 +9359,25 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
+        <v>618</v>
+      </c>
+      <c r="C281" t="s">
         <v>619</v>
       </c>
-      <c r="C281" t="s">
+      <c r="D281" t="s">
+        <v>619</v>
+      </c>
+      <c r="E281" t="s">
+        <v>16</v>
+      </c>
+      <c r="F281" t="s">
+        <v>10</v>
+      </c>
+      <c r="H281" t="s">
+        <v>12</v>
+      </c>
+      <c r="J281" t="s">
         <v>620</v>
-      </c>
-      <c r="D281" t="s">
-        <v>620</v>
-      </c>
-      <c r="E281" t="s">
-        <v>17</v>
-      </c>
-      <c r="F281" t="s">
-        <v>11</v>
-      </c>
-      <c r="H281" t="s">
-        <v>13</v>
-      </c>
-      <c r="J281" t="s">
-        <v>621</v>
       </c>
       <c r="K281" s="1">
         <v>44629</v>
@@ -9377,22 +9388,22 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
+        <v>621</v>
+      </c>
+      <c r="C282" t="s">
         <v>622</v>
       </c>
-      <c r="C282" t="s">
-        <v>623</v>
-      </c>
       <c r="D282" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E282" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F282" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H282" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K282" s="1">
         <v>44644</v>
@@ -9403,25 +9414,25 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
+        <v>623</v>
+      </c>
+      <c r="C283" t="s">
         <v>624</v>
       </c>
-      <c r="C283" t="s">
-        <v>625</v>
-      </c>
       <c r="D283" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E283" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F283" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H283" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J283" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K283" s="1">
         <v>44721</v>
@@ -9432,25 +9443,25 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
+        <v>625</v>
+      </c>
+      <c r="C284" t="s">
         <v>626</v>
       </c>
-      <c r="C284" t="s">
-        <v>627</v>
-      </c>
       <c r="D284" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E284" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F284" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H284" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J284" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K284" s="1">
         <v>44773</v>
@@ -9461,25 +9472,25 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
+        <v>627</v>
+      </c>
+      <c r="C285" t="s">
         <v>628</v>
       </c>
-      <c r="C285" t="s">
-        <v>629</v>
-      </c>
       <c r="D285" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E285" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F285" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H285" t="s">
+        <v>12</v>
+      </c>
+      <c r="J285" t="s">
         <v>13</v>
-      </c>
-      <c r="J285" t="s">
-        <v>14</v>
       </c>
       <c r="K285" s="1">
         <v>44798</v>
@@ -9490,25 +9501,25 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
+        <v>629</v>
+      </c>
+      <c r="C286" t="s">
         <v>630</v>
       </c>
-      <c r="C286" t="s">
-        <v>631</v>
-      </c>
       <c r="D286" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E286" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F286" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H286" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J286" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K286" s="1">
         <v>44831</v>
@@ -9519,25 +9530,25 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
+        <v>631</v>
+      </c>
+      <c r="C287" t="s">
         <v>632</v>
       </c>
-      <c r="C287" t="s">
-        <v>633</v>
-      </c>
       <c r="D287" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E287" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F287" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H287" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J287" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K287" s="1">
         <v>44885</v>
@@ -9548,22 +9559,22 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
+        <v>633</v>
+      </c>
+      <c r="C288" t="s">
         <v>634</v>
       </c>
-      <c r="C288" t="s">
-        <v>635</v>
-      </c>
       <c r="D288" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E288" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F288" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H288" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K288" s="1">
         <v>44970</v>
@@ -9574,25 +9585,25 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
+        <v>635</v>
+      </c>
+      <c r="C289" t="s">
         <v>636</v>
       </c>
-      <c r="C289" t="s">
+      <c r="D289" t="s">
         <v>637</v>
       </c>
-      <c r="D289" t="s">
-        <v>638</v>
-      </c>
       <c r="E289" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F289" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H289" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J289" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K289" s="1">
         <v>44973</v>
@@ -9603,25 +9614,25 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
+        <v>638</v>
+      </c>
+      <c r="C290" t="s">
         <v>639</v>
       </c>
-      <c r="C290" t="s">
-        <v>640</v>
-      </c>
       <c r="D290" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E290" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F290" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H290" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J290" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K290" s="1">
         <v>45078</v>
@@ -9632,25 +9643,25 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
+        <v>640</v>
+      </c>
+      <c r="C291" t="s">
         <v>641</v>
       </c>
-      <c r="C291" t="s">
-        <v>642</v>
-      </c>
       <c r="D291" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E291" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F291" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H291" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J291" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K291" s="1">
         <v>45238</v>
@@ -9661,25 +9672,25 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
+        <v>642</v>
+      </c>
+      <c r="C292" t="s">
         <v>643</v>
       </c>
-      <c r="C292" t="s">
-        <v>644</v>
-      </c>
       <c r="D292" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E292" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F292" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H292" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J292" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K292" s="1">
         <v>45277</v>
@@ -9690,25 +9701,25 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
+        <v>638</v>
+      </c>
+      <c r="C293" t="s">
         <v>639</v>
       </c>
-      <c r="C293" t="s">
-        <v>640</v>
-      </c>
       <c r="D293" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E293" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F293" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H293" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J293" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K293" s="1">
         <v>45280</v>
@@ -9719,25 +9730,25 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
+        <v>644</v>
+      </c>
+      <c r="C294" t="s">
         <v>645</v>
       </c>
-      <c r="C294" t="s">
-        <v>646</v>
-      </c>
       <c r="D294" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E294" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F294" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H294" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J294" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K294" s="1">
         <v>45340</v>
@@ -9748,28 +9759,28 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
+        <v>646</v>
+      </c>
+      <c r="C295" t="s">
         <v>647</v>
       </c>
-      <c r="C295" t="s">
+      <c r="D295" t="s">
+        <v>647</v>
+      </c>
+      <c r="E295" t="s">
+        <v>16</v>
+      </c>
+      <c r="F295" t="s">
+        <v>10</v>
+      </c>
+      <c r="H295" t="s">
+        <v>12</v>
+      </c>
+      <c r="I295" t="s">
         <v>648</v>
       </c>
-      <c r="D295" t="s">
-        <v>648</v>
-      </c>
-      <c r="E295" t="s">
-        <v>17</v>
-      </c>
-      <c r="F295" t="s">
-        <v>11</v>
-      </c>
-      <c r="H295" t="s">
-        <v>13</v>
-      </c>
-      <c r="I295" t="s">
-        <v>649</v>
-      </c>
       <c r="J295" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K295" s="1">
         <v>45404</v>
@@ -9780,25 +9791,25 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
+        <v>649</v>
+      </c>
+      <c r="C296" t="s">
         <v>650</v>
       </c>
-      <c r="C296" t="s">
-        <v>651</v>
-      </c>
       <c r="D296" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E296" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F296" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H296" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J296" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K296" s="1">
         <v>45419</v>
@@ -9809,25 +9820,25 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
+        <v>651</v>
+      </c>
+      <c r="C297" t="s">
         <v>652</v>
       </c>
-      <c r="C297" t="s">
-        <v>653</v>
-      </c>
       <c r="D297" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E297" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F297" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H297" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J297" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K297" s="1">
         <v>45455</v>
@@ -9838,25 +9849,25 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
+        <v>653</v>
+      </c>
+      <c r="C298" t="s">
         <v>654</v>
       </c>
-      <c r="C298" t="s">
-        <v>655</v>
-      </c>
       <c r="D298" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E298" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F298" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H298" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J298" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K298" s="1">
         <v>45455</v>
@@ -9867,25 +9878,25 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
+        <v>420</v>
+      </c>
+      <c r="C299" t="s">
         <v>421</v>
       </c>
-      <c r="C299" t="s">
-        <v>422</v>
-      </c>
       <c r="D299" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E299" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F299" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H299" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J299" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K299" s="1">
         <v>45496</v>
@@ -9896,25 +9907,25 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
+        <v>655</v>
+      </c>
+      <c r="C300" t="s">
         <v>656</v>
       </c>
-      <c r="C300" t="s">
-        <v>657</v>
-      </c>
       <c r="D300" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E300" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F300" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H300" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J300" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K300" s="1">
         <v>45504</v>
@@ -9925,22 +9936,22 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
+        <v>657</v>
+      </c>
+      <c r="C301" t="s">
         <v>658</v>
       </c>
-      <c r="C301" t="s">
-        <v>659</v>
-      </c>
       <c r="D301" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E301" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F301" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H301" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K301" s="1">
         <v>45587</v>
@@ -9951,25 +9962,25 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
+        <v>659</v>
+      </c>
+      <c r="C302" t="s">
         <v>660</v>
       </c>
-      <c r="C302" t="s">
-        <v>661</v>
-      </c>
       <c r="D302" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E302" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F302" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H302" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J302" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K302" s="1">
         <v>45677</v>
@@ -9980,25 +9991,25 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
+        <v>661</v>
+      </c>
+      <c r="C303" t="s">
         <v>662</v>
       </c>
-      <c r="C303" t="s">
-        <v>663</v>
-      </c>
       <c r="D303" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E303" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F303" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H303" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J303" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K303" s="1">
         <v>45728</v>
@@ -10009,25 +10020,25 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
+        <v>663</v>
+      </c>
+      <c r="C304" t="s">
         <v>664</v>
       </c>
-      <c r="C304" t="s">
-        <v>665</v>
-      </c>
       <c r="D304" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E304" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F304" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H304" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J304" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K304" s="1">
         <v>45732</v>
@@ -10038,25 +10049,25 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C305" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D305" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E305" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F305" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H305" t="s">
+        <v>12</v>
+      </c>
+      <c r="J305" t="s">
         <v>13</v>
-      </c>
-      <c r="J305" t="s">
-        <v>14</v>
       </c>
       <c r="K305" s="1">
         <v>45790</v>
@@ -10067,22 +10078,22 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
+        <v>666</v>
+      </c>
+      <c r="C306" t="s">
         <v>667</v>
       </c>
-      <c r="C306" t="s">
-        <v>668</v>
-      </c>
       <c r="D306" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E306" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F306" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H306" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K306" s="1">
         <v>45838</v>
@@ -10093,22 +10104,22 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
+        <v>668</v>
+      </c>
+      <c r="C307" t="s">
         <v>669</v>
       </c>
-      <c r="C307" t="s">
-        <v>670</v>
-      </c>
       <c r="D307" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E307" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F307" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H307" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K307" s="1">
         <v>45859</v>
@@ -10119,25 +10130,25 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
+        <v>670</v>
+      </c>
+      <c r="C308" t="s">
         <v>671</v>
       </c>
-      <c r="C308" t="s">
-        <v>672</v>
-      </c>
       <c r="D308" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E308" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F308" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H308" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J308" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K308" s="1">
         <v>45890</v>
@@ -10148,25 +10159,25 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
+        <v>672</v>
+      </c>
+      <c r="C309" t="s">
         <v>673</v>
       </c>
-      <c r="C309" t="s">
-        <v>674</v>
-      </c>
       <c r="D309" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E309" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F309" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H309" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J309" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K309" s="1">
         <v>45908</v>

--- a/Access_Data_Export/clients.xlsx
+++ b/Access_Data_Export/clients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claude\Litigation_Database_Ver2\Litigation_Database_Ver2\Access_Data_Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C246B08-215B-4F71-B8C6-B0F90E64AD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32A0952-A0EC-455D-A620-E01356934625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="671">
   <si>
     <t>logo</t>
   </si>
@@ -2048,33 +2048,6 @@
   </si>
   <si>
     <t>client_end</t>
-  </si>
-  <si>
-    <t>Archive</t>
-  </si>
-  <si>
-    <t>Safe</t>
-  </si>
-  <si>
-    <t>Handed to Client</t>
-  </si>
-  <si>
-    <t>Disabled</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Potential</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pro Bono</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -2453,7 +2426,7 @@
   <dimension ref="A1:M309"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="I1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2526,14 +2499,14 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
-        <v>677</v>
-      </c>
-      <c r="F2" t="s">
-        <v>674</v>
-      </c>
-      <c r="H2" t="s">
-        <v>671</v>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>658</v>
@@ -2558,14 +2531,14 @@
       <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F3" t="s">
-        <v>674</v>
-      </c>
-      <c r="H3" t="s">
-        <v>671</v>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>658</v>
@@ -2590,14 +2563,14 @@
       <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
-        <v>677</v>
-      </c>
-      <c r="F4" t="s">
-        <v>674</v>
-      </c>
-      <c r="H4" t="s">
-        <v>671</v>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>658</v>
@@ -2619,14 +2592,14 @@
       <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
-        <v>677</v>
-      </c>
-      <c r="F5" t="s">
-        <v>674</v>
-      </c>
-      <c r="H5" t="s">
-        <v>671</v>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>658</v>
@@ -2651,14 +2624,14 @@
       <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
-        <v>677</v>
-      </c>
-      <c r="F6" t="s">
-        <v>674</v>
-      </c>
-      <c r="H6" t="s">
-        <v>671</v>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>658</v>
@@ -2683,14 +2656,14 @@
       <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" t="s">
-        <v>677</v>
-      </c>
-      <c r="F7" t="s">
-        <v>674</v>
-      </c>
-      <c r="H7" t="s">
-        <v>671</v>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>658</v>
@@ -2715,14 +2688,14 @@
       <c r="D8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="s">
-        <v>677</v>
-      </c>
-      <c r="F8" t="s">
-        <v>674</v>
-      </c>
-      <c r="H8" t="s">
-        <v>671</v>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>658</v>
@@ -2747,14 +2720,14 @@
       <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="E9" t="s">
-        <v>679</v>
-      </c>
-      <c r="F9" t="s">
-        <v>674</v>
-      </c>
-      <c r="H9" t="s">
-        <v>671</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>658</v>
@@ -2776,14 +2749,14 @@
       <c r="D10" t="s">
         <v>50</v>
       </c>
-      <c r="E10" t="s">
-        <v>679</v>
-      </c>
-      <c r="F10" t="s">
-        <v>674</v>
-      </c>
-      <c r="H10" t="s">
-        <v>671</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>658</v>
@@ -2805,14 +2778,14 @@
       <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" t="s">
-        <v>677</v>
-      </c>
-      <c r="F11" t="s">
-        <v>674</v>
-      </c>
-      <c r="H11" t="s">
-        <v>671</v>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>658</v>
@@ -2834,14 +2807,14 @@
       <c r="D12" t="s">
         <v>59</v>
       </c>
-      <c r="E12" t="s">
-        <v>677</v>
-      </c>
-      <c r="F12" t="s">
-        <v>674</v>
-      </c>
-      <c r="H12" t="s">
-        <v>671</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>658</v>
@@ -2863,14 +2836,14 @@
       <c r="D13" t="s">
         <v>61</v>
       </c>
-      <c r="E13" t="s">
-        <v>677</v>
-      </c>
-      <c r="F13" t="s">
-        <v>674</v>
-      </c>
-      <c r="H13" t="s">
-        <v>671</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>658</v>
@@ -2892,14 +2865,14 @@
       <c r="D14" t="s">
         <v>63</v>
       </c>
-      <c r="E14" t="s">
-        <v>677</v>
-      </c>
-      <c r="F14" t="s">
-        <v>674</v>
-      </c>
-      <c r="H14" t="s">
-        <v>671</v>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>658</v>
@@ -2921,14 +2894,14 @@
       <c r="D15" t="s">
         <v>65</v>
       </c>
-      <c r="E15" t="s">
-        <v>677</v>
-      </c>
-      <c r="F15" t="s">
-        <v>675</v>
-      </c>
-      <c r="H15" t="s">
-        <v>672</v>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>658</v>
@@ -2950,14 +2923,14 @@
       <c r="D16" t="s">
         <v>67</v>
       </c>
-      <c r="E16" t="s">
-        <v>677</v>
-      </c>
-      <c r="F16" t="s">
-        <v>674</v>
-      </c>
-      <c r="H16" t="s">
-        <v>671</v>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>658</v>
@@ -2979,14 +2952,14 @@
       <c r="D17" t="s">
         <v>69</v>
       </c>
-      <c r="E17" t="s">
-        <v>678</v>
-      </c>
-      <c r="F17" t="s">
-        <v>675</v>
-      </c>
-      <c r="H17" t="s">
-        <v>671</v>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>658</v>
@@ -3008,14 +2981,14 @@
       <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="E18" t="s">
-        <v>677</v>
-      </c>
-      <c r="F18" t="s">
-        <v>674</v>
-      </c>
-      <c r="H18" t="s">
-        <v>671</v>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>658</v>
@@ -3037,17 +3010,17 @@
       <c r="D19" t="s">
         <v>74</v>
       </c>
-      <c r="E19" t="s">
-        <v>677</v>
-      </c>
-      <c r="F19" t="s">
-        <v>674</v>
-      </c>
-      <c r="H19" t="s">
-        <v>671</v>
-      </c>
-      <c r="I19" t="s">
-        <v>671</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>658</v>
@@ -3069,14 +3042,14 @@
       <c r="D20" t="s">
         <v>76</v>
       </c>
-      <c r="E20" t="s">
-        <v>678</v>
-      </c>
-      <c r="F20" t="s">
-        <v>674</v>
-      </c>
-      <c r="H20" t="s">
-        <v>671</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>658</v>
@@ -3098,14 +3071,14 @@
       <c r="D21" t="s">
         <v>83</v>
       </c>
-      <c r="E21" t="s">
-        <v>677</v>
-      </c>
-      <c r="F21" t="s">
-        <v>674</v>
-      </c>
-      <c r="H21" t="s">
-        <v>671</v>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>658</v>
@@ -3127,14 +3100,14 @@
       <c r="D22" t="s">
         <v>85</v>
       </c>
-      <c r="E22" t="s">
-        <v>677</v>
-      </c>
-      <c r="F22" t="s">
-        <v>674</v>
-      </c>
-      <c r="H22" t="s">
-        <v>671</v>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>658</v>
@@ -3156,14 +3129,14 @@
       <c r="D23" t="s">
         <v>89</v>
       </c>
-      <c r="E23" t="s">
-        <v>677</v>
-      </c>
-      <c r="F23" t="s">
-        <v>674</v>
-      </c>
-      <c r="H23" t="s">
-        <v>671</v>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>658</v>
@@ -3185,14 +3158,14 @@
       <c r="D24" t="s">
         <v>92</v>
       </c>
-      <c r="E24" t="s">
-        <v>677</v>
-      </c>
-      <c r="F24" t="s">
-        <v>674</v>
-      </c>
-      <c r="H24" t="s">
-        <v>671</v>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>658</v>
@@ -3214,14 +3187,14 @@
       <c r="D25" t="s">
         <v>94</v>
       </c>
-      <c r="E25" t="s">
-        <v>677</v>
-      </c>
-      <c r="F25" t="s">
-        <v>675</v>
-      </c>
-      <c r="H25" t="s">
-        <v>671</v>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>658</v>
@@ -3243,14 +3216,14 @@
       <c r="D26" t="s">
         <v>96</v>
       </c>
-      <c r="E26" t="s">
-        <v>677</v>
-      </c>
-      <c r="F26" t="s">
-        <v>674</v>
-      </c>
-      <c r="H26" t="s">
-        <v>671</v>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>658</v>
@@ -3272,14 +3245,14 @@
       <c r="D27" t="s">
         <v>97</v>
       </c>
-      <c r="E27" t="s">
-        <v>677</v>
-      </c>
-      <c r="F27" t="s">
-        <v>674</v>
-      </c>
-      <c r="H27" t="s">
-        <v>671</v>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>658</v>
@@ -3301,14 +3274,14 @@
       <c r="D28" t="s">
         <v>99</v>
       </c>
-      <c r="E28" t="s">
-        <v>677</v>
-      </c>
-      <c r="F28" t="s">
-        <v>674</v>
-      </c>
-      <c r="H28" t="s">
-        <v>671</v>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>658</v>
@@ -3330,14 +3303,14 @@
       <c r="D29" t="s">
         <v>100</v>
       </c>
-      <c r="E29" t="s">
-        <v>677</v>
-      </c>
-      <c r="F29" t="s">
-        <v>674</v>
-      </c>
-      <c r="H29" t="s">
-        <v>671</v>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>658</v>
@@ -3359,14 +3332,14 @@
       <c r="D30" t="s">
         <v>102</v>
       </c>
-      <c r="E30" t="s">
-        <v>677</v>
-      </c>
-      <c r="F30" t="s">
-        <v>675</v>
-      </c>
-      <c r="H30" t="s">
-        <v>671</v>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>658</v>
@@ -3388,14 +3361,14 @@
       <c r="D31" t="s">
         <v>103</v>
       </c>
-      <c r="E31" t="s">
-        <v>677</v>
-      </c>
-      <c r="F31" t="s">
-        <v>674</v>
-      </c>
-      <c r="H31" t="s">
-        <v>671</v>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>658</v>
@@ -3417,14 +3390,14 @@
       <c r="D32" t="s">
         <v>111</v>
       </c>
-      <c r="E32" t="s">
-        <v>677</v>
-      </c>
-      <c r="F32" t="s">
-        <v>674</v>
-      </c>
-      <c r="H32" t="s">
-        <v>671</v>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>658</v>
@@ -3446,17 +3419,17 @@
       <c r="D33" t="s">
         <v>117</v>
       </c>
-      <c r="E33" t="s">
-        <v>677</v>
-      </c>
-      <c r="F33" t="s">
-        <v>675</v>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
       </c>
       <c r="G33" t="s">
         <v>118</v>
       </c>
-      <c r="H33" t="s">
-        <v>672</v>
+      <c r="H33">
+        <v>2</v>
       </c>
       <c r="J33" t="s">
         <v>658</v>
@@ -3478,14 +3451,14 @@
       <c r="D34" t="s">
         <v>119</v>
       </c>
-      <c r="E34" t="s">
-        <v>677</v>
-      </c>
-      <c r="F34" t="s">
-        <v>674</v>
-      </c>
-      <c r="H34" t="s">
-        <v>671</v>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>658</v>
@@ -3507,14 +3480,14 @@
       <c r="D35" t="s">
         <v>122</v>
       </c>
-      <c r="E35" t="s">
-        <v>677</v>
-      </c>
-      <c r="F35" t="s">
-        <v>674</v>
-      </c>
-      <c r="H35" t="s">
-        <v>671</v>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>658</v>
@@ -3536,17 +3509,17 @@
       <c r="D36" t="s">
         <v>124</v>
       </c>
-      <c r="E36" t="s">
-        <v>677</v>
-      </c>
-      <c r="F36" t="s">
-        <v>674</v>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
       </c>
       <c r="G36" t="s">
         <v>125</v>
       </c>
-      <c r="H36" t="s">
-        <v>671</v>
+      <c r="H36">
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>658</v>
@@ -3568,14 +3541,14 @@
       <c r="D37" t="s">
         <v>126</v>
       </c>
-      <c r="E37" t="s">
-        <v>677</v>
-      </c>
-      <c r="F37" t="s">
-        <v>674</v>
-      </c>
-      <c r="H37" t="s">
-        <v>671</v>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
       </c>
       <c r="J37" t="s">
         <v>658</v>
@@ -3597,14 +3570,14 @@
       <c r="D38" t="s">
         <v>127</v>
       </c>
-      <c r="E38" t="s">
-        <v>677</v>
-      </c>
-      <c r="F38" t="s">
-        <v>674</v>
-      </c>
-      <c r="H38" t="s">
-        <v>671</v>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
       </c>
       <c r="J38" t="s">
         <v>658</v>
@@ -3626,14 +3599,14 @@
       <c r="D39" t="s">
         <v>128</v>
       </c>
-      <c r="E39" t="s">
-        <v>677</v>
-      </c>
-      <c r="F39" t="s">
-        <v>674</v>
-      </c>
-      <c r="H39" t="s">
-        <v>671</v>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>658</v>
@@ -3655,14 +3628,14 @@
       <c r="D40" t="s">
         <v>130</v>
       </c>
-      <c r="E40" t="s">
-        <v>677</v>
-      </c>
-      <c r="F40" t="s">
-        <v>674</v>
-      </c>
-      <c r="H40" t="s">
-        <v>671</v>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>658</v>
@@ -3684,14 +3657,14 @@
       <c r="D41" t="s">
         <v>131</v>
       </c>
-      <c r="E41" t="s">
-        <v>677</v>
-      </c>
-      <c r="F41" t="s">
-        <v>674</v>
-      </c>
-      <c r="H41" t="s">
-        <v>671</v>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>658</v>
@@ -3713,14 +3686,14 @@
       <c r="D42" t="s">
         <v>132</v>
       </c>
-      <c r="E42" t="s">
-        <v>677</v>
-      </c>
-      <c r="F42" t="s">
-        <v>674</v>
-      </c>
-      <c r="H42" t="s">
-        <v>673</v>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
       </c>
       <c r="J42" t="s">
         <v>658</v>
@@ -3742,14 +3715,14 @@
       <c r="D43" t="s">
         <v>135</v>
       </c>
-      <c r="E43" t="s">
-        <v>677</v>
-      </c>
-      <c r="F43" t="s">
-        <v>675</v>
-      </c>
-      <c r="H43" t="s">
-        <v>671</v>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
       </c>
       <c r="J43" t="s">
         <v>658</v>
@@ -3771,14 +3744,14 @@
       <c r="D44" t="s">
         <v>137</v>
       </c>
-      <c r="E44" t="s">
-        <v>677</v>
-      </c>
-      <c r="F44" t="s">
-        <v>674</v>
-      </c>
-      <c r="H44" t="s">
-        <v>671</v>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>658</v>
@@ -3800,14 +3773,14 @@
       <c r="D45" t="s">
         <v>138</v>
       </c>
-      <c r="E45" t="s">
-        <v>677</v>
-      </c>
-      <c r="F45" t="s">
-        <v>674</v>
-      </c>
-      <c r="H45" t="s">
-        <v>671</v>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>658</v>
@@ -3829,14 +3802,14 @@
       <c r="D46" t="s">
         <v>140</v>
       </c>
-      <c r="E46" t="s">
-        <v>677</v>
-      </c>
-      <c r="F46" t="s">
-        <v>674</v>
-      </c>
-      <c r="H46" t="s">
-        <v>671</v>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
       </c>
       <c r="J46" t="s">
         <v>658</v>
@@ -3858,14 +3831,14 @@
       <c r="D47" t="s">
         <v>141</v>
       </c>
-      <c r="E47" t="s">
-        <v>677</v>
-      </c>
-      <c r="F47" t="s">
-        <v>674</v>
-      </c>
-      <c r="H47" t="s">
-        <v>671</v>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
       </c>
       <c r="J47" t="s">
         <v>658</v>
@@ -3887,14 +3860,14 @@
       <c r="D48" t="s">
         <v>142</v>
       </c>
-      <c r="E48" t="s">
-        <v>677</v>
-      </c>
-      <c r="F48" t="s">
-        <v>674</v>
-      </c>
-      <c r="H48" t="s">
-        <v>671</v>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
       </c>
       <c r="J48" t="s">
         <v>658</v>
@@ -3916,14 +3889,14 @@
       <c r="D49" t="s">
         <v>146</v>
       </c>
-      <c r="E49" t="s">
-        <v>677</v>
-      </c>
-      <c r="F49" t="s">
-        <v>674</v>
-      </c>
-      <c r="H49" t="s">
-        <v>671</v>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
       </c>
       <c r="J49" t="s">
         <v>658</v>
@@ -3945,14 +3918,14 @@
       <c r="D50" t="s">
         <v>147</v>
       </c>
-      <c r="E50" t="s">
-        <v>677</v>
-      </c>
-      <c r="F50" t="s">
-        <v>674</v>
-      </c>
-      <c r="H50" t="s">
-        <v>671</v>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>658</v>
@@ -3974,14 +3947,14 @@
       <c r="D51" t="s">
         <v>150</v>
       </c>
-      <c r="E51" t="s">
-        <v>677</v>
-      </c>
-      <c r="F51" t="s">
-        <v>675</v>
-      </c>
-      <c r="H51" t="s">
-        <v>671</v>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>658</v>
@@ -4003,14 +3976,14 @@
       <c r="D52" t="s">
         <v>153</v>
       </c>
-      <c r="E52" t="s">
-        <v>677</v>
-      </c>
-      <c r="F52" t="s">
-        <v>674</v>
-      </c>
-      <c r="H52" t="s">
-        <v>671</v>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>658</v>
@@ -4032,14 +4005,14 @@
       <c r="D53" t="s">
         <v>154</v>
       </c>
-      <c r="E53" t="s">
-        <v>677</v>
-      </c>
-      <c r="F53" t="s">
-        <v>674</v>
-      </c>
-      <c r="H53" t="s">
-        <v>671</v>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>658</v>
@@ -4061,14 +4034,14 @@
       <c r="D54" t="s">
         <v>155</v>
       </c>
-      <c r="E54" t="s">
-        <v>677</v>
-      </c>
-      <c r="F54" t="s">
-        <v>674</v>
-      </c>
-      <c r="H54" t="s">
-        <v>671</v>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>658</v>
@@ -4090,14 +4063,14 @@
       <c r="D55" t="s">
         <v>156</v>
       </c>
-      <c r="E55" t="s">
-        <v>677</v>
-      </c>
-      <c r="F55" t="s">
-        <v>674</v>
-      </c>
-      <c r="H55" t="s">
-        <v>671</v>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
       </c>
       <c r="J55" t="s">
         <v>658</v>
@@ -4119,14 +4092,14 @@
       <c r="D56" t="s">
         <v>157</v>
       </c>
-      <c r="E56" t="s">
-        <v>677</v>
-      </c>
-      <c r="F56" t="s">
-        <v>674</v>
-      </c>
-      <c r="H56" t="s">
-        <v>671</v>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>658</v>
@@ -4148,14 +4121,14 @@
       <c r="D57" t="s">
         <v>158</v>
       </c>
-      <c r="E57" t="s">
-        <v>677</v>
-      </c>
-      <c r="F57" t="s">
-        <v>674</v>
-      </c>
-      <c r="H57" t="s">
-        <v>671</v>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>658</v>
@@ -4177,14 +4150,14 @@
       <c r="D58" t="s">
         <v>160</v>
       </c>
-      <c r="E58" t="s">
-        <v>678</v>
-      </c>
-      <c r="F58" t="s">
-        <v>674</v>
-      </c>
-      <c r="H58" t="s">
-        <v>673</v>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
       </c>
       <c r="J58" t="s">
         <v>658</v>
@@ -4206,14 +4179,14 @@
       <c r="D59" t="s">
         <v>161</v>
       </c>
-      <c r="E59" t="s">
-        <v>677</v>
-      </c>
-      <c r="F59" t="s">
-        <v>675</v>
-      </c>
-      <c r="H59" t="s">
-        <v>671</v>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>658</v>
@@ -4235,14 +4208,14 @@
       <c r="D60" t="s">
         <v>162</v>
       </c>
-      <c r="E60" t="s">
-        <v>677</v>
-      </c>
-      <c r="F60" t="s">
-        <v>674</v>
-      </c>
-      <c r="H60" t="s">
-        <v>671</v>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>658</v>
@@ -4264,14 +4237,14 @@
       <c r="D61" t="s">
         <v>166</v>
       </c>
-      <c r="E61" t="s">
-        <v>677</v>
-      </c>
-      <c r="F61" t="s">
-        <v>674</v>
-      </c>
-      <c r="H61" t="s">
-        <v>671</v>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
       </c>
       <c r="J61" t="s">
         <v>658</v>
@@ -4293,14 +4266,14 @@
       <c r="D62" t="s">
         <v>171</v>
       </c>
-      <c r="E62" t="s">
-        <v>677</v>
-      </c>
-      <c r="F62" t="s">
-        <v>674</v>
-      </c>
-      <c r="H62" t="s">
-        <v>671</v>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>658</v>
@@ -4322,14 +4295,14 @@
       <c r="D63" t="s">
         <v>172</v>
       </c>
-      <c r="E63" t="s">
-        <v>677</v>
-      </c>
-      <c r="F63" t="s">
-        <v>674</v>
-      </c>
-      <c r="H63" t="s">
-        <v>671</v>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>658</v>
@@ -4351,14 +4324,14 @@
       <c r="D64" t="s">
         <v>174</v>
       </c>
-      <c r="E64" t="s">
-        <v>677</v>
-      </c>
-      <c r="F64" t="s">
-        <v>674</v>
-      </c>
-      <c r="H64" t="s">
-        <v>671</v>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
       </c>
       <c r="J64" t="s">
         <v>658</v>
@@ -4380,14 +4353,14 @@
       <c r="D65" t="s">
         <v>175</v>
       </c>
-      <c r="E65" t="s">
-        <v>677</v>
-      </c>
-      <c r="F65" t="s">
-        <v>674</v>
-      </c>
-      <c r="H65" t="s">
-        <v>671</v>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
       </c>
       <c r="J65" t="s">
         <v>658</v>
@@ -4409,14 +4382,14 @@
       <c r="D66" t="s">
         <v>178</v>
       </c>
-      <c r="E66" t="s">
-        <v>677</v>
-      </c>
-      <c r="F66" t="s">
-        <v>674</v>
-      </c>
-      <c r="H66" t="s">
-        <v>671</v>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
       </c>
       <c r="J66" t="s">
         <v>658</v>
@@ -4438,14 +4411,14 @@
       <c r="D67" t="s">
         <v>179</v>
       </c>
-      <c r="E67" t="s">
-        <v>677</v>
-      </c>
-      <c r="F67" t="s">
-        <v>674</v>
-      </c>
-      <c r="H67" t="s">
-        <v>673</v>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
       </c>
       <c r="J67" t="s">
         <v>658</v>
@@ -4467,14 +4440,14 @@
       <c r="D68" t="s">
         <v>180</v>
       </c>
-      <c r="E68" t="s">
-        <v>677</v>
-      </c>
-      <c r="F68" t="s">
-        <v>674</v>
-      </c>
-      <c r="H68" t="s">
-        <v>671</v>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>658</v>
@@ -4496,14 +4469,14 @@
       <c r="D69" t="s">
         <v>181</v>
       </c>
-      <c r="E69" t="s">
-        <v>677</v>
-      </c>
-      <c r="F69" t="s">
-        <v>674</v>
-      </c>
-      <c r="H69" t="s">
-        <v>671</v>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
       </c>
       <c r="J69" t="s">
         <v>658</v>
@@ -4525,14 +4498,14 @@
       <c r="D70" t="s">
         <v>182</v>
       </c>
-      <c r="E70" t="s">
-        <v>677</v>
-      </c>
-      <c r="F70" t="s">
-        <v>674</v>
-      </c>
-      <c r="H70" t="s">
-        <v>671</v>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
       </c>
       <c r="J70" t="s">
         <v>658</v>
@@ -4554,14 +4527,14 @@
       <c r="D71" t="s">
         <v>183</v>
       </c>
-      <c r="E71" t="s">
-        <v>677</v>
-      </c>
-      <c r="F71" t="s">
-        <v>674</v>
-      </c>
-      <c r="H71" t="s">
-        <v>671</v>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
       </c>
       <c r="J71" t="s">
         <v>658</v>
@@ -4583,14 +4556,14 @@
       <c r="D72" t="s">
         <v>184</v>
       </c>
-      <c r="E72" t="s">
-        <v>677</v>
-      </c>
-      <c r="F72" t="s">
-        <v>674</v>
-      </c>
-      <c r="H72" t="s">
-        <v>671</v>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
       </c>
       <c r="J72" t="s">
         <v>658</v>
@@ -4612,14 +4585,14 @@
       <c r="D73" t="s">
         <v>185</v>
       </c>
-      <c r="E73" t="s">
-        <v>677</v>
-      </c>
-      <c r="F73" t="s">
-        <v>674</v>
-      </c>
-      <c r="H73" t="s">
-        <v>671</v>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
       </c>
       <c r="J73" t="s">
         <v>658</v>
@@ -4641,14 +4614,14 @@
       <c r="D74" t="s">
         <v>189</v>
       </c>
-      <c r="E74" t="s">
-        <v>677</v>
-      </c>
-      <c r="F74" t="s">
-        <v>674</v>
-      </c>
-      <c r="H74" t="s">
-        <v>671</v>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>658</v>
@@ -4670,14 +4643,14 @@
       <c r="D75" t="s">
         <v>190</v>
       </c>
-      <c r="E75" t="s">
-        <v>677</v>
-      </c>
-      <c r="F75" t="s">
-        <v>674</v>
-      </c>
-      <c r="H75" t="s">
-        <v>671</v>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>658</v>
@@ -4699,17 +4672,17 @@
       <c r="D76" t="s">
         <v>193</v>
       </c>
-      <c r="E76" t="s">
-        <v>677</v>
-      </c>
-      <c r="F76" t="s">
-        <v>675</v>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
       </c>
       <c r="G76" t="s">
         <v>194</v>
       </c>
-      <c r="H76" t="s">
-        <v>671</v>
+      <c r="H76">
+        <v>1</v>
       </c>
       <c r="J76" t="s">
         <v>658</v>
@@ -4731,14 +4704,14 @@
       <c r="D77" t="s">
         <v>195</v>
       </c>
-      <c r="E77" t="s">
-        <v>677</v>
-      </c>
-      <c r="F77" t="s">
-        <v>674</v>
-      </c>
-      <c r="H77" t="s">
-        <v>671</v>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
       </c>
       <c r="J77" t="s">
         <v>658</v>
@@ -4760,14 +4733,14 @@
       <c r="D78" t="s">
         <v>202</v>
       </c>
-      <c r="E78" t="s">
-        <v>677</v>
-      </c>
-      <c r="F78" t="s">
-        <v>674</v>
-      </c>
-      <c r="H78" t="s">
-        <v>671</v>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>658</v>
@@ -4789,14 +4762,14 @@
       <c r="D79" t="s">
         <v>205</v>
       </c>
-      <c r="E79" t="s">
-        <v>677</v>
-      </c>
-      <c r="F79" t="s">
-        <v>674</v>
-      </c>
-      <c r="H79" t="s">
-        <v>671</v>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>658</v>
@@ -4818,14 +4791,14 @@
       <c r="D80" t="s">
         <v>209</v>
       </c>
-      <c r="E80" t="s">
-        <v>677</v>
-      </c>
-      <c r="F80" t="s">
-        <v>674</v>
-      </c>
-      <c r="H80" t="s">
-        <v>672</v>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>658</v>
@@ -4847,14 +4820,14 @@
       <c r="D81" t="s">
         <v>210</v>
       </c>
-      <c r="E81" t="s">
-        <v>677</v>
-      </c>
-      <c r="F81" t="s">
-        <v>674</v>
-      </c>
-      <c r="H81" t="s">
-        <v>671</v>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
       </c>
       <c r="J81" t="s">
         <v>658</v>
@@ -4876,14 +4849,14 @@
       <c r="D82" t="s">
         <v>213</v>
       </c>
-      <c r="E82" t="s">
-        <v>677</v>
-      </c>
-      <c r="F82" t="s">
-        <v>674</v>
-      </c>
-      <c r="H82" t="s">
-        <v>671</v>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
       </c>
       <c r="J82" t="s">
         <v>658</v>
@@ -4905,14 +4878,14 @@
       <c r="D83" t="s">
         <v>217</v>
       </c>
-      <c r="E83" t="s">
-        <v>678</v>
-      </c>
-      <c r="F83" t="s">
-        <v>675</v>
-      </c>
-      <c r="H83" t="s">
-        <v>671</v>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>658</v>
@@ -4934,14 +4907,14 @@
       <c r="D84" t="s">
         <v>218</v>
       </c>
-      <c r="E84" t="s">
-        <v>677</v>
-      </c>
-      <c r="F84" t="s">
-        <v>674</v>
-      </c>
-      <c r="H84" t="s">
-        <v>671</v>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>658</v>
@@ -4963,14 +4936,14 @@
       <c r="D85" t="s">
         <v>222</v>
       </c>
-      <c r="E85" t="s">
-        <v>677</v>
-      </c>
-      <c r="F85" t="s">
-        <v>674</v>
-      </c>
-      <c r="H85" t="s">
-        <v>671</v>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>658</v>
@@ -4992,14 +4965,14 @@
       <c r="D86" t="s">
         <v>223</v>
       </c>
-      <c r="E86" t="s">
-        <v>677</v>
-      </c>
-      <c r="F86" t="s">
-        <v>675</v>
-      </c>
-      <c r="H86" t="s">
-        <v>671</v>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>658</v>
@@ -5021,14 +4994,14 @@
       <c r="D87" t="s">
         <v>233</v>
       </c>
-      <c r="E87" t="s">
-        <v>677</v>
-      </c>
-      <c r="F87" t="s">
-        <v>674</v>
-      </c>
-      <c r="H87" t="s">
-        <v>671</v>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>658</v>
@@ -5050,14 +5023,14 @@
       <c r="D88" t="s">
         <v>237</v>
       </c>
-      <c r="E88" t="s">
-        <v>677</v>
-      </c>
-      <c r="F88" t="s">
-        <v>674</v>
-      </c>
-      <c r="H88" t="s">
-        <v>671</v>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>658</v>
@@ -5079,14 +5052,14 @@
       <c r="D89" t="s">
         <v>238</v>
       </c>
-      <c r="E89" t="s">
-        <v>677</v>
-      </c>
-      <c r="F89" t="s">
-        <v>674</v>
-      </c>
-      <c r="H89" t="s">
-        <v>671</v>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
       </c>
       <c r="J89" t="s">
         <v>658</v>
@@ -5108,14 +5081,14 @@
       <c r="D90" t="s">
         <v>240</v>
       </c>
-      <c r="E90" t="s">
-        <v>677</v>
-      </c>
-      <c r="F90" t="s">
-        <v>674</v>
-      </c>
-      <c r="H90" t="s">
-        <v>671</v>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
       </c>
       <c r="J90" t="s">
         <v>658</v>
@@ -5137,14 +5110,14 @@
       <c r="D91" t="s">
         <v>241</v>
       </c>
-      <c r="E91" t="s">
-        <v>677</v>
-      </c>
-      <c r="F91" t="s">
-        <v>674</v>
-      </c>
-      <c r="H91" t="s">
-        <v>671</v>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
       </c>
       <c r="J91" t="s">
         <v>658</v>
@@ -5166,14 +5139,14 @@
       <c r="D92" t="s">
         <v>242</v>
       </c>
-      <c r="E92" t="s">
-        <v>677</v>
-      </c>
-      <c r="F92" t="s">
-        <v>674</v>
-      </c>
-      <c r="H92" t="s">
-        <v>671</v>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
       </c>
       <c r="J92" t="s">
         <v>658</v>
@@ -5195,14 +5168,14 @@
       <c r="D93" t="s">
         <v>243</v>
       </c>
-      <c r="E93" t="s">
-        <v>677</v>
-      </c>
-      <c r="F93" t="s">
-        <v>674</v>
-      </c>
-      <c r="H93" t="s">
-        <v>671</v>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
       </c>
       <c r="J93" t="s">
         <v>658</v>
@@ -5224,14 +5197,14 @@
       <c r="D94" t="s">
         <v>248</v>
       </c>
-      <c r="E94" t="s">
-        <v>677</v>
-      </c>
-      <c r="F94" t="s">
-        <v>674</v>
-      </c>
-      <c r="H94" t="s">
-        <v>671</v>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>658</v>
@@ -5253,14 +5226,14 @@
       <c r="D95" t="s">
         <v>253</v>
       </c>
-      <c r="E95" t="s">
-        <v>677</v>
-      </c>
-      <c r="F95" t="s">
-        <v>674</v>
-      </c>
-      <c r="H95" t="s">
-        <v>671</v>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>658</v>
@@ -5282,17 +5255,17 @@
       <c r="D96" t="s">
         <v>259</v>
       </c>
-      <c r="E96" t="s">
-        <v>678</v>
-      </c>
-      <c r="F96" t="s">
-        <v>675</v>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
       </c>
       <c r="G96" t="s">
         <v>260</v>
       </c>
-      <c r="H96" t="s">
-        <v>671</v>
+      <c r="H96">
+        <v>1</v>
       </c>
       <c r="J96" t="s">
         <v>658</v>
@@ -5314,14 +5287,14 @@
       <c r="D97" t="s">
         <v>261</v>
       </c>
-      <c r="E97" t="s">
-        <v>677</v>
-      </c>
-      <c r="F97" t="s">
-        <v>675</v>
-      </c>
-      <c r="H97" t="s">
-        <v>671</v>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
       </c>
       <c r="J97" t="s">
         <v>658</v>
@@ -5343,14 +5316,14 @@
       <c r="D98" t="s">
         <v>264</v>
       </c>
-      <c r="E98" t="s">
-        <v>677</v>
-      </c>
-      <c r="F98" t="s">
-        <v>674</v>
-      </c>
-      <c r="H98" t="s">
-        <v>671</v>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>658</v>
@@ -5372,14 +5345,14 @@
       <c r="D99" t="s">
         <v>265</v>
       </c>
-      <c r="E99" t="s">
-        <v>677</v>
-      </c>
-      <c r="F99" t="s">
-        <v>674</v>
-      </c>
-      <c r="H99" t="s">
-        <v>671</v>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>658</v>
@@ -5401,14 +5374,14 @@
       <c r="D100" t="s">
         <v>266</v>
       </c>
-      <c r="E100" t="s">
-        <v>677</v>
-      </c>
-      <c r="F100" t="s">
-        <v>674</v>
-      </c>
-      <c r="H100" t="s">
-        <v>671</v>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>658</v>
@@ -5430,14 +5403,14 @@
       <c r="D101" t="s">
         <v>268</v>
       </c>
-      <c r="E101" t="s">
-        <v>678</v>
-      </c>
-      <c r="F101" t="s">
-        <v>675</v>
-      </c>
-      <c r="H101" t="s">
-        <v>672</v>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
       </c>
       <c r="J101" t="s">
         <v>658</v>
@@ -5459,14 +5432,14 @@
       <c r="D102" t="s">
         <v>269</v>
       </c>
-      <c r="E102" t="s">
-        <v>677</v>
-      </c>
-      <c r="F102" t="s">
-        <v>674</v>
-      </c>
-      <c r="H102" t="s">
-        <v>671</v>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>658</v>
@@ -5488,14 +5461,14 @@
       <c r="D103" t="s">
         <v>270</v>
       </c>
-      <c r="E103" t="s">
-        <v>677</v>
-      </c>
-      <c r="F103" t="s">
-        <v>674</v>
-      </c>
-      <c r="H103" t="s">
-        <v>672</v>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>658</v>
@@ -5517,14 +5490,14 @@
       <c r="D104" t="s">
         <v>272</v>
       </c>
-      <c r="E104" t="s">
-        <v>677</v>
-      </c>
-      <c r="F104" t="s">
-        <v>674</v>
-      </c>
-      <c r="H104" t="s">
-        <v>671</v>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
       </c>
       <c r="J104" t="s">
         <v>658</v>
@@ -5546,14 +5519,14 @@
       <c r="D105" t="s">
         <v>273</v>
       </c>
-      <c r="E105" t="s">
-        <v>677</v>
-      </c>
-      <c r="F105" t="s">
-        <v>674</v>
-      </c>
-      <c r="H105" t="s">
-        <v>671</v>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>658</v>
@@ -5575,14 +5548,14 @@
       <c r="D106" t="s">
         <v>274</v>
       </c>
-      <c r="E106" t="s">
-        <v>677</v>
-      </c>
-      <c r="F106" t="s">
-        <v>674</v>
-      </c>
-      <c r="H106" t="s">
-        <v>671</v>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>658</v>
@@ -5604,14 +5577,14 @@
       <c r="D107" t="s">
         <v>276</v>
       </c>
-      <c r="E107" t="s">
-        <v>677</v>
-      </c>
-      <c r="F107" t="s">
-        <v>674</v>
-      </c>
-      <c r="H107" t="s">
-        <v>671</v>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>658</v>
@@ -5633,14 +5606,14 @@
       <c r="D108" t="s">
         <v>277</v>
       </c>
-      <c r="E108" t="s">
-        <v>677</v>
-      </c>
-      <c r="F108" t="s">
-        <v>674</v>
-      </c>
-      <c r="H108" t="s">
-        <v>673</v>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>3</v>
       </c>
       <c r="J108" t="s">
         <v>658</v>
@@ -5662,17 +5635,17 @@
       <c r="D109" t="s">
         <v>281</v>
       </c>
-      <c r="E109" t="s">
-        <v>677</v>
-      </c>
-      <c r="F109" t="s">
-        <v>674</v>
-      </c>
-      <c r="H109" t="s">
-        <v>671</v>
-      </c>
-      <c r="I109" t="s">
-        <v>671</v>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>658</v>
@@ -5694,14 +5667,14 @@
       <c r="D110" t="s">
         <v>283</v>
       </c>
-      <c r="E110" t="s">
-        <v>678</v>
-      </c>
-      <c r="F110" t="s">
-        <v>674</v>
-      </c>
-      <c r="H110" t="s">
-        <v>671</v>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
       </c>
       <c r="J110" t="s">
         <v>658</v>
@@ -5723,17 +5696,17 @@
       <c r="D111" t="s">
         <v>284</v>
       </c>
-      <c r="E111" t="s">
-        <v>677</v>
-      </c>
-      <c r="F111" t="s">
-        <v>674</v>
-      </c>
-      <c r="H111" t="s">
-        <v>671</v>
-      </c>
-      <c r="I111" t="s">
-        <v>671</v>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
       </c>
       <c r="J111" t="s">
         <v>658</v>
@@ -5755,17 +5728,17 @@
       <c r="D112" t="s">
         <v>285</v>
       </c>
-      <c r="E112" t="s">
-        <v>678</v>
-      </c>
-      <c r="F112" t="s">
-        <v>674</v>
-      </c>
-      <c r="H112" t="s">
-        <v>671</v>
-      </c>
-      <c r="I112" t="s">
-        <v>671</v>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
       </c>
       <c r="J112" t="s">
         <v>658</v>
@@ -5787,14 +5760,14 @@
       <c r="D113" t="s">
         <v>287</v>
       </c>
-      <c r="E113" t="s">
-        <v>678</v>
-      </c>
-      <c r="F113" t="s">
-        <v>675</v>
-      </c>
-      <c r="H113" t="s">
-        <v>671</v>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
       </c>
       <c r="J113" t="s">
         <v>658</v>
@@ -5816,14 +5789,14 @@
       <c r="D114" t="s">
         <v>288</v>
       </c>
-      <c r="E114" t="s">
-        <v>677</v>
-      </c>
-      <c r="F114" t="s">
-        <v>674</v>
-      </c>
-      <c r="H114" t="s">
-        <v>672</v>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>2</v>
       </c>
       <c r="J114" t="s">
         <v>658</v>
@@ -5845,14 +5818,14 @@
       <c r="D115" t="s">
         <v>290</v>
       </c>
-      <c r="E115" t="s">
-        <v>677</v>
-      </c>
-      <c r="F115" t="s">
-        <v>674</v>
-      </c>
-      <c r="H115" t="s">
-        <v>671</v>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
       </c>
       <c r="J115" t="s">
         <v>658</v>
@@ -5874,14 +5847,14 @@
       <c r="D116" t="s">
         <v>291</v>
       </c>
-      <c r="E116" t="s">
-        <v>677</v>
-      </c>
-      <c r="F116" t="s">
-        <v>674</v>
-      </c>
-      <c r="H116" t="s">
-        <v>671</v>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
       </c>
       <c r="J116" t="s">
         <v>658</v>
@@ -5903,14 +5876,14 @@
       <c r="D117" t="s">
         <v>294</v>
       </c>
-      <c r="E117" t="s">
-        <v>677</v>
-      </c>
-      <c r="F117" t="s">
-        <v>674</v>
-      </c>
-      <c r="H117" t="s">
-        <v>671</v>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
       </c>
       <c r="J117" t="s">
         <v>658</v>
@@ -5932,14 +5905,14 @@
       <c r="D118" t="s">
         <v>297</v>
       </c>
-      <c r="E118" t="s">
-        <v>677</v>
-      </c>
-      <c r="F118" t="s">
-        <v>674</v>
-      </c>
-      <c r="H118" t="s">
-        <v>671</v>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>658</v>
@@ -5961,14 +5934,14 @@
       <c r="D119" t="s">
         <v>298</v>
       </c>
-      <c r="E119" t="s">
-        <v>677</v>
-      </c>
-      <c r="F119" t="s">
-        <v>674</v>
-      </c>
-      <c r="H119" t="s">
-        <v>671</v>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>658</v>
@@ -5990,14 +5963,14 @@
       <c r="D120" t="s">
         <v>299</v>
       </c>
-      <c r="E120" t="s">
-        <v>677</v>
-      </c>
-      <c r="F120" t="s">
-        <v>675</v>
-      </c>
-      <c r="H120" t="s">
-        <v>672</v>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="H120">
+        <v>2</v>
       </c>
       <c r="J120" t="s">
         <v>658</v>
@@ -6019,14 +5992,14 @@
       <c r="D121" t="s">
         <v>301</v>
       </c>
-      <c r="E121" t="s">
-        <v>677</v>
-      </c>
-      <c r="F121" t="s">
-        <v>674</v>
-      </c>
-      <c r="H121" t="s">
-        <v>671</v>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>658</v>
@@ -6048,14 +6021,14 @@
       <c r="D122" t="s">
         <v>302</v>
       </c>
-      <c r="E122" t="s">
-        <v>677</v>
-      </c>
-      <c r="F122" t="s">
-        <v>674</v>
-      </c>
-      <c r="H122" t="s">
-        <v>671</v>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
       </c>
       <c r="J122" t="s">
         <v>658</v>
@@ -6077,14 +6050,14 @@
       <c r="D123" t="s">
         <v>304</v>
       </c>
-      <c r="E123" t="s">
-        <v>677</v>
-      </c>
-      <c r="F123" t="s">
-        <v>674</v>
-      </c>
-      <c r="H123" t="s">
-        <v>671</v>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
       </c>
       <c r="J123" t="s">
         <v>658</v>
@@ -6106,14 +6079,14 @@
       <c r="D124" t="s">
         <v>307</v>
       </c>
-      <c r="E124" t="s">
-        <v>677</v>
-      </c>
-      <c r="F124" t="s">
-        <v>674</v>
-      </c>
-      <c r="H124" t="s">
-        <v>671</v>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
       </c>
       <c r="J124" t="s">
         <v>658</v>
@@ -6135,14 +6108,14 @@
       <c r="D125" t="s">
         <v>308</v>
       </c>
-      <c r="E125" t="s">
-        <v>677</v>
-      </c>
-      <c r="F125" t="s">
-        <v>674</v>
-      </c>
-      <c r="H125" t="s">
-        <v>671</v>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
       </c>
       <c r="J125" t="s">
         <v>658</v>
@@ -6164,17 +6137,17 @@
       <c r="D126" t="s">
         <v>311</v>
       </c>
-      <c r="E126" t="s">
-        <v>677</v>
-      </c>
-      <c r="F126" t="s">
-        <v>674</v>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
       </c>
       <c r="G126" t="s">
         <v>312</v>
       </c>
-      <c r="H126" t="s">
-        <v>671</v>
+      <c r="H126">
+        <v>1</v>
       </c>
       <c r="J126" t="s">
         <v>658</v>
@@ -6196,17 +6169,17 @@
       <c r="D127" t="s">
         <v>315</v>
       </c>
-      <c r="E127" t="s">
-        <v>677</v>
-      </c>
-      <c r="F127" t="s">
-        <v>675</v>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
       </c>
       <c r="G127" t="s">
         <v>316</v>
       </c>
-      <c r="H127" t="s">
-        <v>671</v>
+      <c r="H127">
+        <v>1</v>
       </c>
       <c r="J127" t="s">
         <v>658</v>
@@ -6228,14 +6201,14 @@
       <c r="D128" t="s">
         <v>317</v>
       </c>
-      <c r="E128" t="s">
-        <v>677</v>
-      </c>
-      <c r="F128" t="s">
-        <v>674</v>
-      </c>
-      <c r="H128" t="s">
-        <v>671</v>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>658</v>
@@ -6257,14 +6230,14 @@
       <c r="D129" t="s">
         <v>318</v>
       </c>
-      <c r="E129" t="s">
-        <v>677</v>
-      </c>
-      <c r="F129" t="s">
-        <v>674</v>
-      </c>
-      <c r="H129" t="s">
-        <v>671</v>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
       </c>
       <c r="J129" t="s">
         <v>658</v>
@@ -6286,14 +6259,14 @@
       <c r="D130" t="s">
         <v>320</v>
       </c>
-      <c r="E130" t="s">
-        <v>677</v>
-      </c>
-      <c r="F130" t="s">
-        <v>674</v>
-      </c>
-      <c r="H130" t="s">
-        <v>671</v>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
       </c>
       <c r="J130" t="s">
         <v>658</v>
@@ -6315,14 +6288,14 @@
       <c r="D131" t="s">
         <v>322</v>
       </c>
-      <c r="E131" t="s">
-        <v>677</v>
-      </c>
-      <c r="F131" t="s">
-        <v>674</v>
-      </c>
-      <c r="H131" t="s">
-        <v>671</v>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
       </c>
       <c r="J131" t="s">
         <v>658</v>
@@ -6344,14 +6317,14 @@
       <c r="D132" t="s">
         <v>324</v>
       </c>
-      <c r="E132" t="s">
-        <v>677</v>
-      </c>
-      <c r="F132" t="s">
-        <v>674</v>
-      </c>
-      <c r="H132" t="s">
-        <v>671</v>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
       </c>
       <c r="J132" t="s">
         <v>658</v>
@@ -6373,14 +6346,14 @@
       <c r="D133" t="s">
         <v>326</v>
       </c>
-      <c r="E133" t="s">
-        <v>677</v>
-      </c>
-      <c r="F133" t="s">
-        <v>674</v>
-      </c>
-      <c r="H133" t="s">
-        <v>671</v>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
       </c>
       <c r="J133" t="s">
         <v>658</v>
@@ -6402,14 +6375,14 @@
       <c r="D134" t="s">
         <v>332</v>
       </c>
-      <c r="E134" t="s">
-        <v>677</v>
-      </c>
-      <c r="F134" t="s">
-        <v>674</v>
-      </c>
-      <c r="H134" t="s">
-        <v>671</v>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
       </c>
       <c r="J134" t="s">
         <v>658</v>
@@ -6431,14 +6404,14 @@
       <c r="D135" t="s">
         <v>339</v>
       </c>
-      <c r="E135" t="s">
-        <v>677</v>
-      </c>
-      <c r="F135" t="s">
-        <v>674</v>
-      </c>
-      <c r="H135" t="s">
-        <v>671</v>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
       </c>
       <c r="J135" t="s">
         <v>658</v>
@@ -6460,14 +6433,14 @@
       <c r="D136" t="s">
         <v>340</v>
       </c>
-      <c r="E136" t="s">
-        <v>677</v>
-      </c>
-      <c r="F136" t="s">
-        <v>674</v>
-      </c>
-      <c r="H136" t="s">
-        <v>671</v>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
       </c>
       <c r="J136" t="s">
         <v>658</v>
@@ -6489,14 +6462,14 @@
       <c r="D137" t="s">
         <v>342</v>
       </c>
-      <c r="E137" t="s">
-        <v>677</v>
-      </c>
-      <c r="F137" t="s">
-        <v>675</v>
-      </c>
-      <c r="H137" t="s">
-        <v>672</v>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>658</v>
@@ -6518,14 +6491,14 @@
       <c r="D138" t="s">
         <v>343</v>
       </c>
-      <c r="E138" t="s">
-        <v>677</v>
-      </c>
-      <c r="F138" t="s">
-        <v>674</v>
-      </c>
-      <c r="H138" t="s">
-        <v>671</v>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
       </c>
       <c r="J138" t="s">
         <v>658</v>
@@ -6547,14 +6520,14 @@
       <c r="D139" t="s">
         <v>346</v>
       </c>
-      <c r="E139" t="s">
-        <v>678</v>
-      </c>
-      <c r="F139" t="s">
-        <v>674</v>
-      </c>
-      <c r="H139" t="s">
-        <v>671</v>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
       </c>
       <c r="J139" t="s">
         <v>658</v>
@@ -6576,17 +6549,17 @@
       <c r="D140" t="s">
         <v>349</v>
       </c>
-      <c r="E140" t="s">
-        <v>677</v>
-      </c>
-      <c r="F140" t="s">
-        <v>674</v>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
       </c>
       <c r="G140" t="s">
         <v>350</v>
       </c>
-      <c r="H140" t="s">
-        <v>671</v>
+      <c r="H140">
+        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>658</v>
@@ -6608,20 +6581,20 @@
       <c r="D141" t="s">
         <v>352</v>
       </c>
-      <c r="E141" t="s">
-        <v>677</v>
-      </c>
-      <c r="F141" t="s">
-        <v>674</v>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
       </c>
       <c r="G141" t="s">
         <v>353</v>
       </c>
-      <c r="H141" t="s">
-        <v>671</v>
-      </c>
-      <c r="I141" t="s">
-        <v>671</v>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
       </c>
       <c r="J141" t="s">
         <v>658</v>
@@ -6643,14 +6616,14 @@
       <c r="D142" t="s">
         <v>356</v>
       </c>
-      <c r="E142" t="s">
-        <v>677</v>
-      </c>
-      <c r="F142" t="s">
-        <v>674</v>
-      </c>
-      <c r="H142" t="s">
-        <v>671</v>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
       </c>
       <c r="J142" t="s">
         <v>658</v>
@@ -6672,14 +6645,14 @@
       <c r="D143" t="s">
         <v>358</v>
       </c>
-      <c r="E143" t="s">
-        <v>678</v>
-      </c>
-      <c r="F143" t="s">
-        <v>674</v>
-      </c>
-      <c r="H143" t="s">
-        <v>671</v>
+      <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
       </c>
       <c r="J143" t="s">
         <v>658</v>
@@ -6701,14 +6674,14 @@
       <c r="D144" t="s">
         <v>361</v>
       </c>
-      <c r="E144" t="s">
-        <v>677</v>
-      </c>
-      <c r="F144" t="s">
-        <v>674</v>
-      </c>
-      <c r="H144" t="s">
-        <v>671</v>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
       </c>
       <c r="J144" t="s">
         <v>658</v>
@@ -6730,17 +6703,17 @@
       <c r="D145" t="s">
         <v>367</v>
       </c>
-      <c r="E145" t="s">
-        <v>677</v>
-      </c>
-      <c r="F145" t="s">
-        <v>674</v>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
       </c>
       <c r="G145" t="s">
         <v>368</v>
       </c>
-      <c r="H145" t="s">
-        <v>671</v>
+      <c r="H145">
+        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>658</v>
@@ -6762,14 +6735,14 @@
       <c r="D146" t="s">
         <v>374</v>
       </c>
-      <c r="E146" t="s">
-        <v>678</v>
-      </c>
-      <c r="F146" t="s">
-        <v>674</v>
-      </c>
-      <c r="H146" t="s">
-        <v>671</v>
+      <c r="E146">
+        <v>2</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
       </c>
       <c r="J146" t="s">
         <v>658</v>
@@ -6791,17 +6764,17 @@
       <c r="D147" t="s">
         <v>376</v>
       </c>
-      <c r="E147" t="s">
-        <v>678</v>
-      </c>
-      <c r="F147" t="s">
-        <v>675</v>
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
       </c>
       <c r="G147" t="s">
         <v>377</v>
       </c>
-      <c r="H147" t="s">
-        <v>672</v>
+      <c r="H147">
+        <v>2</v>
       </c>
       <c r="J147" t="s">
         <v>658</v>
@@ -6823,14 +6796,14 @@
       <c r="D148" t="s">
         <v>378</v>
       </c>
-      <c r="E148" t="s">
-        <v>677</v>
-      </c>
-      <c r="F148" t="s">
-        <v>674</v>
-      </c>
-      <c r="H148" t="s">
-        <v>672</v>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>2</v>
       </c>
       <c r="J148" t="s">
         <v>658</v>
@@ -6852,14 +6825,14 @@
       <c r="D149" t="s">
         <v>382</v>
       </c>
-      <c r="E149" t="s">
-        <v>677</v>
-      </c>
-      <c r="F149" t="s">
-        <v>674</v>
-      </c>
-      <c r="H149" t="s">
-        <v>672</v>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
       </c>
       <c r="J149" t="s">
         <v>658</v>
@@ -6881,14 +6854,14 @@
       <c r="D150" t="s">
         <v>383</v>
       </c>
-      <c r="E150" t="s">
-        <v>677</v>
-      </c>
-      <c r="F150" t="s">
-        <v>674</v>
-      </c>
-      <c r="H150" t="s">
-        <v>672</v>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
       </c>
       <c r="J150" t="s">
         <v>658</v>
@@ -6910,14 +6883,14 @@
       <c r="D151" t="s">
         <v>385</v>
       </c>
-      <c r="E151" t="s">
-        <v>678</v>
-      </c>
-      <c r="F151" t="s">
-        <v>674</v>
-      </c>
-      <c r="H151" t="s">
-        <v>671</v>
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
       </c>
       <c r="J151" t="s">
         <v>658</v>
@@ -6939,14 +6912,14 @@
       <c r="D152" t="s">
         <v>386</v>
       </c>
-      <c r="E152" t="s">
-        <v>677</v>
-      </c>
-      <c r="F152" t="s">
-        <v>674</v>
-      </c>
-      <c r="H152" t="s">
-        <v>672</v>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>2</v>
       </c>
       <c r="J152" t="s">
         <v>658</v>
@@ -6968,14 +6941,14 @@
       <c r="D153" t="s">
         <v>387</v>
       </c>
-      <c r="E153" t="s">
-        <v>677</v>
-      </c>
-      <c r="F153" t="s">
-        <v>674</v>
-      </c>
-      <c r="H153" t="s">
-        <v>672</v>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>2</v>
       </c>
       <c r="J153" t="s">
         <v>658</v>
@@ -6997,14 +6970,14 @@
       <c r="D154" t="s">
         <v>389</v>
       </c>
-      <c r="E154" t="s">
-        <v>678</v>
-      </c>
-      <c r="F154" t="s">
-        <v>674</v>
-      </c>
-      <c r="H154" t="s">
-        <v>671</v>
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
       </c>
       <c r="J154" t="s">
         <v>658</v>
@@ -7026,14 +6999,14 @@
       <c r="D155" t="s">
         <v>390</v>
       </c>
-      <c r="E155" t="s">
-        <v>677</v>
-      </c>
-      <c r="F155" t="s">
-        <v>674</v>
-      </c>
-      <c r="H155" t="s">
-        <v>672</v>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>2</v>
       </c>
       <c r="J155" t="s">
         <v>658</v>
@@ -7055,17 +7028,17 @@
       <c r="D156" t="s">
         <v>393</v>
       </c>
-      <c r="E156" t="s">
-        <v>677</v>
-      </c>
-      <c r="F156" t="s">
-        <v>674</v>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
       </c>
       <c r="G156" t="s">
         <v>394</v>
       </c>
-      <c r="H156" t="s">
-        <v>672</v>
+      <c r="H156">
+        <v>2</v>
       </c>
       <c r="J156" t="s">
         <v>658</v>
@@ -7087,14 +7060,14 @@
       <c r="D157" t="s">
         <v>397</v>
       </c>
-      <c r="E157" t="s">
-        <v>677</v>
-      </c>
-      <c r="F157" t="s">
-        <v>674</v>
-      </c>
-      <c r="H157" t="s">
-        <v>672</v>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>658</v>
@@ -7116,14 +7089,14 @@
       <c r="D158" t="s">
         <v>399</v>
       </c>
-      <c r="E158" t="s">
-        <v>677</v>
-      </c>
-      <c r="F158" t="s">
-        <v>674</v>
-      </c>
-      <c r="H158" t="s">
-        <v>672</v>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>658</v>
@@ -7145,14 +7118,14 @@
       <c r="D159" t="s">
         <v>401</v>
       </c>
-      <c r="E159" t="s">
-        <v>677</v>
-      </c>
-      <c r="F159" t="s">
-        <v>674</v>
-      </c>
-      <c r="H159" t="s">
-        <v>672</v>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>2</v>
       </c>
       <c r="J159" t="s">
         <v>658</v>
@@ -7174,14 +7147,14 @@
       <c r="D160" t="s">
         <v>403</v>
       </c>
-      <c r="E160" t="s">
-        <v>677</v>
-      </c>
-      <c r="F160" t="s">
-        <v>674</v>
-      </c>
-      <c r="H160" t="s">
-        <v>672</v>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>2</v>
       </c>
       <c r="J160" t="s">
         <v>658</v>
@@ -7203,14 +7176,14 @@
       <c r="D161" t="s">
         <v>404</v>
       </c>
-      <c r="E161" t="s">
-        <v>677</v>
-      </c>
-      <c r="F161" t="s">
-        <v>674</v>
-      </c>
-      <c r="H161" t="s">
-        <v>672</v>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>2</v>
       </c>
       <c r="J161" t="s">
         <v>658</v>
@@ -7232,14 +7205,14 @@
       <c r="D162" t="s">
         <v>406</v>
       </c>
-      <c r="E162" t="s">
-        <v>677</v>
-      </c>
-      <c r="F162" t="s">
-        <v>674</v>
-      </c>
-      <c r="H162" t="s">
-        <v>672</v>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>2</v>
       </c>
       <c r="J162" t="s">
         <v>658</v>
@@ -7261,14 +7234,14 @@
       <c r="D163" t="s">
         <v>409</v>
       </c>
-      <c r="E163" t="s">
-        <v>677</v>
-      </c>
-      <c r="F163" t="s">
-        <v>674</v>
-      </c>
-      <c r="H163" t="s">
-        <v>672</v>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>2</v>
       </c>
       <c r="J163" t="s">
         <v>658</v>
@@ -7290,14 +7263,14 @@
       <c r="D164" t="s">
         <v>412</v>
       </c>
-      <c r="E164" t="s">
-        <v>677</v>
-      </c>
-      <c r="F164" t="s">
-        <v>675</v>
-      </c>
-      <c r="H164" t="s">
-        <v>672</v>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>2</v>
+      </c>
+      <c r="H164">
+        <v>2</v>
       </c>
       <c r="J164" t="s">
         <v>658</v>
@@ -7319,17 +7292,17 @@
       <c r="D165" t="s">
         <v>432</v>
       </c>
-      <c r="E165" t="s">
-        <v>677</v>
-      </c>
-      <c r="F165" t="s">
-        <v>675</v>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>2</v>
       </c>
       <c r="G165" t="s">
         <v>433</v>
       </c>
-      <c r="H165" t="s">
-        <v>672</v>
+      <c r="H165">
+        <v>2</v>
       </c>
       <c r="J165" t="s">
         <v>658</v>
@@ -7351,17 +7324,17 @@
       <c r="D166" t="s">
         <v>436</v>
       </c>
-      <c r="E166" t="s">
-        <v>677</v>
-      </c>
-      <c r="F166" t="s">
-        <v>675</v>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>2</v>
       </c>
       <c r="G166" t="s">
         <v>437</v>
       </c>
-      <c r="H166" t="s">
-        <v>672</v>
+      <c r="H166">
+        <v>2</v>
       </c>
       <c r="J166" t="s">
         <v>658</v>
@@ -7383,14 +7356,14 @@
       <c r="D167" t="s">
         <v>440</v>
       </c>
-      <c r="E167" t="s">
-        <v>678</v>
-      </c>
-      <c r="F167" t="s">
-        <v>674</v>
-      </c>
-      <c r="H167" t="s">
-        <v>671</v>
+      <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
       </c>
       <c r="J167" t="s">
         <v>658</v>
@@ -7412,14 +7385,14 @@
       <c r="D168" t="s">
         <v>442</v>
       </c>
-      <c r="E168" t="s">
-        <v>677</v>
-      </c>
-      <c r="F168" t="s">
-        <v>674</v>
-      </c>
-      <c r="H168" t="s">
-        <v>672</v>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>2</v>
       </c>
       <c r="J168" t="s">
         <v>658</v>
@@ -7441,14 +7414,14 @@
       <c r="D169" t="s">
         <v>446</v>
       </c>
-      <c r="E169" t="s">
-        <v>677</v>
-      </c>
-      <c r="F169" t="s">
-        <v>674</v>
-      </c>
-      <c r="H169" t="s">
-        <v>671</v>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
       </c>
       <c r="J169" t="s">
         <v>658</v>
@@ -7470,14 +7443,14 @@
       <c r="D170" t="s">
         <v>447</v>
       </c>
-      <c r="E170" t="s">
-        <v>677</v>
-      </c>
-      <c r="F170" t="s">
-        <v>674</v>
-      </c>
-      <c r="H170" t="s">
-        <v>671</v>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
       </c>
       <c r="J170" t="s">
         <v>658</v>
@@ -7499,14 +7472,14 @@
       <c r="D171" t="s">
         <v>449</v>
       </c>
-      <c r="E171" t="s">
-        <v>677</v>
-      </c>
-      <c r="F171" t="s">
-        <v>674</v>
-      </c>
-      <c r="H171" t="s">
-        <v>671</v>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
       </c>
       <c r="J171" t="s">
         <v>658</v>
@@ -7528,17 +7501,17 @@
       <c r="D172" t="s">
         <v>457</v>
       </c>
-      <c r="E172" t="s">
-        <v>677</v>
-      </c>
-      <c r="F172" t="s">
-        <v>675</v>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>2</v>
       </c>
       <c r="G172" t="s">
         <v>458</v>
       </c>
-      <c r="H172" t="s">
-        <v>671</v>
+      <c r="H172">
+        <v>1</v>
       </c>
       <c r="J172" t="s">
         <v>658</v>
@@ -7563,17 +7536,17 @@
       <c r="D173" t="s">
         <v>460</v>
       </c>
-      <c r="E173" t="s">
-        <v>677</v>
-      </c>
-      <c r="F173" t="s">
-        <v>675</v>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>2</v>
       </c>
       <c r="G173" t="s">
         <v>461</v>
       </c>
-      <c r="H173" t="s">
-        <v>671</v>
+      <c r="H173">
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>658</v>
@@ -7595,14 +7568,14 @@
       <c r="D174" t="s">
         <v>463</v>
       </c>
-      <c r="E174" t="s">
-        <v>678</v>
-      </c>
-      <c r="F174" t="s">
-        <v>675</v>
-      </c>
-      <c r="H174" t="s">
-        <v>671</v>
+      <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="F174">
+        <v>2</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
       </c>
       <c r="J174" t="s">
         <v>658</v>
@@ -7627,17 +7600,17 @@
       <c r="D175" t="s">
         <v>483</v>
       </c>
-      <c r="E175" t="s">
-        <v>677</v>
-      </c>
-      <c r="F175" t="s">
-        <v>675</v>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>2</v>
       </c>
       <c r="G175" t="s">
         <v>484</v>
       </c>
-      <c r="H175" t="s">
-        <v>672</v>
+      <c r="H175">
+        <v>2</v>
       </c>
       <c r="J175" t="s">
         <v>658</v>
@@ -7659,14 +7632,14 @@
       <c r="D176" t="s">
         <v>488</v>
       </c>
-      <c r="E176" t="s">
-        <v>677</v>
-      </c>
-      <c r="F176" t="s">
-        <v>675</v>
-      </c>
-      <c r="H176" t="s">
-        <v>672</v>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>2</v>
+      </c>
+      <c r="H176">
+        <v>2</v>
       </c>
       <c r="J176" t="s">
         <v>658</v>
@@ -7688,14 +7661,14 @@
       <c r="D177" t="s">
         <v>491</v>
       </c>
-      <c r="E177" t="s">
-        <v>678</v>
-      </c>
-      <c r="F177" t="s">
-        <v>674</v>
-      </c>
-      <c r="H177" t="s">
-        <v>672</v>
+      <c r="E177">
+        <v>2</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>2</v>
       </c>
       <c r="J177" t="s">
         <v>658</v>
@@ -7720,17 +7693,17 @@
       <c r="D178" t="s">
         <v>506</v>
       </c>
-      <c r="E178" t="s">
-        <v>677</v>
-      </c>
-      <c r="F178" t="s">
-        <v>675</v>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>2</v>
       </c>
       <c r="G178" t="s">
         <v>507</v>
       </c>
-      <c r="H178" t="s">
-        <v>672</v>
+      <c r="H178">
+        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>658</v>
@@ -7755,14 +7728,14 @@
       <c r="D179" t="s">
         <v>509</v>
       </c>
-      <c r="E179" t="s">
-        <v>678</v>
-      </c>
-      <c r="F179" t="s">
-        <v>674</v>
-      </c>
-      <c r="H179" t="s">
-        <v>672</v>
+      <c r="E179">
+        <v>2</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>2</v>
       </c>
       <c r="J179" t="s">
         <v>658</v>
@@ -7787,14 +7760,14 @@
       <c r="D180" t="s">
         <v>511</v>
       </c>
-      <c r="E180" t="s">
-        <v>678</v>
-      </c>
-      <c r="F180" t="s">
-        <v>675</v>
-      </c>
-      <c r="H180" t="s">
-        <v>672</v>
+      <c r="E180">
+        <v>2</v>
+      </c>
+      <c r="F180">
+        <v>2</v>
+      </c>
+      <c r="H180">
+        <v>2</v>
       </c>
       <c r="J180" t="s">
         <v>658</v>
@@ -7819,14 +7792,14 @@
       <c r="D181" t="s">
         <v>517</v>
       </c>
-      <c r="E181" t="s">
-        <v>677</v>
-      </c>
-      <c r="F181" t="s">
-        <v>676</v>
-      </c>
-      <c r="H181" t="s">
-        <v>672</v>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>3</v>
+      </c>
+      <c r="H181">
+        <v>2</v>
       </c>
       <c r="J181" t="s">
         <v>658</v>
@@ -7848,14 +7821,14 @@
       <c r="D182" t="s">
         <v>527</v>
       </c>
-      <c r="E182" t="s">
-        <v>677</v>
-      </c>
-      <c r="F182" t="s">
-        <v>675</v>
-      </c>
-      <c r="H182" t="s">
-        <v>672</v>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>2</v>
+      </c>
+      <c r="H182">
+        <v>2</v>
       </c>
       <c r="J182" t="s">
         <v>658</v>
@@ -7877,14 +7850,14 @@
       <c r="D183" t="s">
         <v>532</v>
       </c>
-      <c r="E183" t="s">
-        <v>677</v>
-      </c>
-      <c r="F183" t="s">
-        <v>676</v>
-      </c>
-      <c r="H183" t="s">
-        <v>672</v>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>3</v>
+      </c>
+      <c r="H183">
+        <v>2</v>
       </c>
       <c r="J183" t="s">
         <v>658</v>
@@ -7912,14 +7885,14 @@
       <c r="D184" t="s">
         <v>535</v>
       </c>
-      <c r="E184" t="s">
-        <v>677</v>
-      </c>
-      <c r="F184" t="s">
-        <v>675</v>
-      </c>
-      <c r="H184" t="s">
-        <v>671</v>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>2</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
       </c>
       <c r="J184" t="s">
         <v>658</v>
@@ -7944,14 +7917,14 @@
       <c r="D185" t="s">
         <v>553</v>
       </c>
-      <c r="E185" t="s">
-        <v>677</v>
-      </c>
-      <c r="F185" t="s">
-        <v>675</v>
-      </c>
-      <c r="H185" t="s">
-        <v>671</v>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>2</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
       </c>
       <c r="J185" t="s">
         <v>658</v>
@@ -7976,14 +7949,14 @@
       <c r="D186" t="s">
         <v>557</v>
       </c>
-      <c r="E186" t="s">
-        <v>677</v>
-      </c>
-      <c r="F186" t="s">
-        <v>675</v>
-      </c>
-      <c r="H186" t="s">
-        <v>672</v>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>2</v>
+      </c>
+      <c r="H186">
+        <v>2</v>
       </c>
       <c r="J186" t="s">
         <v>658</v>
@@ -8008,14 +7981,14 @@
       <c r="D187" t="s">
         <v>560</v>
       </c>
-      <c r="E187" t="s">
-        <v>678</v>
-      </c>
-      <c r="F187" t="s">
-        <v>675</v>
-      </c>
-      <c r="H187" t="s">
-        <v>672</v>
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="F187">
+        <v>2</v>
+      </c>
+      <c r="H187">
+        <v>2</v>
       </c>
       <c r="J187" t="s">
         <v>658</v>
@@ -8040,14 +8013,14 @@
       <c r="D188" t="s">
         <v>563</v>
       </c>
-      <c r="E188" t="s">
-        <v>677</v>
-      </c>
-      <c r="F188" t="s">
-        <v>675</v>
-      </c>
-      <c r="H188" t="s">
-        <v>671</v>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>2</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>658</v>
@@ -8072,14 +8045,14 @@
       <c r="D189" t="s">
         <v>568</v>
       </c>
-      <c r="E189" t="s">
-        <v>677</v>
-      </c>
-      <c r="F189" t="s">
-        <v>675</v>
-      </c>
-      <c r="H189" t="s">
-        <v>672</v>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>2</v>
+      </c>
+      <c r="H189">
+        <v>2</v>
       </c>
       <c r="J189" t="s">
         <v>658</v>
@@ -8104,17 +8077,17 @@
       <c r="D190" t="s">
         <v>596</v>
       </c>
-      <c r="E190" t="s">
-        <v>677</v>
-      </c>
-      <c r="F190" t="s">
-        <v>675</v>
-      </c>
-      <c r="H190" t="s">
-        <v>672</v>
-      </c>
-      <c r="I190" t="s">
-        <v>672</v>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>2</v>
+      </c>
+      <c r="H190">
+        <v>2</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
       </c>
       <c r="J190" t="s">
         <v>658</v>
@@ -8139,14 +8112,14 @@
       <c r="D191" t="s">
         <v>605</v>
       </c>
-      <c r="E191" t="s">
-        <v>677</v>
-      </c>
-      <c r="F191" t="s">
-        <v>675</v>
-      </c>
-      <c r="H191" t="s">
-        <v>672</v>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>2</v>
+      </c>
+      <c r="H191">
+        <v>2</v>
       </c>
       <c r="J191" t="s">
         <v>658</v>
@@ -8171,14 +8144,14 @@
       <c r="D192" t="s">
         <v>617</v>
       </c>
-      <c r="E192" t="s">
-        <v>677</v>
-      </c>
-      <c r="F192" t="s">
-        <v>675</v>
-      </c>
-      <c r="H192" t="s">
-        <v>672</v>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>2</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
       </c>
       <c r="J192" t="s">
         <v>658</v>
@@ -8203,14 +8176,14 @@
       <c r="D193" t="s">
         <v>640</v>
       </c>
-      <c r="E193" t="s">
-        <v>678</v>
-      </c>
-      <c r="F193" t="s">
-        <v>675</v>
-      </c>
-      <c r="H193" t="s">
-        <v>672</v>
+      <c r="E193">
+        <v>2</v>
+      </c>
+      <c r="F193">
+        <v>2</v>
+      </c>
+      <c r="H193">
+        <v>2</v>
       </c>
       <c r="J193" t="s">
         <v>658</v>
@@ -8235,14 +8208,14 @@
       <c r="D194" t="s">
         <v>649</v>
       </c>
-      <c r="E194" t="s">
-        <v>677</v>
-      </c>
-      <c r="F194" t="s">
-        <v>675</v>
-      </c>
-      <c r="H194" t="s">
-        <v>672</v>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>2</v>
+      </c>
+      <c r="H194">
+        <v>2</v>
       </c>
       <c r="J194" t="s">
         <v>658</v>
@@ -8267,14 +8240,14 @@
       <c r="D195" t="s">
         <v>651</v>
       </c>
-      <c r="E195" t="s">
-        <v>677</v>
-      </c>
-      <c r="F195" t="s">
-        <v>675</v>
-      </c>
-      <c r="H195" t="s">
-        <v>672</v>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>2</v>
+      </c>
+      <c r="H195">
+        <v>2</v>
       </c>
       <c r="J195" t="s">
         <v>658</v>
@@ -8299,17 +8272,17 @@
       <c r="D196" t="s">
         <v>53</v>
       </c>
-      <c r="E196" t="s">
-        <v>677</v>
-      </c>
-      <c r="F196" t="s">
-        <v>675</v>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>2</v>
       </c>
       <c r="G196" t="s">
         <v>54</v>
       </c>
-      <c r="H196" t="s">
-        <v>671</v>
+      <c r="H196">
+        <v>1</v>
       </c>
       <c r="J196" t="s">
         <v>55</v>
@@ -8331,14 +8304,14 @@
       <c r="D197" t="s">
         <v>81</v>
       </c>
-      <c r="E197" t="s">
-        <v>677</v>
-      </c>
-      <c r="F197" t="s">
-        <v>675</v>
-      </c>
-      <c r="H197" t="s">
-        <v>672</v>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>2</v>
+      </c>
+      <c r="H197">
+        <v>2</v>
       </c>
       <c r="J197" t="s">
         <v>55</v>
@@ -8360,14 +8333,14 @@
       <c r="D198" t="s">
         <v>109</v>
       </c>
-      <c r="E198" t="s">
-        <v>677</v>
-      </c>
-      <c r="F198" t="s">
-        <v>674</v>
-      </c>
-      <c r="H198" t="s">
-        <v>671</v>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
       </c>
       <c r="J198" t="s">
         <v>55</v>
@@ -8389,14 +8362,14 @@
       <c r="D199" t="s">
         <v>177</v>
       </c>
-      <c r="E199" t="s">
-        <v>677</v>
-      </c>
-      <c r="F199" t="s">
-        <v>674</v>
-      </c>
-      <c r="H199" t="s">
-        <v>671</v>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
       </c>
       <c r="J199" t="s">
         <v>55</v>
@@ -8418,14 +8391,14 @@
       <c r="D200" t="s">
         <v>215</v>
       </c>
-      <c r="E200" t="s">
-        <v>677</v>
-      </c>
-      <c r="F200" t="s">
-        <v>674</v>
-      </c>
-      <c r="H200" t="s">
-        <v>671</v>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
       </c>
       <c r="J200" t="s">
         <v>55</v>
@@ -8447,17 +8420,17 @@
       <c r="D201" t="s">
         <v>220</v>
       </c>
-      <c r="E201" t="s">
-        <v>677</v>
-      </c>
-      <c r="F201" t="s">
-        <v>674</v>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
       </c>
       <c r="G201" t="s">
         <v>221</v>
       </c>
-      <c r="H201" t="s">
-        <v>671</v>
+      <c r="H201">
+        <v>1</v>
       </c>
       <c r="J201" t="s">
         <v>55</v>
@@ -8479,14 +8452,14 @@
       <c r="D202" t="s">
         <v>226</v>
       </c>
-      <c r="E202" t="s">
-        <v>677</v>
-      </c>
-      <c r="F202" t="s">
-        <v>675</v>
-      </c>
-      <c r="H202" t="s">
-        <v>671</v>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>2</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
       </c>
       <c r="J202" t="s">
         <v>55</v>
@@ -8508,14 +8481,14 @@
       <c r="D203" t="s">
         <v>236</v>
       </c>
-      <c r="E203" t="s">
-        <v>678</v>
-      </c>
-      <c r="F203" t="s">
-        <v>674</v>
-      </c>
-      <c r="H203" t="s">
-        <v>671</v>
+      <c r="E203">
+        <v>2</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
       </c>
       <c r="J203" t="s">
         <v>55</v>
@@ -8537,17 +8510,17 @@
       <c r="D204" t="s">
         <v>246</v>
       </c>
-      <c r="E204" t="s">
-        <v>677</v>
-      </c>
-      <c r="F204" t="s">
-        <v>675</v>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>2</v>
       </c>
       <c r="G204" t="s">
         <v>247</v>
       </c>
-      <c r="H204" t="s">
-        <v>672</v>
+      <c r="H204">
+        <v>2</v>
       </c>
       <c r="J204" t="s">
         <v>55</v>
@@ -8569,17 +8542,17 @@
       <c r="D205" t="s">
         <v>251</v>
       </c>
-      <c r="E205" t="s">
-        <v>677</v>
-      </c>
-      <c r="F205" t="s">
-        <v>675</v>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>2</v>
       </c>
       <c r="G205" t="s">
         <v>252</v>
       </c>
-      <c r="H205" t="s">
-        <v>672</v>
+      <c r="H205">
+        <v>2</v>
       </c>
       <c r="J205" t="s">
         <v>55</v>
@@ -8601,17 +8574,17 @@
       <c r="D206" t="s">
         <v>255</v>
       </c>
-      <c r="E206" t="s">
-        <v>677</v>
-      </c>
-      <c r="F206" t="s">
-        <v>675</v>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>2</v>
       </c>
       <c r="G206" t="s">
         <v>256</v>
       </c>
-      <c r="H206" t="s">
-        <v>672</v>
+      <c r="H206">
+        <v>2</v>
       </c>
       <c r="J206" t="s">
         <v>55</v>
@@ -8633,14 +8606,14 @@
       <c r="D207" t="s">
         <v>279</v>
       </c>
-      <c r="E207" t="s">
-        <v>677</v>
-      </c>
-      <c r="F207" t="s">
-        <v>675</v>
-      </c>
-      <c r="H207" t="s">
-        <v>672</v>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>2</v>
+      </c>
+      <c r="H207">
+        <v>2</v>
       </c>
       <c r="J207" t="s">
         <v>55</v>
@@ -8662,17 +8635,17 @@
       <c r="D208" t="s">
         <v>329</v>
       </c>
-      <c r="E208" t="s">
-        <v>678</v>
-      </c>
-      <c r="F208" t="s">
-        <v>675</v>
+      <c r="E208">
+        <v>2</v>
+      </c>
+      <c r="F208">
+        <v>2</v>
       </c>
       <c r="G208" t="s">
         <v>330</v>
       </c>
-      <c r="H208" t="s">
-        <v>672</v>
+      <c r="H208">
+        <v>2</v>
       </c>
       <c r="J208" t="s">
         <v>55</v>
@@ -8694,17 +8667,17 @@
       <c r="D209" t="s">
         <v>335</v>
       </c>
-      <c r="E209" t="s">
-        <v>677</v>
-      </c>
-      <c r="F209" t="s">
-        <v>674</v>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
       </c>
       <c r="G209" t="s">
         <v>336</v>
       </c>
-      <c r="H209" t="s">
-        <v>671</v>
+      <c r="H209">
+        <v>1</v>
       </c>
       <c r="J209" t="s">
         <v>55</v>
@@ -8726,17 +8699,17 @@
       <c r="D210" t="s">
         <v>371</v>
       </c>
-      <c r="E210" t="s">
-        <v>677</v>
-      </c>
-      <c r="F210" t="s">
-        <v>675</v>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>2</v>
       </c>
       <c r="G210" t="s">
         <v>247</v>
       </c>
-      <c r="H210" t="s">
-        <v>672</v>
+      <c r="H210">
+        <v>2</v>
       </c>
       <c r="J210" t="s">
         <v>55</v>
@@ -8758,17 +8731,17 @@
       <c r="D211" t="s">
         <v>418</v>
       </c>
-      <c r="E211" t="s">
-        <v>677</v>
-      </c>
-      <c r="F211" t="s">
-        <v>675</v>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>2</v>
       </c>
       <c r="G211" t="s">
         <v>419</v>
       </c>
-      <c r="H211" t="s">
-        <v>671</v>
+      <c r="H211">
+        <v>1</v>
       </c>
       <c r="J211" t="s">
         <v>55</v>
@@ -8790,17 +8763,17 @@
       <c r="D212" t="s">
         <v>444</v>
       </c>
-      <c r="E212" t="s">
-        <v>677</v>
-      </c>
-      <c r="F212" t="s">
-        <v>674</v>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
       </c>
       <c r="G212" t="s">
         <v>115</v>
       </c>
-      <c r="H212" t="s">
-        <v>671</v>
+      <c r="H212">
+        <v>1</v>
       </c>
       <c r="J212" t="s">
         <v>55</v>
@@ -8828,14 +8801,14 @@
       <c r="D213" t="s">
         <v>452</v>
       </c>
-      <c r="E213" t="s">
-        <v>677</v>
-      </c>
-      <c r="F213" t="s">
-        <v>674</v>
-      </c>
-      <c r="H213" t="s">
-        <v>671</v>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
       </c>
       <c r="J213" t="s">
         <v>55</v>
@@ -8863,20 +8836,20 @@
       <c r="D214" t="s">
         <v>454</v>
       </c>
-      <c r="E214" t="s">
-        <v>677</v>
-      </c>
-      <c r="F214" t="s">
-        <v>675</v>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>2</v>
       </c>
       <c r="G214" t="s">
         <v>455</v>
       </c>
-      <c r="H214" t="s">
-        <v>671</v>
-      </c>
-      <c r="I214" t="s">
-        <v>671</v>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
       </c>
       <c r="J214" t="s">
         <v>55</v>
@@ -8901,17 +8874,17 @@
       <c r="D215" t="s">
         <v>468</v>
       </c>
-      <c r="E215" t="s">
-        <v>677</v>
-      </c>
-      <c r="F215" t="s">
-        <v>675</v>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>2</v>
       </c>
       <c r="G215" t="s">
         <v>469</v>
       </c>
-      <c r="H215" t="s">
-        <v>672</v>
+      <c r="H215">
+        <v>2</v>
       </c>
       <c r="J215" t="s">
         <v>55</v>
@@ -8936,14 +8909,14 @@
       <c r="D216" t="s">
         <v>471</v>
       </c>
-      <c r="E216" t="s">
-        <v>677</v>
-      </c>
-      <c r="F216" t="s">
-        <v>675</v>
-      </c>
-      <c r="H216" t="s">
-        <v>671</v>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>2</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>55</v>
@@ -8968,17 +8941,17 @@
       <c r="D217" t="s">
         <v>474</v>
       </c>
-      <c r="E217" t="s">
-        <v>677</v>
-      </c>
-      <c r="F217" t="s">
-        <v>675</v>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>2</v>
       </c>
       <c r="G217" t="s">
         <v>247</v>
       </c>
-      <c r="H217" t="s">
-        <v>672</v>
+      <c r="H217">
+        <v>2</v>
       </c>
       <c r="J217" t="s">
         <v>55</v>
@@ -9000,17 +8973,17 @@
       <c r="D218" t="s">
         <v>477</v>
       </c>
-      <c r="E218" t="s">
-        <v>677</v>
-      </c>
-      <c r="F218" t="s">
-        <v>675</v>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>2</v>
       </c>
       <c r="G218" t="s">
         <v>478</v>
       </c>
-      <c r="H218" t="s">
-        <v>671</v>
+      <c r="H218">
+        <v>1</v>
       </c>
       <c r="J218" t="s">
         <v>55</v>
@@ -9035,17 +9008,17 @@
       <c r="D219" t="s">
         <v>481</v>
       </c>
-      <c r="E219" t="s">
-        <v>677</v>
-      </c>
-      <c r="F219" t="s">
-        <v>675</v>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>2</v>
       </c>
       <c r="G219" t="s">
         <v>115</v>
       </c>
-      <c r="H219" t="s">
-        <v>672</v>
+      <c r="H219">
+        <v>2</v>
       </c>
       <c r="J219" t="s">
         <v>55</v>
@@ -9070,14 +9043,14 @@
       <c r="D220" t="s">
         <v>486</v>
       </c>
-      <c r="E220" t="s">
-        <v>677</v>
-      </c>
-      <c r="F220" t="s">
-        <v>675</v>
-      </c>
-      <c r="H220" t="s">
-        <v>672</v>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>2</v>
+      </c>
+      <c r="H220">
+        <v>2</v>
       </c>
       <c r="J220" t="s">
         <v>55</v>
@@ -9102,17 +9075,17 @@
       <c r="D221" t="s">
         <v>493</v>
       </c>
-      <c r="E221" t="s">
-        <v>677</v>
-      </c>
-      <c r="F221" t="s">
-        <v>675</v>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>2</v>
       </c>
       <c r="G221" t="s">
         <v>494</v>
       </c>
-      <c r="H221" t="s">
-        <v>672</v>
+      <c r="H221">
+        <v>2</v>
       </c>
       <c r="J221" t="s">
         <v>55</v>
@@ -9137,14 +9110,14 @@
       <c r="D222" t="s">
         <v>496</v>
       </c>
-      <c r="E222" t="s">
-        <v>677</v>
-      </c>
-      <c r="F222" t="s">
-        <v>676</v>
-      </c>
-      <c r="H222" t="s">
-        <v>672</v>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>3</v>
+      </c>
+      <c r="H222">
+        <v>2</v>
       </c>
       <c r="J222" t="s">
         <v>55</v>
@@ -9166,14 +9139,14 @@
       <c r="D223" t="s">
         <v>498</v>
       </c>
-      <c r="E223" t="s">
-        <v>677</v>
-      </c>
-      <c r="F223" t="s">
-        <v>675</v>
-      </c>
-      <c r="H223" t="s">
-        <v>671</v>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>2</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
       </c>
       <c r="J223" t="s">
         <v>55</v>
@@ -9195,17 +9168,17 @@
       <c r="D224" t="s">
         <v>500</v>
       </c>
-      <c r="E224" t="s">
-        <v>677</v>
-      </c>
-      <c r="F224" t="s">
-        <v>675</v>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>2</v>
       </c>
       <c r="G224" t="s">
         <v>501</v>
       </c>
-      <c r="H224" t="s">
-        <v>672</v>
+      <c r="H224">
+        <v>2</v>
       </c>
       <c r="J224" t="s">
         <v>55</v>
@@ -9230,14 +9203,14 @@
       <c r="D225" t="s">
         <v>538</v>
       </c>
-      <c r="E225" t="s">
-        <v>677</v>
-      </c>
-      <c r="F225" t="s">
-        <v>675</v>
-      </c>
-      <c r="H225" t="s">
-        <v>672</v>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>2</v>
+      </c>
+      <c r="H225">
+        <v>2</v>
       </c>
       <c r="J225" t="s">
         <v>55</v>
@@ -9262,14 +9235,14 @@
       <c r="D226" t="s">
         <v>550</v>
       </c>
-      <c r="E226" t="s">
-        <v>677</v>
-      </c>
-      <c r="F226" t="s">
-        <v>675</v>
-      </c>
-      <c r="H226" t="s">
-        <v>672</v>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>2</v>
+      </c>
+      <c r="H226">
+        <v>2</v>
       </c>
       <c r="J226" t="s">
         <v>55</v>
@@ -9294,14 +9267,14 @@
       <c r="D227" t="s">
         <v>575</v>
       </c>
-      <c r="E227" t="s">
-        <v>678</v>
-      </c>
-      <c r="F227" t="s">
-        <v>675</v>
-      </c>
-      <c r="H227" t="s">
-        <v>671</v>
+      <c r="E227">
+        <v>2</v>
+      </c>
+      <c r="F227">
+        <v>2</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
       </c>
       <c r="J227" t="s">
         <v>55</v>
@@ -9326,14 +9299,14 @@
       <c r="D228" t="s">
         <v>580</v>
       </c>
-      <c r="E228" t="s">
-        <v>678</v>
-      </c>
-      <c r="F228" t="s">
-        <v>675</v>
-      </c>
-      <c r="H228" t="s">
-        <v>671</v>
+      <c r="E228">
+        <v>2</v>
+      </c>
+      <c r="F228">
+        <v>2</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
       </c>
       <c r="J228" t="s">
         <v>55</v>
@@ -9358,14 +9331,14 @@
       <c r="D229" t="s">
         <v>583</v>
       </c>
-      <c r="E229" t="s">
-        <v>677</v>
-      </c>
-      <c r="F229" t="s">
-        <v>675</v>
-      </c>
-      <c r="H229" t="s">
-        <v>671</v>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>2</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
       </c>
       <c r="J229" t="s">
         <v>55</v>
@@ -9390,14 +9363,14 @@
       <c r="D230" t="s">
         <v>587</v>
       </c>
-      <c r="E230" t="s">
-        <v>678</v>
-      </c>
-      <c r="F230" t="s">
-        <v>674</v>
-      </c>
-      <c r="H230" t="s">
-        <v>671</v>
+      <c r="E230">
+        <v>2</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
       </c>
       <c r="J230" t="s">
         <v>55</v>
@@ -9422,14 +9395,14 @@
       <c r="D231" t="s">
         <v>592</v>
       </c>
-      <c r="E231" t="s">
-        <v>678</v>
-      </c>
-      <c r="F231" t="s">
-        <v>675</v>
-      </c>
-      <c r="H231" t="s">
-        <v>672</v>
+      <c r="E231">
+        <v>2</v>
+      </c>
+      <c r="F231">
+        <v>2</v>
+      </c>
+      <c r="H231">
+        <v>2</v>
       </c>
       <c r="J231" t="s">
         <v>55</v>
@@ -9454,14 +9427,14 @@
       <c r="D232" t="s">
         <v>594</v>
       </c>
-      <c r="E232" t="s">
-        <v>677</v>
-      </c>
-      <c r="F232" t="s">
-        <v>674</v>
-      </c>
-      <c r="H232" t="s">
-        <v>672</v>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>2</v>
       </c>
       <c r="J232" t="s">
         <v>55</v>
@@ -9486,17 +9459,17 @@
       <c r="D233" t="s">
         <v>598</v>
       </c>
-      <c r="E233" t="s">
-        <v>678</v>
-      </c>
-      <c r="F233" t="s">
-        <v>675</v>
-      </c>
-      <c r="H233" t="s">
-        <v>671</v>
-      </c>
-      <c r="I233" t="s">
-        <v>672</v>
+      <c r="E233">
+        <v>2</v>
+      </c>
+      <c r="F233">
+        <v>2</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>2</v>
       </c>
       <c r="J233" t="s">
         <v>55</v>
@@ -9521,14 +9494,14 @@
       <c r="D234" t="s">
         <v>600</v>
       </c>
-      <c r="E234" t="s">
-        <v>677</v>
-      </c>
-      <c r="F234" t="s">
-        <v>675</v>
-      </c>
-      <c r="H234" t="s">
-        <v>671</v>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234">
+        <v>2</v>
+      </c>
+      <c r="H234">
+        <v>1</v>
       </c>
       <c r="J234" t="s">
         <v>55</v>
@@ -9553,14 +9526,14 @@
       <c r="D235" t="s">
         <v>613</v>
       </c>
-      <c r="E235" t="s">
-        <v>677</v>
-      </c>
-      <c r="F235" t="s">
-        <v>675</v>
-      </c>
-      <c r="H235" t="s">
-        <v>672</v>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>2</v>
+      </c>
+      <c r="H235">
+        <v>2</v>
       </c>
       <c r="J235" t="s">
         <v>55</v>
@@ -9585,14 +9558,14 @@
       <c r="D236" t="s">
         <v>620</v>
       </c>
-      <c r="E236" t="s">
-        <v>677</v>
-      </c>
-      <c r="F236" t="s">
-        <v>675</v>
-      </c>
-      <c r="H236" t="s">
-        <v>672</v>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>2</v>
+      </c>
+      <c r="H236">
+        <v>2</v>
       </c>
       <c r="J236" t="s">
         <v>55</v>
@@ -9617,14 +9590,14 @@
       <c r="D237" t="s">
         <v>624</v>
       </c>
-      <c r="E237" t="s">
-        <v>677</v>
-      </c>
-      <c r="F237" t="s">
-        <v>675</v>
-      </c>
-      <c r="H237" t="s">
-        <v>672</v>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>2</v>
+      </c>
+      <c r="H237">
+        <v>2</v>
       </c>
       <c r="J237" t="s">
         <v>55</v>
@@ -9649,14 +9622,14 @@
       <c r="D238" t="s">
         <v>626</v>
       </c>
-      <c r="E238" t="s">
-        <v>677</v>
-      </c>
-      <c r="F238" t="s">
-        <v>675</v>
-      </c>
-      <c r="H238" t="s">
-        <v>672</v>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>2</v>
+      </c>
+      <c r="H238">
+        <v>2</v>
       </c>
       <c r="J238" t="s">
         <v>55</v>
@@ -9681,14 +9654,14 @@
       <c r="D239" t="s">
         <v>628</v>
       </c>
-      <c r="E239" t="s">
-        <v>677</v>
-      </c>
-      <c r="F239" t="s">
-        <v>675</v>
-      </c>
-      <c r="H239" t="s">
-        <v>672</v>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>2</v>
+      </c>
+      <c r="H239">
+        <v>2</v>
       </c>
       <c r="J239" t="s">
         <v>55</v>
@@ -9713,17 +9686,17 @@
       <c r="D240" t="s">
         <v>630</v>
       </c>
-      <c r="E240" t="s">
-        <v>677</v>
-      </c>
-      <c r="F240" t="s">
-        <v>675</v>
-      </c>
-      <c r="H240" t="s">
-        <v>672</v>
-      </c>
-      <c r="I240" t="s">
-        <v>672</v>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>2</v>
+      </c>
+      <c r="H240">
+        <v>2</v>
+      </c>
+      <c r="I240">
+        <v>2</v>
       </c>
       <c r="J240" t="s">
         <v>55</v>
@@ -9748,14 +9721,14 @@
       <c r="D241" t="s">
         <v>632</v>
       </c>
-      <c r="E241" t="s">
-        <v>678</v>
-      </c>
-      <c r="F241" t="s">
-        <v>675</v>
-      </c>
-      <c r="H241" t="s">
-        <v>672</v>
+      <c r="E241">
+        <v>2</v>
+      </c>
+      <c r="F241">
+        <v>2</v>
+      </c>
+      <c r="H241">
+        <v>2</v>
       </c>
       <c r="J241" t="s">
         <v>55</v>
@@ -9780,14 +9753,14 @@
       <c r="D242" t="s">
         <v>634</v>
       </c>
-      <c r="E242" t="s">
-        <v>677</v>
-      </c>
-      <c r="F242" t="s">
-        <v>675</v>
-      </c>
-      <c r="H242" t="s">
-        <v>672</v>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>2</v>
+      </c>
+      <c r="H242">
+        <v>2</v>
       </c>
       <c r="J242" t="s">
         <v>55</v>
@@ -9812,14 +9785,14 @@
       <c r="D243" t="s">
         <v>636</v>
       </c>
-      <c r="E243" t="s">
-        <v>677</v>
-      </c>
-      <c r="F243" t="s">
-        <v>675</v>
-      </c>
-      <c r="H243" t="s">
-        <v>672</v>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>2</v>
+      </c>
+      <c r="H243">
+        <v>2</v>
       </c>
       <c r="J243" t="s">
         <v>55</v>
@@ -9844,14 +9817,14 @@
       <c r="D244" t="s">
         <v>406</v>
       </c>
-      <c r="E244" t="s">
-        <v>677</v>
-      </c>
-      <c r="F244" t="s">
-        <v>675</v>
-      </c>
-      <c r="H244" t="s">
-        <v>672</v>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>2</v>
+      </c>
+      <c r="H244">
+        <v>2</v>
       </c>
       <c r="J244" t="s">
         <v>55</v>
@@ -9876,14 +9849,14 @@
       <c r="D245" t="s">
         <v>642</v>
       </c>
-      <c r="E245" t="s">
-        <v>677</v>
-      </c>
-      <c r="F245" t="s">
-        <v>675</v>
-      </c>
-      <c r="H245" t="s">
-        <v>672</v>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>2</v>
+      </c>
+      <c r="H245">
+        <v>2</v>
       </c>
       <c r="J245" t="s">
         <v>55</v>
@@ -9908,14 +9881,14 @@
       <c r="D246" t="s">
         <v>644</v>
       </c>
-      <c r="E246" t="s">
-        <v>677</v>
-      </c>
-      <c r="F246" t="s">
-        <v>675</v>
-      </c>
-      <c r="H246" t="s">
-        <v>672</v>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>2</v>
+      </c>
+      <c r="H246">
+        <v>2</v>
       </c>
       <c r="J246" t="s">
         <v>55</v>
@@ -9940,14 +9913,14 @@
       <c r="D247" t="s">
         <v>646</v>
       </c>
-      <c r="E247" t="s">
-        <v>678</v>
-      </c>
-      <c r="F247" t="s">
-        <v>675</v>
-      </c>
-      <c r="H247" t="s">
-        <v>672</v>
+      <c r="E247">
+        <v>2</v>
+      </c>
+      <c r="F247">
+        <v>2</v>
+      </c>
+      <c r="H247">
+        <v>2</v>
       </c>
       <c r="J247" t="s">
         <v>55</v>
@@ -9972,14 +9945,14 @@
       <c r="D248" t="s">
         <v>653</v>
       </c>
-      <c r="E248" t="s">
-        <v>677</v>
-      </c>
-      <c r="F248" t="s">
-        <v>675</v>
-      </c>
-      <c r="H248" t="s">
-        <v>672</v>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>2</v>
+      </c>
+      <c r="H248">
+        <v>2</v>
       </c>
       <c r="J248" t="s">
         <v>55</v>
@@ -10004,14 +9977,14 @@
       <c r="D249" t="s">
         <v>655</v>
       </c>
-      <c r="E249" t="s">
-        <v>677</v>
-      </c>
-      <c r="F249" t="s">
-        <v>675</v>
-      </c>
-      <c r="H249" t="s">
-        <v>672</v>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>2</v>
+      </c>
+      <c r="H249">
+        <v>2</v>
       </c>
       <c r="J249" t="s">
         <v>55</v>
@@ -10036,14 +10009,14 @@
       <c r="D250" t="s">
         <v>602</v>
       </c>
-      <c r="E250" t="s">
-        <v>677</v>
-      </c>
-      <c r="F250" t="s">
-        <v>675</v>
-      </c>
-      <c r="H250" t="s">
-        <v>672</v>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>2</v>
+      </c>
+      <c r="H250">
+        <v>2</v>
       </c>
       <c r="J250" t="s">
         <v>603</v>
@@ -10068,20 +10041,20 @@
       <c r="D251" t="s">
         <v>6</v>
       </c>
-      <c r="E251" t="s">
-        <v>677</v>
-      </c>
-      <c r="F251" t="s">
-        <v>674</v>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
       </c>
       <c r="G251" t="s">
         <v>7</v>
       </c>
-      <c r="H251" t="s">
-        <v>671</v>
-      </c>
-      <c r="I251" t="s">
-        <v>671</v>
+      <c r="H251">
+        <v>1</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
       </c>
       <c r="J251" t="s">
         <v>8</v>
@@ -10106,17 +10079,17 @@
       <c r="D252" t="s">
         <v>10</v>
       </c>
-      <c r="E252" t="s">
-        <v>677</v>
-      </c>
-      <c r="F252" t="s">
-        <v>675</v>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>2</v>
       </c>
       <c r="G252" t="s">
         <v>11</v>
       </c>
-      <c r="H252" t="s">
-        <v>672</v>
+      <c r="H252">
+        <v>2</v>
       </c>
       <c r="J252" t="s">
         <v>8</v>
@@ -10141,17 +10114,17 @@
       <c r="D253" t="s">
         <v>39</v>
       </c>
-      <c r="E253" t="s">
-        <v>677</v>
-      </c>
-      <c r="F253" t="s">
-        <v>674</v>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
       </c>
       <c r="G253" t="s">
         <v>40</v>
       </c>
-      <c r="H253" t="s">
-        <v>671</v>
+      <c r="H253">
+        <v>1</v>
       </c>
       <c r="J253" t="s">
         <v>8</v>
@@ -10176,14 +10149,14 @@
       <c r="D254" t="s">
         <v>46</v>
       </c>
-      <c r="E254" t="s">
-        <v>677</v>
-      </c>
-      <c r="F254" t="s">
-        <v>674</v>
-      </c>
-      <c r="H254" t="s">
-        <v>671</v>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="H254">
+        <v>1</v>
       </c>
       <c r="J254" t="s">
         <v>8</v>
@@ -10205,17 +10178,17 @@
       <c r="D255" t="s">
         <v>106</v>
       </c>
-      <c r="E255" t="s">
-        <v>677</v>
-      </c>
-      <c r="F255" t="s">
-        <v>674</v>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
       </c>
       <c r="G255" t="s">
         <v>107</v>
       </c>
-      <c r="H255" t="s">
-        <v>671</v>
+      <c r="H255">
+        <v>1</v>
       </c>
       <c r="J255" t="s">
         <v>8</v>
@@ -10237,14 +10210,14 @@
       <c r="D256" t="s">
         <v>121</v>
       </c>
-      <c r="E256" t="s">
-        <v>677</v>
-      </c>
-      <c r="F256" t="s">
-        <v>674</v>
-      </c>
-      <c r="H256" t="s">
-        <v>671</v>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="H256">
+        <v>1</v>
       </c>
       <c r="J256" t="s">
         <v>8</v>
@@ -10266,17 +10239,17 @@
       <c r="D257" t="s">
         <v>149</v>
       </c>
-      <c r="E257" t="s">
-        <v>677</v>
-      </c>
-      <c r="F257" t="s">
-        <v>675</v>
-      </c>
-      <c r="H257" t="s">
-        <v>671</v>
-      </c>
-      <c r="I257" t="s">
-        <v>671</v>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>2</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
       </c>
       <c r="J257" t="s">
         <v>8</v>
@@ -10298,14 +10271,14 @@
       <c r="D258" t="s">
         <v>152</v>
       </c>
-      <c r="E258" t="s">
-        <v>677</v>
-      </c>
-      <c r="F258" t="s">
-        <v>675</v>
-      </c>
-      <c r="H258" t="s">
-        <v>672</v>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>2</v>
+      </c>
+      <c r="H258">
+        <v>2</v>
       </c>
       <c r="J258" t="s">
         <v>8</v>
@@ -10327,17 +10300,17 @@
       <c r="D259" t="s">
         <v>168</v>
       </c>
-      <c r="E259" t="s">
-        <v>677</v>
-      </c>
-      <c r="F259" t="s">
-        <v>674</v>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
       </c>
       <c r="G259" t="s">
         <v>169</v>
       </c>
-      <c r="H259" t="s">
-        <v>671</v>
+      <c r="H259">
+        <v>1</v>
       </c>
       <c r="J259" t="s">
         <v>8</v>
@@ -10359,14 +10332,14 @@
       <c r="D260" t="s">
         <v>187</v>
       </c>
-      <c r="E260" t="s">
-        <v>677</v>
-      </c>
-      <c r="F260" t="s">
-        <v>674</v>
-      </c>
-      <c r="H260" t="s">
-        <v>671</v>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
+      <c r="H260">
+        <v>1</v>
       </c>
       <c r="J260" t="s">
         <v>8</v>
@@ -10388,14 +10361,14 @@
       <c r="D261" t="s">
         <v>364</v>
       </c>
-      <c r="E261" t="s">
-        <v>677</v>
-      </c>
-      <c r="F261" t="s">
-        <v>675</v>
-      </c>
-      <c r="H261" t="s">
-        <v>672</v>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>2</v>
+      </c>
+      <c r="H261">
+        <v>2</v>
       </c>
       <c r="J261" t="s">
         <v>8</v>
@@ -10417,14 +10390,14 @@
       <c r="D262" t="s">
         <v>421</v>
       </c>
-      <c r="E262" t="s">
-        <v>677</v>
-      </c>
-      <c r="F262" t="s">
-        <v>675</v>
-      </c>
-      <c r="H262" t="s">
-        <v>671</v>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>2</v>
+      </c>
+      <c r="H262">
+        <v>1</v>
       </c>
       <c r="J262" t="s">
         <v>8</v>
@@ -10446,17 +10419,17 @@
       <c r="D263" t="s">
         <v>423</v>
       </c>
-      <c r="E263" t="s">
-        <v>677</v>
-      </c>
-      <c r="F263" t="s">
-        <v>675</v>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263">
+        <v>2</v>
       </c>
       <c r="G263" t="s">
         <v>424</v>
       </c>
-      <c r="H263" t="s">
-        <v>671</v>
+      <c r="H263">
+        <v>1</v>
       </c>
       <c r="J263" t="s">
         <v>8</v>
@@ -10478,17 +10451,17 @@
       <c r="D264" t="s">
         <v>429</v>
       </c>
-      <c r="E264" t="s">
-        <v>677</v>
-      </c>
-      <c r="F264" t="s">
-        <v>675</v>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264">
+        <v>2</v>
       </c>
       <c r="G264" t="s">
         <v>430</v>
       </c>
-      <c r="H264" t="s">
-        <v>672</v>
+      <c r="H264">
+        <v>2</v>
       </c>
       <c r="J264" t="s">
         <v>8</v>
@@ -10510,17 +10483,17 @@
       <c r="D265" t="s">
         <v>465</v>
       </c>
-      <c r="E265" t="s">
-        <v>677</v>
-      </c>
-      <c r="F265" t="s">
-        <v>675</v>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265">
+        <v>2</v>
       </c>
       <c r="G265" t="s">
         <v>466</v>
       </c>
-      <c r="H265" t="s">
-        <v>671</v>
+      <c r="H265">
+        <v>1</v>
       </c>
       <c r="J265" t="s">
         <v>8</v>
@@ -10545,17 +10518,17 @@
       <c r="D266" t="s">
         <v>503</v>
       </c>
-      <c r="E266" t="s">
-        <v>677</v>
-      </c>
-      <c r="F266" t="s">
-        <v>675</v>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266">
+        <v>2</v>
       </c>
       <c r="G266" t="s">
         <v>504</v>
       </c>
-      <c r="H266" t="s">
-        <v>671</v>
+      <c r="H266">
+        <v>1</v>
       </c>
       <c r="J266" t="s">
         <v>8</v>
@@ -10580,14 +10553,14 @@
       <c r="D267" t="s">
         <v>520</v>
       </c>
-      <c r="E267" t="s">
-        <v>678</v>
-      </c>
-      <c r="F267" t="s">
-        <v>675</v>
-      </c>
-      <c r="H267" t="s">
-        <v>671</v>
+      <c r="E267">
+        <v>2</v>
+      </c>
+      <c r="F267">
+        <v>2</v>
+      </c>
+      <c r="H267">
+        <v>1</v>
       </c>
       <c r="J267" t="s">
         <v>8</v>
@@ -10612,17 +10585,17 @@
       <c r="D268" t="s">
         <v>523</v>
       </c>
-      <c r="E268" t="s">
-        <v>677</v>
-      </c>
-      <c r="F268" t="s">
-        <v>675</v>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268">
+        <v>2</v>
       </c>
       <c r="G268" t="s">
         <v>524</v>
       </c>
-      <c r="H268" t="s">
-        <v>672</v>
+      <c r="H268">
+        <v>2</v>
       </c>
       <c r="J268" t="s">
         <v>8</v>
@@ -10647,17 +10620,17 @@
       <c r="D269" t="s">
         <v>529</v>
       </c>
-      <c r="E269" t="s">
-        <v>677</v>
-      </c>
-      <c r="F269" t="s">
-        <v>675</v>
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269">
+        <v>2</v>
       </c>
       <c r="G269" t="s">
         <v>530</v>
       </c>
-      <c r="H269" t="s">
-        <v>671</v>
+      <c r="H269">
+        <v>1</v>
       </c>
       <c r="J269" t="s">
         <v>8</v>
@@ -10682,17 +10655,17 @@
       <c r="D270" t="s">
         <v>547</v>
       </c>
-      <c r="E270" t="s">
-        <v>677</v>
-      </c>
-      <c r="F270" t="s">
-        <v>675</v>
+      <c r="E270">
+        <v>1</v>
+      </c>
+      <c r="F270">
+        <v>2</v>
       </c>
       <c r="G270" t="s">
         <v>548</v>
       </c>
-      <c r="H270" t="s">
-        <v>672</v>
+      <c r="H270">
+        <v>2</v>
       </c>
       <c r="J270" t="s">
         <v>8</v>
@@ -10717,14 +10690,14 @@
       <c r="D271" t="s">
         <v>566</v>
       </c>
-      <c r="E271" t="s">
-        <v>677</v>
-      </c>
-      <c r="F271" t="s">
-        <v>675</v>
-      </c>
-      <c r="H271" t="s">
-        <v>672</v>
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271">
+        <v>2</v>
+      </c>
+      <c r="H271">
+        <v>2</v>
       </c>
       <c r="J271" t="s">
         <v>8</v>
@@ -10749,17 +10722,17 @@
       <c r="D272" t="s">
         <v>571</v>
       </c>
-      <c r="E272" t="s">
-        <v>677</v>
-      </c>
-      <c r="F272" t="s">
-        <v>675</v>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272">
+        <v>2</v>
       </c>
       <c r="G272" t="s">
         <v>572</v>
       </c>
-      <c r="H272" t="s">
-        <v>671</v>
+      <c r="H272">
+        <v>1</v>
       </c>
       <c r="J272" t="s">
         <v>8</v>
@@ -10784,14 +10757,14 @@
       <c r="D273" t="s">
         <v>585</v>
       </c>
-      <c r="E273" t="s">
-        <v>677</v>
-      </c>
-      <c r="F273" t="s">
-        <v>675</v>
-      </c>
-      <c r="H273" t="s">
-        <v>672</v>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <v>2</v>
+      </c>
+      <c r="H273">
+        <v>2</v>
       </c>
       <c r="J273" t="s">
         <v>8</v>
@@ -10816,14 +10789,14 @@
       <c r="D274" t="s">
         <v>607</v>
       </c>
-      <c r="E274" t="s">
-        <v>677</v>
-      </c>
-      <c r="F274" t="s">
-        <v>675</v>
-      </c>
-      <c r="H274" t="s">
-        <v>672</v>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>2</v>
+      </c>
+      <c r="H274">
+        <v>2</v>
       </c>
       <c r="J274" t="s">
         <v>8</v>
@@ -10848,14 +10821,14 @@
       <c r="D275" t="s">
         <v>609</v>
       </c>
-      <c r="E275" t="s">
-        <v>677</v>
-      </c>
-      <c r="F275" t="s">
-        <v>675</v>
-      </c>
-      <c r="H275" t="s">
-        <v>672</v>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>2</v>
+      </c>
+      <c r="H275">
+        <v>2</v>
       </c>
       <c r="J275" t="s">
         <v>8</v>
@@ -10880,14 +10853,14 @@
       <c r="D276" t="s">
         <v>638</v>
       </c>
-      <c r="E276" t="s">
-        <v>677</v>
-      </c>
-      <c r="F276" t="s">
-        <v>675</v>
-      </c>
-      <c r="H276" t="s">
-        <v>672</v>
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276">
+        <v>2</v>
+      </c>
+      <c r="H276">
+        <v>2</v>
       </c>
       <c r="J276" t="s">
         <v>8</v>
@@ -10912,14 +10885,14 @@
       <c r="D277" t="s">
         <v>544</v>
       </c>
-      <c r="E277" t="s">
-        <v>677</v>
-      </c>
-      <c r="F277" t="s">
-        <v>675</v>
-      </c>
-      <c r="H277" t="s">
-        <v>671</v>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>2</v>
+      </c>
+      <c r="H277">
+        <v>1</v>
       </c>
       <c r="J277" t="s">
         <v>545</v>
@@ -10944,17 +10917,17 @@
       <c r="D278" t="s">
         <v>2</v>
       </c>
-      <c r="E278" t="s">
-        <v>678</v>
-      </c>
-      <c r="F278" t="s">
-        <v>675</v>
+      <c r="E278">
+        <v>2</v>
+      </c>
+      <c r="F278">
+        <v>2</v>
       </c>
       <c r="G278" t="s">
         <v>3</v>
       </c>
-      <c r="H278" t="s">
-        <v>672</v>
+      <c r="H278">
+        <v>2</v>
       </c>
       <c r="J278" t="s">
         <v>4</v>
@@ -10979,14 +10952,14 @@
       <c r="D279" t="s">
         <v>611</v>
       </c>
-      <c r="E279" t="s">
-        <v>677</v>
-      </c>
-      <c r="F279" t="s">
-        <v>675</v>
-      </c>
-      <c r="H279" t="s">
-        <v>672</v>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279">
+        <v>2</v>
+      </c>
+      <c r="H279">
+        <v>2</v>
       </c>
       <c r="J279" t="s">
         <v>4</v>
@@ -11011,14 +10984,14 @@
       <c r="D280" t="s">
         <v>656</v>
       </c>
-      <c r="E280" t="s">
-        <v>677</v>
-      </c>
-      <c r="F280" t="s">
-        <v>675</v>
-      </c>
-      <c r="H280" t="s">
-        <v>672</v>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>2</v>
+      </c>
+      <c r="H280">
+        <v>2</v>
       </c>
       <c r="J280" t="s">
         <v>4</v>
@@ -11043,14 +11016,14 @@
       <c r="D281" t="s">
         <v>18</v>
       </c>
-      <c r="E281" t="s">
-        <v>677</v>
-      </c>
-      <c r="F281" t="s">
-        <v>674</v>
-      </c>
-      <c r="H281" t="s">
-        <v>671</v>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
       </c>
       <c r="J281" t="s">
         <v>19</v>
@@ -11075,14 +11048,14 @@
       <c r="D282" t="s">
         <v>78</v>
       </c>
-      <c r="E282" t="s">
-        <v>677</v>
-      </c>
-      <c r="F282" t="s">
-        <v>674</v>
-      </c>
-      <c r="H282" t="s">
-        <v>671</v>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
       </c>
       <c r="J282" t="s">
         <v>19</v>
@@ -11104,14 +11077,14 @@
       <c r="D283" t="s">
         <v>87</v>
       </c>
-      <c r="E283" t="s">
-        <v>677</v>
-      </c>
-      <c r="F283" t="s">
-        <v>675</v>
-      </c>
-      <c r="H283" t="s">
-        <v>672</v>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283">
+        <v>2</v>
+      </c>
+      <c r="H283">
+        <v>2</v>
       </c>
       <c r="J283" t="s">
         <v>19</v>
@@ -11133,17 +11106,17 @@
       <c r="D284" t="s">
         <v>114</v>
       </c>
-      <c r="E284" t="s">
-        <v>677</v>
-      </c>
-      <c r="F284" t="s">
-        <v>674</v>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
       </c>
       <c r="G284" t="s">
         <v>115</v>
       </c>
-      <c r="H284" t="s">
-        <v>671</v>
+      <c r="H284">
+        <v>1</v>
       </c>
       <c r="J284" t="s">
         <v>19</v>
@@ -11165,14 +11138,14 @@
       <c r="D285" t="s">
         <v>134</v>
       </c>
-      <c r="E285" t="s">
-        <v>677</v>
-      </c>
-      <c r="F285" t="s">
-        <v>674</v>
-      </c>
-      <c r="H285" t="s">
-        <v>671</v>
+      <c r="E285">
+        <v>1</v>
+      </c>
+      <c r="F285">
+        <v>1</v>
+      </c>
+      <c r="H285">
+        <v>1</v>
       </c>
       <c r="J285" t="s">
         <v>19</v>
@@ -11194,14 +11167,14 @@
       <c r="D286" t="s">
         <v>145</v>
       </c>
-      <c r="E286" t="s">
-        <v>678</v>
-      </c>
-      <c r="F286" t="s">
-        <v>675</v>
-      </c>
-      <c r="H286" t="s">
-        <v>672</v>
+      <c r="E286">
+        <v>2</v>
+      </c>
+      <c r="F286">
+        <v>2</v>
+      </c>
+      <c r="H286">
+        <v>2</v>
       </c>
       <c r="J286" t="s">
         <v>19</v>
@@ -11223,14 +11196,14 @@
       <c r="D287" t="s">
         <v>164</v>
       </c>
-      <c r="E287" t="s">
-        <v>677</v>
-      </c>
-      <c r="F287" t="s">
-        <v>675</v>
-      </c>
-      <c r="H287" t="s">
-        <v>672</v>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287">
+        <v>2</v>
+      </c>
+      <c r="H287">
+        <v>2</v>
       </c>
       <c r="J287" t="s">
         <v>19</v>
@@ -11252,14 +11225,14 @@
       <c r="D288" t="s">
         <v>229</v>
       </c>
-      <c r="E288" t="s">
-        <v>677</v>
-      </c>
-      <c r="F288" t="s">
-        <v>675</v>
-      </c>
-      <c r="H288" t="s">
-        <v>671</v>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>2</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
       </c>
       <c r="J288" t="s">
         <v>19</v>
@@ -11281,14 +11254,14 @@
       <c r="D289" t="s">
         <v>231</v>
       </c>
-      <c r="E289" t="s">
-        <v>677</v>
-      </c>
-      <c r="F289" t="s">
-        <v>675</v>
-      </c>
-      <c r="H289" t="s">
-        <v>672</v>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289">
+        <v>2</v>
+      </c>
+      <c r="H289">
+        <v>2</v>
       </c>
       <c r="J289" t="s">
         <v>19</v>
@@ -11310,17 +11283,17 @@
       <c r="D290" t="s">
         <v>380</v>
       </c>
-      <c r="E290" t="s">
-        <v>677</v>
-      </c>
-      <c r="F290" t="s">
-        <v>674</v>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
       </c>
       <c r="G290" t="s">
         <v>381</v>
       </c>
-      <c r="H290" t="s">
-        <v>671</v>
+      <c r="H290">
+        <v>1</v>
       </c>
       <c r="J290" t="s">
         <v>19</v>
@@ -11342,17 +11315,17 @@
       <c r="D291" t="s">
         <v>513</v>
       </c>
-      <c r="E291" t="s">
-        <v>677</v>
-      </c>
-      <c r="F291" t="s">
-        <v>675</v>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>2</v>
       </c>
       <c r="G291" t="s">
         <v>115</v>
       </c>
-      <c r="H291" t="s">
-        <v>671</v>
+      <c r="H291">
+        <v>1</v>
       </c>
       <c r="J291" t="s">
         <v>19</v>
@@ -11377,14 +11350,14 @@
       <c r="D292" t="s">
         <v>515</v>
       </c>
-      <c r="E292" t="s">
-        <v>677</v>
-      </c>
-      <c r="F292" t="s">
-        <v>674</v>
-      </c>
-      <c r="H292" t="s">
-        <v>671</v>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="H292">
+        <v>1</v>
       </c>
       <c r="J292" t="s">
         <v>19</v>
@@ -11412,14 +11385,14 @@
       <c r="D293" t="s">
         <v>541</v>
       </c>
-      <c r="E293" t="s">
-        <v>677</v>
-      </c>
-      <c r="F293" t="s">
-        <v>675</v>
-      </c>
-      <c r="H293" t="s">
-        <v>671</v>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>2</v>
+      </c>
+      <c r="H293">
+        <v>1</v>
       </c>
       <c r="J293" t="s">
         <v>19</v>
@@ -11444,14 +11417,14 @@
       <c r="D294" t="s">
         <v>577</v>
       </c>
-      <c r="E294" t="s">
-        <v>677</v>
-      </c>
-      <c r="F294" t="s">
-        <v>675</v>
-      </c>
-      <c r="H294" t="s">
-        <v>672</v>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294">
+        <v>2</v>
+      </c>
+      <c r="H294">
+        <v>2</v>
       </c>
       <c r="J294" t="s">
         <v>19</v>
@@ -11476,14 +11449,14 @@
       <c r="D295" t="s">
         <v>589</v>
       </c>
-      <c r="E295" t="s">
-        <v>677</v>
-      </c>
-      <c r="F295" t="s">
-        <v>675</v>
-      </c>
-      <c r="H295" t="s">
-        <v>672</v>
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="F295">
+        <v>2</v>
+      </c>
+      <c r="H295">
+        <v>2</v>
       </c>
       <c r="J295" t="s">
         <v>19</v>
@@ -11508,14 +11481,14 @@
       <c r="D296" t="s">
         <v>615</v>
       </c>
-      <c r="E296" t="s">
-        <v>677</v>
-      </c>
-      <c r="F296" t="s">
-        <v>675</v>
-      </c>
-      <c r="H296" t="s">
-        <v>672</v>
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="F296">
+        <v>2</v>
+      </c>
+      <c r="H296">
+        <v>2</v>
       </c>
       <c r="J296" t="s">
         <v>19</v>
@@ -11540,14 +11513,14 @@
       <c r="D297" t="s">
         <v>622</v>
       </c>
-      <c r="E297" t="s">
-        <v>677</v>
-      </c>
-      <c r="F297" t="s">
-        <v>675</v>
-      </c>
-      <c r="H297" t="s">
-        <v>672</v>
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297">
+        <v>2</v>
+      </c>
+      <c r="H297">
+        <v>2</v>
       </c>
       <c r="J297" t="s">
         <v>19</v>
@@ -11572,14 +11545,14 @@
       <c r="D298" t="s">
         <v>622</v>
       </c>
-      <c r="E298" t="s">
-        <v>677</v>
-      </c>
-      <c r="F298" t="s">
-        <v>674</v>
-      </c>
-      <c r="H298" t="s">
-        <v>672</v>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298">
+        <v>1</v>
+      </c>
+      <c r="H298">
+        <v>2</v>
       </c>
       <c r="J298" t="s">
         <v>19</v>
@@ -11604,14 +11577,14 @@
       <c r="D299" t="s">
         <v>200</v>
       </c>
-      <c r="E299" t="s">
-        <v>677</v>
-      </c>
-      <c r="F299" t="s">
-        <v>675</v>
-      </c>
-      <c r="H299" t="s">
-        <v>672</v>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299">
+        <v>2</v>
+      </c>
+      <c r="H299">
+        <v>2</v>
       </c>
       <c r="J299" t="s">
         <v>201</v>
@@ -11633,14 +11606,14 @@
       <c r="D300" t="s">
         <v>204</v>
       </c>
-      <c r="E300" t="s">
-        <v>678</v>
-      </c>
-      <c r="F300" t="s">
-        <v>674</v>
-      </c>
-      <c r="H300" t="s">
-        <v>671</v>
+      <c r="E300">
+        <v>2</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="H300">
+        <v>1</v>
       </c>
       <c r="J300" t="s">
         <v>201</v>
@@ -11662,17 +11635,17 @@
       <c r="D301" t="s">
         <v>207</v>
       </c>
-      <c r="E301" t="s">
-        <v>677</v>
-      </c>
-      <c r="F301" t="s">
-        <v>674</v>
+      <c r="E301">
+        <v>1</v>
+      </c>
+      <c r="F301">
+        <v>1</v>
       </c>
       <c r="G301" t="s">
         <v>208</v>
       </c>
-      <c r="H301" t="s">
-        <v>671</v>
+      <c r="H301">
+        <v>1</v>
       </c>
       <c r="J301" t="s">
         <v>201</v>
@@ -11694,17 +11667,17 @@
       <c r="D302" t="s">
         <v>415</v>
       </c>
-      <c r="E302" t="s">
-        <v>677</v>
-      </c>
-      <c r="F302" t="s">
-        <v>674</v>
-      </c>
-      <c r="H302" t="s">
-        <v>671</v>
-      </c>
-      <c r="I302" t="s">
-        <v>671</v>
+      <c r="E302">
+        <v>1</v>
+      </c>
+      <c r="F302">
+        <v>1</v>
+      </c>
+      <c r="H302">
+        <v>1</v>
+      </c>
+      <c r="I302">
+        <v>1</v>
       </c>
       <c r="J302" t="s">
         <v>201</v>
@@ -11726,14 +11699,14 @@
       <c r="D303" t="s">
         <v>426</v>
       </c>
-      <c r="E303" t="s">
-        <v>677</v>
-      </c>
-      <c r="F303" t="s">
-        <v>675</v>
-      </c>
-      <c r="H303" t="s">
-        <v>672</v>
+      <c r="E303">
+        <v>1</v>
+      </c>
+      <c r="F303">
+        <v>2</v>
+      </c>
+      <c r="H303">
+        <v>2</v>
       </c>
       <c r="J303" t="s">
         <v>201</v>
@@ -11755,17 +11728,17 @@
       <c r="D304" t="s">
         <v>14</v>
       </c>
-      <c r="E304" t="s">
-        <v>677</v>
-      </c>
-      <c r="F304" t="s">
-        <v>674</v>
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
       </c>
       <c r="G304" t="s">
         <v>15</v>
       </c>
-      <c r="H304" t="s">
-        <v>671</v>
+      <c r="H304">
+        <v>1</v>
       </c>
       <c r="J304" t="s">
         <v>16</v>
@@ -11790,14 +11763,14 @@
       <c r="D305" t="s">
         <v>24</v>
       </c>
-      <c r="E305" t="s">
-        <v>677</v>
-      </c>
-      <c r="F305" t="s">
-        <v>674</v>
-      </c>
-      <c r="H305" t="s">
-        <v>671</v>
+      <c r="E305">
+        <v>1</v>
+      </c>
+      <c r="F305">
+        <v>1</v>
+      </c>
+      <c r="H305">
+        <v>1</v>
       </c>
       <c r="J305" t="s">
         <v>16</v>
@@ -11822,14 +11795,14 @@
       <c r="D306" t="s">
         <v>27</v>
       </c>
-      <c r="E306" t="s">
-        <v>677</v>
-      </c>
-      <c r="F306" t="s">
-        <v>674</v>
-      </c>
-      <c r="H306" t="s">
-        <v>671</v>
+      <c r="E306">
+        <v>1</v>
+      </c>
+      <c r="F306">
+        <v>1</v>
+      </c>
+      <c r="H306">
+        <v>1</v>
       </c>
       <c r="J306" t="s">
         <v>16</v>
@@ -11854,20 +11827,20 @@
       <c r="D307" t="s">
         <v>197</v>
       </c>
-      <c r="E307" t="s">
-        <v>677</v>
-      </c>
-      <c r="F307" t="s">
-        <v>674</v>
+      <c r="E307">
+        <v>1</v>
+      </c>
+      <c r="F307">
+        <v>1</v>
       </c>
       <c r="G307" t="s">
         <v>198</v>
       </c>
-      <c r="H307" t="s">
-        <v>671</v>
-      </c>
-      <c r="I307" t="s">
-        <v>671</v>
+      <c r="H307">
+        <v>1</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
       </c>
       <c r="J307" t="s">
         <v>16</v>
@@ -11889,14 +11862,14 @@
       <c r="D308" t="s">
         <v>212</v>
       </c>
-      <c r="E308" t="s">
-        <v>677</v>
-      </c>
-      <c r="F308" t="s">
-        <v>675</v>
-      </c>
-      <c r="H308" t="s">
-        <v>672</v>
+      <c r="E308">
+        <v>1</v>
+      </c>
+      <c r="F308">
+        <v>2</v>
+      </c>
+      <c r="H308">
+        <v>2</v>
       </c>
       <c r="J308" t="s">
         <v>16</v>
@@ -11918,14 +11891,14 @@
       <c r="D309" t="s">
         <v>555</v>
       </c>
-      <c r="E309" t="s">
-        <v>677</v>
-      </c>
-      <c r="F309" t="s">
-        <v>675</v>
-      </c>
-      <c r="H309" t="s">
-        <v>672</v>
+      <c r="E309">
+        <v>1</v>
+      </c>
+      <c r="F309">
+        <v>2</v>
+      </c>
+      <c r="H309">
+        <v>2</v>
       </c>
       <c r="J309" t="s">
         <v>16</v>

--- a/Access_Data_Export/clients.xlsx
+++ b/Access_Data_Export/clients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claude\Litigation_Database_Ver2\Litigation_Database_Ver2\Access_Data_Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32A0952-A0EC-455D-A620-E01356934625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F164B705-E121-4706-8FB2-2DA1F18F4EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2017,18 +2017,6 @@
     <t>Hamada Kamal Ahmed (2)</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>cash_or_probono</t>
-  </si>
-  <si>
-    <t>power_of_attorney_location</t>
-  </si>
-  <si>
-    <t>documents_location</t>
-  </si>
-  <si>
     <t>contact_lawyer</t>
   </si>
   <si>
@@ -2048,6 +2036,18 @@
   </si>
   <si>
     <t>client_end</t>
+  </si>
+  <si>
+    <t>status_id</t>
+  </si>
+  <si>
+    <t>cash_or_probono_id</t>
+  </si>
+  <si>
+    <t>power_of_attorney_location_id</t>
+  </si>
+  <si>
+    <t>documents_location_id</t>
   </si>
 </sst>
 </file>
@@ -2122,11 +2122,11 @@
     <tableColumn id="2" xr3:uid="{CAE2ADCD-48CF-4EDF-8E9F-08E60057D81C}" name="client_name_en"/>
     <tableColumn id="3" xr3:uid="{0A07B822-AC5E-4702-8E32-C3E83C2C4476}" name="client_print_name"/>
     <tableColumn id="4" xr3:uid="{C7BA75FD-47C5-498D-8710-DD906D97334E}" name="client_name_ar"/>
-    <tableColumn id="5" xr3:uid="{365DB2B1-EABF-46A5-8156-35F2C05C6469}" name="cash_or_probono"/>
-    <tableColumn id="6" xr3:uid="{A3D98335-5976-434F-996D-F08F448AF643}" name="status"/>
+    <tableColumn id="5" xr3:uid="{365DB2B1-EABF-46A5-8156-35F2C05C6469}" name="cash_or_probono_id"/>
+    <tableColumn id="6" xr3:uid="{A3D98335-5976-434F-996D-F08F448AF643}" name="status_id"/>
     <tableColumn id="7" xr3:uid="{AD7FDB29-825C-4F7A-993A-BDC11D0CE0D5}" name="logo"/>
-    <tableColumn id="8" xr3:uid="{E0FBF4B6-3E9B-423D-B3B5-1A8E4C7D09F8}" name="power_of_attorney_location"/>
-    <tableColumn id="9" xr3:uid="{20F3D9A5-4509-4787-84F8-5428D6553654}" name="documents_location"/>
+    <tableColumn id="8" xr3:uid="{E0FBF4B6-3E9B-423D-B3B5-1A8E4C7D09F8}" name="power_of_attorney_location_id"/>
+    <tableColumn id="9" xr3:uid="{20F3D9A5-4509-4787-84F8-5428D6553654}" name="documents_location_id"/>
     <tableColumn id="10" xr3:uid="{FFBB3084-AC24-4F58-8EFD-2417F7F83D34}" name="contact_lawyer"/>
     <tableColumn id="14" xr3:uid="{BC354857-7A23-46C6-ADFA-0D81BC38781A}" name="lawyer_id"/>
     <tableColumn id="11" xr3:uid="{027BD1CA-7803-4AC0-A969-2F1DD8D63C41}" name="client_start" dataDxfId="0"/>
@@ -2426,7 +2426,7 @@
   <dimension ref="A1:M309"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I1" sqref="H1:I1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2447,43 +2447,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="F1" t="s">
         <v>667</v>
-      </c>
-      <c r="C1" t="s">
-        <v>668</v>
-      </c>
-      <c r="D1" t="s">
-        <v>666</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="F1" t="s">
-        <v>660</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="I1" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="J1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="K1" t="s">
         <v>657</v>
       </c>
       <c r="L1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
         <v>658</v>
@@ -2535,10 +2535,10 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
         <v>658</v>
@@ -2567,10 +2567,10 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J4" t="s">
         <v>658</v>
@@ -2596,10 +2596,10 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J5" t="s">
         <v>658</v>
@@ -2628,10 +2628,10 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J6" t="s">
         <v>658</v>
@@ -2660,10 +2660,10 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J7" t="s">
         <v>658</v>
@@ -2692,10 +2692,10 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J8" t="s">
         <v>658</v>
@@ -2724,10 +2724,10 @@
         <v>3</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J9" t="s">
         <v>658</v>
@@ -2753,10 +2753,10 @@
         <v>3</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J10" t="s">
         <v>658</v>
@@ -2782,10 +2782,10 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J11" t="s">
         <v>658</v>
@@ -2811,10 +2811,10 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J12" t="s">
         <v>658</v>
@@ -2840,10 +2840,10 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J13" t="s">
         <v>658</v>
@@ -2869,10 +2869,10 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J14" t="s">
         <v>658</v>
@@ -2898,10 +2898,10 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J15" t="s">
         <v>658</v>
@@ -2927,10 +2927,10 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J16" t="s">
         <v>658</v>
@@ -2956,10 +2956,10 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J17" t="s">
         <v>658</v>
@@ -2985,10 +2985,10 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
         <v>658</v>
@@ -3014,13 +3014,13 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J19" t="s">
         <v>658</v>
@@ -3046,10 +3046,10 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J20" t="s">
         <v>658</v>
@@ -3075,10 +3075,10 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J21" t="s">
         <v>658</v>
@@ -3104,10 +3104,10 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J22" t="s">
         <v>658</v>
@@ -3133,10 +3133,10 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J23" t="s">
         <v>658</v>
@@ -3162,10 +3162,10 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J24" t="s">
         <v>658</v>
@@ -3191,10 +3191,10 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J25" t="s">
         <v>658</v>
@@ -3220,10 +3220,10 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J26" t="s">
         <v>658</v>
@@ -3249,10 +3249,10 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J27" t="s">
         <v>658</v>
@@ -3278,10 +3278,10 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J28" t="s">
         <v>658</v>
@@ -3307,10 +3307,10 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J29" t="s">
         <v>658</v>
@@ -3336,10 +3336,10 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J30" t="s">
         <v>658</v>
@@ -3365,10 +3365,10 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J31" t="s">
         <v>658</v>
@@ -3394,10 +3394,10 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J32" t="s">
         <v>658</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G33" t="s">
         <v>118</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J33" t="s">
         <v>658</v>
@@ -3455,10 +3455,10 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J34" t="s">
         <v>658</v>
@@ -3484,10 +3484,10 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J35" t="s">
         <v>658</v>
@@ -3513,13 +3513,13 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G36" t="s">
         <v>125</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J36" t="s">
         <v>658</v>
@@ -3545,10 +3545,10 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J37" t="s">
         <v>658</v>
@@ -3574,10 +3574,10 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J38" t="s">
         <v>658</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J39" t="s">
         <v>658</v>
@@ -3632,10 +3632,10 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J40" t="s">
         <v>658</v>
@@ -3661,10 +3661,10 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J41" t="s">
         <v>658</v>
@@ -3690,10 +3690,10 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J42" t="s">
         <v>658</v>
@@ -3719,10 +3719,10 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J43" t="s">
         <v>658</v>
@@ -3748,10 +3748,10 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J44" t="s">
         <v>658</v>
@@ -3777,10 +3777,10 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J45" t="s">
         <v>658</v>
@@ -3806,10 +3806,10 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J46" t="s">
         <v>658</v>
@@ -3835,10 +3835,10 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J47" t="s">
         <v>658</v>
@@ -3864,10 +3864,10 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J48" t="s">
         <v>658</v>
@@ -3893,10 +3893,10 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J49" t="s">
         <v>658</v>
@@ -3922,10 +3922,10 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J50" t="s">
         <v>658</v>
@@ -3951,10 +3951,10 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J51" t="s">
         <v>658</v>
@@ -3980,10 +3980,10 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J52" t="s">
         <v>658</v>
@@ -4009,10 +4009,10 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J53" t="s">
         <v>658</v>
@@ -4038,10 +4038,10 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J54" t="s">
         <v>658</v>
@@ -4067,10 +4067,10 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J55" t="s">
         <v>658</v>
@@ -4096,10 +4096,10 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J56" t="s">
         <v>658</v>
@@ -4125,10 +4125,10 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J57" t="s">
         <v>658</v>
@@ -4154,10 +4154,10 @@
         <v>2</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J58" t="s">
         <v>658</v>
@@ -4183,10 +4183,10 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J59" t="s">
         <v>658</v>
@@ -4212,10 +4212,10 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J60" t="s">
         <v>658</v>
@@ -4241,10 +4241,10 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J61" t="s">
         <v>658</v>
@@ -4270,10 +4270,10 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J62" t="s">
         <v>658</v>
@@ -4299,10 +4299,10 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J63" t="s">
         <v>658</v>
@@ -4328,10 +4328,10 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J64" t="s">
         <v>658</v>
@@ -4357,10 +4357,10 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J65" t="s">
         <v>658</v>
@@ -4386,10 +4386,10 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J66" t="s">
         <v>658</v>
@@ -4415,10 +4415,10 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J67" t="s">
         <v>658</v>
@@ -4444,10 +4444,10 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J68" t="s">
         <v>658</v>
@@ -4473,10 +4473,10 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J69" t="s">
         <v>658</v>
@@ -4502,10 +4502,10 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J70" t="s">
         <v>658</v>
@@ -4531,10 +4531,10 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J71" t="s">
         <v>658</v>
@@ -4560,10 +4560,10 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J72" t="s">
         <v>658</v>
@@ -4589,10 +4589,10 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J73" t="s">
         <v>658</v>
@@ -4618,10 +4618,10 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J74" t="s">
         <v>658</v>
@@ -4647,10 +4647,10 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J75" t="s">
         <v>658</v>
@@ -4676,13 +4676,13 @@
         <v>1</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G76" t="s">
         <v>194</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J76" t="s">
         <v>658</v>
@@ -4708,10 +4708,10 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J77" t="s">
         <v>658</v>
@@ -4737,10 +4737,10 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J78" t="s">
         <v>658</v>
@@ -4766,10 +4766,10 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J79" t="s">
         <v>658</v>
@@ -4795,10 +4795,10 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J80" t="s">
         <v>658</v>
@@ -4824,10 +4824,10 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J81" t="s">
         <v>658</v>
@@ -4853,10 +4853,10 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J82" t="s">
         <v>658</v>
@@ -4882,10 +4882,10 @@
         <v>2</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J83" t="s">
         <v>658</v>
@@ -4911,10 +4911,10 @@
         <v>1</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J84" t="s">
         <v>658</v>
@@ -4940,10 +4940,10 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J85" t="s">
         <v>658</v>
@@ -4969,10 +4969,10 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J86" t="s">
         <v>658</v>
@@ -4998,10 +4998,10 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J87" t="s">
         <v>658</v>
@@ -5027,10 +5027,10 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J88" t="s">
         <v>658</v>
@@ -5056,10 +5056,10 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J89" t="s">
         <v>658</v>
@@ -5085,10 +5085,10 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J90" t="s">
         <v>658</v>
@@ -5114,10 +5114,10 @@
         <v>1</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J91" t="s">
         <v>658</v>
@@ -5143,10 +5143,10 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J92" t="s">
         <v>658</v>
@@ -5172,10 +5172,10 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J93" t="s">
         <v>658</v>
@@ -5201,10 +5201,10 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J94" t="s">
         <v>658</v>
@@ -5230,10 +5230,10 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J95" t="s">
         <v>658</v>
@@ -5259,13 +5259,13 @@
         <v>2</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G96" t="s">
         <v>260</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J96" t="s">
         <v>658</v>
@@ -5291,10 +5291,10 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J97" t="s">
         <v>658</v>
@@ -5320,10 +5320,10 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J98" t="s">
         <v>658</v>
@@ -5349,10 +5349,10 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J99" t="s">
         <v>658</v>
@@ -5378,10 +5378,10 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J100" t="s">
         <v>658</v>
@@ -5407,10 +5407,10 @@
         <v>2</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J101" t="s">
         <v>658</v>
@@ -5436,10 +5436,10 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J102" t="s">
         <v>658</v>
@@ -5465,10 +5465,10 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J103" t="s">
         <v>658</v>
@@ -5494,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J104" t="s">
         <v>658</v>
@@ -5523,10 +5523,10 @@
         <v>1</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J105" t="s">
         <v>658</v>
@@ -5552,10 +5552,10 @@
         <v>1</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J106" t="s">
         <v>658</v>
@@ -5581,10 +5581,10 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J107" t="s">
         <v>658</v>
@@ -5610,10 +5610,10 @@
         <v>1</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J108" t="s">
         <v>658</v>
@@ -5639,13 +5639,13 @@
         <v>1</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J109" t="s">
         <v>658</v>
@@ -5671,10 +5671,10 @@
         <v>2</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J110" t="s">
         <v>658</v>
@@ -5700,13 +5700,13 @@
         <v>1</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J111" t="s">
         <v>658</v>
@@ -5732,13 +5732,13 @@
         <v>2</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J112" t="s">
         <v>658</v>
@@ -5764,10 +5764,10 @@
         <v>2</v>
       </c>
       <c r="F113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J113" t="s">
         <v>658</v>
@@ -5793,10 +5793,10 @@
         <v>1</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J114" t="s">
         <v>658</v>
@@ -5822,10 +5822,10 @@
         <v>1</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J115" t="s">
         <v>658</v>
@@ -5851,10 +5851,10 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J116" t="s">
         <v>658</v>
@@ -5880,10 +5880,10 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J117" t="s">
         <v>658</v>
@@ -5909,10 +5909,10 @@
         <v>1</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J118" t="s">
         <v>658</v>
@@ -5938,10 +5938,10 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J119" t="s">
         <v>658</v>
@@ -5967,10 +5967,10 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J120" t="s">
         <v>658</v>
@@ -5996,10 +5996,10 @@
         <v>1</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J121" t="s">
         <v>658</v>
@@ -6025,10 +6025,10 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J122" t="s">
         <v>658</v>
@@ -6054,10 +6054,10 @@
         <v>1</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J123" t="s">
         <v>658</v>
@@ -6083,10 +6083,10 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J124" t="s">
         <v>658</v>
@@ -6112,10 +6112,10 @@
         <v>1</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J125" t="s">
         <v>658</v>
@@ -6141,13 +6141,13 @@
         <v>1</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G126" t="s">
         <v>312</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J126" t="s">
         <v>658</v>
@@ -6173,13 +6173,13 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G127" t="s">
         <v>316</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J127" t="s">
         <v>658</v>
@@ -6205,10 +6205,10 @@
         <v>1</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J128" t="s">
         <v>658</v>
@@ -6234,10 +6234,10 @@
         <v>1</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J129" t="s">
         <v>658</v>
@@ -6263,10 +6263,10 @@
         <v>1</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J130" t="s">
         <v>658</v>
@@ -6292,10 +6292,10 @@
         <v>1</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J131" t="s">
         <v>658</v>
@@ -6321,10 +6321,10 @@
         <v>1</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J132" t="s">
         <v>658</v>
@@ -6350,10 +6350,10 @@
         <v>1</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J133" t="s">
         <v>658</v>
@@ -6379,10 +6379,10 @@
         <v>1</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J134" t="s">
         <v>658</v>
@@ -6408,10 +6408,10 @@
         <v>1</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J135" t="s">
         <v>658</v>
@@ -6437,10 +6437,10 @@
         <v>1</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J136" t="s">
         <v>658</v>
@@ -6466,10 +6466,10 @@
         <v>1</v>
       </c>
       <c r="F137">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J137" t="s">
         <v>658</v>
@@ -6495,10 +6495,10 @@
         <v>1</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J138" t="s">
         <v>658</v>
@@ -6524,10 +6524,10 @@
         <v>2</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J139" t="s">
         <v>658</v>
@@ -6553,13 +6553,13 @@
         <v>1</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G140" t="s">
         <v>350</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J140" t="s">
         <v>658</v>
@@ -6585,16 +6585,16 @@
         <v>1</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G141" t="s">
         <v>353</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J141" t="s">
         <v>658</v>
@@ -6620,10 +6620,10 @@
         <v>1</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J142" t="s">
         <v>658</v>
@@ -6649,10 +6649,10 @@
         <v>2</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J143" t="s">
         <v>658</v>
@@ -6678,10 +6678,10 @@
         <v>1</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J144" t="s">
         <v>658</v>
@@ -6707,13 +6707,13 @@
         <v>1</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G145" t="s">
         <v>368</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J145" t="s">
         <v>658</v>
@@ -6739,10 +6739,10 @@
         <v>2</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J146" t="s">
         <v>658</v>
@@ -6768,13 +6768,13 @@
         <v>2</v>
       </c>
       <c r="F147">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G147" t="s">
         <v>377</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J147" t="s">
         <v>658</v>
@@ -6800,10 +6800,10 @@
         <v>1</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J148" t="s">
         <v>658</v>
@@ -6829,10 +6829,10 @@
         <v>1</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J149" t="s">
         <v>658</v>
@@ -6858,10 +6858,10 @@
         <v>1</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J150" t="s">
         <v>658</v>
@@ -6887,10 +6887,10 @@
         <v>2</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J151" t="s">
         <v>658</v>
@@ -6916,10 +6916,10 @@
         <v>1</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J152" t="s">
         <v>658</v>
@@ -6945,10 +6945,10 @@
         <v>1</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J153" t="s">
         <v>658</v>
@@ -6974,10 +6974,10 @@
         <v>2</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J154" t="s">
         <v>658</v>
@@ -7003,10 +7003,10 @@
         <v>1</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J155" t="s">
         <v>658</v>
@@ -7032,13 +7032,13 @@
         <v>1</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G156" t="s">
         <v>394</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J156" t="s">
         <v>658</v>
@@ -7064,10 +7064,10 @@
         <v>1</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J157" t="s">
         <v>658</v>
@@ -7093,10 +7093,10 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J158" t="s">
         <v>658</v>
@@ -7122,10 +7122,10 @@
         <v>1</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J159" t="s">
         <v>658</v>
@@ -7151,10 +7151,10 @@
         <v>1</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J160" t="s">
         <v>658</v>
@@ -7180,10 +7180,10 @@
         <v>1</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J161" t="s">
         <v>658</v>
@@ -7209,10 +7209,10 @@
         <v>1</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J162" t="s">
         <v>658</v>
@@ -7238,10 +7238,10 @@
         <v>1</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J163" t="s">
         <v>658</v>
@@ -7267,10 +7267,10 @@
         <v>1</v>
       </c>
       <c r="F164">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J164" t="s">
         <v>658</v>
@@ -7296,13 +7296,13 @@
         <v>1</v>
       </c>
       <c r="F165">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G165" t="s">
         <v>433</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J165" t="s">
         <v>658</v>
@@ -7328,13 +7328,13 @@
         <v>1</v>
       </c>
       <c r="F166">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G166" t="s">
         <v>437</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J166" t="s">
         <v>658</v>
@@ -7360,10 +7360,10 @@
         <v>2</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J167" t="s">
         <v>658</v>
@@ -7389,10 +7389,10 @@
         <v>1</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J168" t="s">
         <v>658</v>
@@ -7418,10 +7418,10 @@
         <v>1</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J169" t="s">
         <v>658</v>
@@ -7447,10 +7447,10 @@
         <v>1</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J170" t="s">
         <v>658</v>
@@ -7476,10 +7476,10 @@
         <v>1</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J171" t="s">
         <v>658</v>
@@ -7505,13 +7505,13 @@
         <v>1</v>
       </c>
       <c r="F172">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G172" t="s">
         <v>458</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J172" t="s">
         <v>658</v>
@@ -7540,13 +7540,13 @@
         <v>1</v>
       </c>
       <c r="F173">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G173" t="s">
         <v>461</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J173" t="s">
         <v>658</v>
@@ -7572,10 +7572,10 @@
         <v>2</v>
       </c>
       <c r="F174">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J174" t="s">
         <v>658</v>
@@ -7604,13 +7604,13 @@
         <v>1</v>
       </c>
       <c r="F175">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G175" t="s">
         <v>484</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J175" t="s">
         <v>658</v>
@@ -7636,10 +7636,10 @@
         <v>1</v>
       </c>
       <c r="F176">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J176" t="s">
         <v>658</v>
@@ -7665,10 +7665,10 @@
         <v>2</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J177" t="s">
         <v>658</v>
@@ -7697,13 +7697,13 @@
         <v>1</v>
       </c>
       <c r="F178">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G178" t="s">
         <v>507</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J178" t="s">
         <v>658</v>
@@ -7732,10 +7732,10 @@
         <v>2</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J179" t="s">
         <v>658</v>
@@ -7764,10 +7764,10 @@
         <v>2</v>
       </c>
       <c r="F180">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J180" t="s">
         <v>658</v>
@@ -7796,10 +7796,10 @@
         <v>1</v>
       </c>
       <c r="F181">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J181" t="s">
         <v>658</v>
@@ -7825,10 +7825,10 @@
         <v>1</v>
       </c>
       <c r="F182">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J182" t="s">
         <v>658</v>
@@ -7854,10 +7854,10 @@
         <v>1</v>
       </c>
       <c r="F183">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J183" t="s">
         <v>658</v>
@@ -7889,10 +7889,10 @@
         <v>1</v>
       </c>
       <c r="F184">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J184" t="s">
         <v>658</v>
@@ -7921,10 +7921,10 @@
         <v>1</v>
       </c>
       <c r="F185">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J185" t="s">
         <v>658</v>
@@ -7953,10 +7953,10 @@
         <v>1</v>
       </c>
       <c r="F186">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J186" t="s">
         <v>658</v>
@@ -7985,10 +7985,10 @@
         <v>2</v>
       </c>
       <c r="F187">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J187" t="s">
         <v>658</v>
@@ -8017,10 +8017,10 @@
         <v>1</v>
       </c>
       <c r="F188">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J188" t="s">
         <v>658</v>
@@ -8049,10 +8049,10 @@
         <v>1</v>
       </c>
       <c r="F189">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J189" t="s">
         <v>658</v>
@@ -8081,13 +8081,13 @@
         <v>1</v>
       </c>
       <c r="F190">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J190" t="s">
         <v>658</v>
@@ -8116,10 +8116,10 @@
         <v>1</v>
       </c>
       <c r="F191">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J191" t="s">
         <v>658</v>
@@ -8148,10 +8148,10 @@
         <v>1</v>
       </c>
       <c r="F192">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J192" t="s">
         <v>658</v>
@@ -8180,10 +8180,10 @@
         <v>2</v>
       </c>
       <c r="F193">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J193" t="s">
         <v>658</v>
@@ -8212,10 +8212,10 @@
         <v>1</v>
       </c>
       <c r="F194">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J194" t="s">
         <v>658</v>
@@ -8244,10 +8244,10 @@
         <v>1</v>
       </c>
       <c r="F195">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J195" t="s">
         <v>658</v>
@@ -8276,13 +8276,13 @@
         <v>1</v>
       </c>
       <c r="F196">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G196" t="s">
         <v>54</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J196" t="s">
         <v>55</v>
@@ -8308,10 +8308,10 @@
         <v>1</v>
       </c>
       <c r="F197">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J197" t="s">
         <v>55</v>
@@ -8337,10 +8337,10 @@
         <v>1</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J198" t="s">
         <v>55</v>
@@ -8366,10 +8366,10 @@
         <v>1</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J199" t="s">
         <v>55</v>
@@ -8395,10 +8395,10 @@
         <v>1</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J200" t="s">
         <v>55</v>
@@ -8424,13 +8424,13 @@
         <v>1</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G201" t="s">
         <v>221</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J201" t="s">
         <v>55</v>
@@ -8456,10 +8456,10 @@
         <v>1</v>
       </c>
       <c r="F202">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J202" t="s">
         <v>55</v>
@@ -8485,10 +8485,10 @@
         <v>2</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J203" t="s">
         <v>55</v>
@@ -8514,13 +8514,13 @@
         <v>1</v>
       </c>
       <c r="F204">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G204" t="s">
         <v>247</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J204" t="s">
         <v>55</v>
@@ -8546,13 +8546,13 @@
         <v>1</v>
       </c>
       <c r="F205">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G205" t="s">
         <v>252</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J205" t="s">
         <v>55</v>
@@ -8578,13 +8578,13 @@
         <v>1</v>
       </c>
       <c r="F206">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G206" t="s">
         <v>256</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J206" t="s">
         <v>55</v>
@@ -8610,10 +8610,10 @@
         <v>1</v>
       </c>
       <c r="F207">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J207" t="s">
         <v>55</v>
@@ -8639,13 +8639,13 @@
         <v>2</v>
       </c>
       <c r="F208">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G208" t="s">
         <v>330</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J208" t="s">
         <v>55</v>
@@ -8671,13 +8671,13 @@
         <v>1</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G209" t="s">
         <v>336</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J209" t="s">
         <v>55</v>
@@ -8703,13 +8703,13 @@
         <v>1</v>
       </c>
       <c r="F210">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G210" t="s">
         <v>247</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J210" t="s">
         <v>55</v>
@@ -8735,13 +8735,13 @@
         <v>1</v>
       </c>
       <c r="F211">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G211" t="s">
         <v>419</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J211" t="s">
         <v>55</v>
@@ -8767,13 +8767,13 @@
         <v>1</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G212" t="s">
         <v>115</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J212" t="s">
         <v>55</v>
@@ -8805,10 +8805,10 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J213" t="s">
         <v>55</v>
@@ -8840,16 +8840,16 @@
         <v>1</v>
       </c>
       <c r="F214">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G214" t="s">
         <v>455</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J214" t="s">
         <v>55</v>
@@ -8878,13 +8878,13 @@
         <v>1</v>
       </c>
       <c r="F215">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G215" t="s">
         <v>469</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J215" t="s">
         <v>55</v>
@@ -8913,10 +8913,10 @@
         <v>1</v>
       </c>
       <c r="F216">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J216" t="s">
         <v>55</v>
@@ -8945,13 +8945,13 @@
         <v>1</v>
       </c>
       <c r="F217">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G217" t="s">
         <v>247</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J217" t="s">
         <v>55</v>
@@ -8977,13 +8977,13 @@
         <v>1</v>
       </c>
       <c r="F218">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G218" t="s">
         <v>478</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J218" t="s">
         <v>55</v>
@@ -9012,13 +9012,13 @@
         <v>1</v>
       </c>
       <c r="F219">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G219" t="s">
         <v>115</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J219" t="s">
         <v>55</v>
@@ -9047,10 +9047,10 @@
         <v>1</v>
       </c>
       <c r="F220">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J220" t="s">
         <v>55</v>
@@ -9079,13 +9079,13 @@
         <v>1</v>
       </c>
       <c r="F221">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G221" t="s">
         <v>494</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J221" t="s">
         <v>55</v>
@@ -9114,10 +9114,10 @@
         <v>1</v>
       </c>
       <c r="F222">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J222" t="s">
         <v>55</v>
@@ -9143,10 +9143,10 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J223" t="s">
         <v>55</v>
@@ -9172,13 +9172,13 @@
         <v>1</v>
       </c>
       <c r="F224">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G224" t="s">
         <v>501</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J224" t="s">
         <v>55</v>
@@ -9207,10 +9207,10 @@
         <v>1</v>
       </c>
       <c r="F225">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J225" t="s">
         <v>55</v>
@@ -9239,10 +9239,10 @@
         <v>1</v>
       </c>
       <c r="F226">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J226" t="s">
         <v>55</v>
@@ -9271,10 +9271,10 @@
         <v>2</v>
       </c>
       <c r="F227">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J227" t="s">
         <v>55</v>
@@ -9303,10 +9303,10 @@
         <v>2</v>
       </c>
       <c r="F228">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J228" t="s">
         <v>55</v>
@@ -9335,10 +9335,10 @@
         <v>1</v>
       </c>
       <c r="F229">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J229" t="s">
         <v>55</v>
@@ -9367,10 +9367,10 @@
         <v>2</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J230" t="s">
         <v>55</v>
@@ -9399,10 +9399,10 @@
         <v>2</v>
       </c>
       <c r="F231">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J231" t="s">
         <v>55</v>
@@ -9431,10 +9431,10 @@
         <v>1</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J232" t="s">
         <v>55</v>
@@ -9463,13 +9463,13 @@
         <v>2</v>
       </c>
       <c r="F233">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I233">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J233" t="s">
         <v>55</v>
@@ -9498,10 +9498,10 @@
         <v>1</v>
       </c>
       <c r="F234">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J234" t="s">
         <v>55</v>
@@ -9530,10 +9530,10 @@
         <v>1</v>
       </c>
       <c r="F235">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J235" t="s">
         <v>55</v>
@@ -9562,10 +9562,10 @@
         <v>1</v>
       </c>
       <c r="F236">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J236" t="s">
         <v>55</v>
@@ -9594,10 +9594,10 @@
         <v>1</v>
       </c>
       <c r="F237">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J237" t="s">
         <v>55</v>
@@ -9626,10 +9626,10 @@
         <v>1</v>
       </c>
       <c r="F238">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J238" t="s">
         <v>55</v>
@@ -9658,10 +9658,10 @@
         <v>1</v>
       </c>
       <c r="F239">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J239" t="s">
         <v>55</v>
@@ -9690,13 +9690,13 @@
         <v>1</v>
       </c>
       <c r="F240">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J240" t="s">
         <v>55</v>
@@ -9725,10 +9725,10 @@
         <v>2</v>
       </c>
       <c r="F241">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J241" t="s">
         <v>55</v>
@@ -9757,10 +9757,10 @@
         <v>1</v>
       </c>
       <c r="F242">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J242" t="s">
         <v>55</v>
@@ -9789,10 +9789,10 @@
         <v>1</v>
       </c>
       <c r="F243">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J243" t="s">
         <v>55</v>
@@ -9821,10 +9821,10 @@
         <v>1</v>
       </c>
       <c r="F244">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J244" t="s">
         <v>55</v>
@@ -9853,10 +9853,10 @@
         <v>1</v>
       </c>
       <c r="F245">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J245" t="s">
         <v>55</v>
@@ -9885,10 +9885,10 @@
         <v>1</v>
       </c>
       <c r="F246">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J246" t="s">
         <v>55</v>
@@ -9917,10 +9917,10 @@
         <v>2</v>
       </c>
       <c r="F247">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J247" t="s">
         <v>55</v>
@@ -9949,10 +9949,10 @@
         <v>1</v>
       </c>
       <c r="F248">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J248" t="s">
         <v>55</v>
@@ -9981,10 +9981,10 @@
         <v>1</v>
       </c>
       <c r="F249">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J249" t="s">
         <v>55</v>
@@ -10013,10 +10013,10 @@
         <v>1</v>
       </c>
       <c r="F250">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J250" t="s">
         <v>603</v>
@@ -10045,16 +10045,16 @@
         <v>1</v>
       </c>
       <c r="F251">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G251" t="s">
         <v>7</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I251">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J251" t="s">
         <v>8</v>
@@ -10083,13 +10083,13 @@
         <v>1</v>
       </c>
       <c r="F252">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G252" t="s">
         <v>11</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J252" t="s">
         <v>8</v>
@@ -10118,13 +10118,13 @@
         <v>1</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G253" t="s">
         <v>40</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J253" t="s">
         <v>8</v>
@@ -10153,10 +10153,10 @@
         <v>1</v>
       </c>
       <c r="F254">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J254" t="s">
         <v>8</v>
@@ -10182,13 +10182,13 @@
         <v>1</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G255" t="s">
         <v>107</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J255" t="s">
         <v>8</v>
@@ -10214,10 +10214,10 @@
         <v>1</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J256" t="s">
         <v>8</v>
@@ -10243,13 +10243,13 @@
         <v>1</v>
       </c>
       <c r="F257">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J257" t="s">
         <v>8</v>
@@ -10275,10 +10275,10 @@
         <v>1</v>
       </c>
       <c r="F258">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J258" t="s">
         <v>8</v>
@@ -10304,13 +10304,13 @@
         <v>1</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G259" t="s">
         <v>169</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J259" t="s">
         <v>8</v>
@@ -10336,10 +10336,10 @@
         <v>1</v>
       </c>
       <c r="F260">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J260" t="s">
         <v>8</v>
@@ -10365,10 +10365,10 @@
         <v>1</v>
       </c>
       <c r="F261">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J261" t="s">
         <v>8</v>
@@ -10394,10 +10394,10 @@
         <v>1</v>
       </c>
       <c r="F262">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J262" t="s">
         <v>8</v>
@@ -10423,13 +10423,13 @@
         <v>1</v>
       </c>
       <c r="F263">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G263" t="s">
         <v>424</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J263" t="s">
         <v>8</v>
@@ -10455,13 +10455,13 @@
         <v>1</v>
       </c>
       <c r="F264">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G264" t="s">
         <v>430</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J264" t="s">
         <v>8</v>
@@ -10487,13 +10487,13 @@
         <v>1</v>
       </c>
       <c r="F265">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G265" t="s">
         <v>466</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J265" t="s">
         <v>8</v>
@@ -10522,13 +10522,13 @@
         <v>1</v>
       </c>
       <c r="F266">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G266" t="s">
         <v>504</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J266" t="s">
         <v>8</v>
@@ -10557,10 +10557,10 @@
         <v>2</v>
       </c>
       <c r="F267">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J267" t="s">
         <v>8</v>
@@ -10589,13 +10589,13 @@
         <v>1</v>
       </c>
       <c r="F268">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G268" t="s">
         <v>524</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J268" t="s">
         <v>8</v>
@@ -10624,13 +10624,13 @@
         <v>1</v>
       </c>
       <c r="F269">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G269" t="s">
         <v>530</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J269" t="s">
         <v>8</v>
@@ -10659,13 +10659,13 @@
         <v>1</v>
       </c>
       <c r="F270">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G270" t="s">
         <v>548</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J270" t="s">
         <v>8</v>
@@ -10694,10 +10694,10 @@
         <v>1</v>
       </c>
       <c r="F271">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J271" t="s">
         <v>8</v>
@@ -10726,13 +10726,13 @@
         <v>1</v>
       </c>
       <c r="F272">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G272" t="s">
         <v>572</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J272" t="s">
         <v>8</v>
@@ -10761,10 +10761,10 @@
         <v>1</v>
       </c>
       <c r="F273">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J273" t="s">
         <v>8</v>
@@ -10793,10 +10793,10 @@
         <v>1</v>
       </c>
       <c r="F274">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J274" t="s">
         <v>8</v>
@@ -10825,10 +10825,10 @@
         <v>1</v>
       </c>
       <c r="F275">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J275" t="s">
         <v>8</v>
@@ -10857,10 +10857,10 @@
         <v>1</v>
       </c>
       <c r="F276">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J276" t="s">
         <v>8</v>
@@ -10889,10 +10889,10 @@
         <v>1</v>
       </c>
       <c r="F277">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J277" t="s">
         <v>545</v>
@@ -10921,13 +10921,13 @@
         <v>2</v>
       </c>
       <c r="F278">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G278" t="s">
         <v>3</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J278" t="s">
         <v>4</v>
@@ -10956,10 +10956,10 @@
         <v>1</v>
       </c>
       <c r="F279">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J279" t="s">
         <v>4</v>
@@ -10988,10 +10988,10 @@
         <v>1</v>
       </c>
       <c r="F280">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J280" t="s">
         <v>4</v>
@@ -11020,10 +11020,10 @@
         <v>1</v>
       </c>
       <c r="F281">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J281" t="s">
         <v>19</v>
@@ -11052,10 +11052,10 @@
         <v>1</v>
       </c>
       <c r="F282">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J282" t="s">
         <v>19</v>
@@ -11081,10 +11081,10 @@
         <v>1</v>
       </c>
       <c r="F283">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J283" t="s">
         <v>19</v>
@@ -11110,13 +11110,13 @@
         <v>1</v>
       </c>
       <c r="F284">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G284" t="s">
         <v>115</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J284" t="s">
         <v>19</v>
@@ -11142,10 +11142,10 @@
         <v>1</v>
       </c>
       <c r="F285">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J285" t="s">
         <v>19</v>
@@ -11171,10 +11171,10 @@
         <v>2</v>
       </c>
       <c r="F286">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J286" t="s">
         <v>19</v>
@@ -11200,10 +11200,10 @@
         <v>1</v>
       </c>
       <c r="F287">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J287" t="s">
         <v>19</v>
@@ -11229,10 +11229,10 @@
         <v>1</v>
       </c>
       <c r="F288">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J288" t="s">
         <v>19</v>
@@ -11258,10 +11258,10 @@
         <v>1</v>
       </c>
       <c r="F289">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J289" t="s">
         <v>19</v>
@@ -11287,13 +11287,13 @@
         <v>1</v>
       </c>
       <c r="F290">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G290" t="s">
         <v>381</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J290" t="s">
         <v>19</v>
@@ -11319,13 +11319,13 @@
         <v>1</v>
       </c>
       <c r="F291">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G291" t="s">
         <v>115</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J291" t="s">
         <v>19</v>
@@ -11354,10 +11354,10 @@
         <v>1</v>
       </c>
       <c r="F292">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J292" t="s">
         <v>19</v>
@@ -11389,10 +11389,10 @@
         <v>1</v>
       </c>
       <c r="F293">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J293" t="s">
         <v>19</v>
@@ -11421,10 +11421,10 @@
         <v>1</v>
       </c>
       <c r="F294">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J294" t="s">
         <v>19</v>
@@ -11453,10 +11453,10 @@
         <v>1</v>
       </c>
       <c r="F295">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J295" t="s">
         <v>19</v>
@@ -11485,10 +11485,10 @@
         <v>1</v>
       </c>
       <c r="F296">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J296" t="s">
         <v>19</v>
@@ -11517,10 +11517,10 @@
         <v>1</v>
       </c>
       <c r="F297">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J297" t="s">
         <v>19</v>
@@ -11549,10 +11549,10 @@
         <v>1</v>
       </c>
       <c r="F298">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J298" t="s">
         <v>19</v>
@@ -11581,10 +11581,10 @@
         <v>1</v>
       </c>
       <c r="F299">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J299" t="s">
         <v>201</v>
@@ -11610,10 +11610,10 @@
         <v>2</v>
       </c>
       <c r="F300">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J300" t="s">
         <v>201</v>
@@ -11639,13 +11639,13 @@
         <v>1</v>
       </c>
       <c r="F301">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G301" t="s">
         <v>208</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J301" t="s">
         <v>201</v>
@@ -11671,13 +11671,13 @@
         <v>1</v>
       </c>
       <c r="F302">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J302" t="s">
         <v>201</v>
@@ -11703,10 +11703,10 @@
         <v>1</v>
       </c>
       <c r="F303">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J303" t="s">
         <v>201</v>
@@ -11732,13 +11732,13 @@
         <v>1</v>
       </c>
       <c r="F304">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G304" t="s">
         <v>15</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J304" t="s">
         <v>16</v>
@@ -11767,10 +11767,10 @@
         <v>1</v>
       </c>
       <c r="F305">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J305" t="s">
         <v>16</v>
@@ -11799,10 +11799,10 @@
         <v>1</v>
       </c>
       <c r="F306">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J306" t="s">
         <v>16</v>
@@ -11831,16 +11831,16 @@
         <v>1</v>
       </c>
       <c r="F307">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G307" t="s">
         <v>198</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I307">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J307" t="s">
         <v>16</v>
@@ -11866,10 +11866,10 @@
         <v>1</v>
       </c>
       <c r="F308">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J308" t="s">
         <v>16</v>
@@ -11895,10 +11895,10 @@
         <v>1</v>
       </c>
       <c r="F309">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J309" t="s">
         <v>16</v>

--- a/Access_Data_Export/clients.xlsx
+++ b/Access_Data_Export/clients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claude\Litigation_Database_Ver2\Litigation_Database_Ver2\Access_Data_Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F164B705-E121-4706-8FB2-2DA1F18F4EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEC4DE2-2448-4809-B49C-3B59436F4518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2425,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M309"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
